--- a/Burndown Chart/Burndown Charts.xlsx
+++ b/Burndown Chart/Burndown Charts.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f00c811aa47a02b7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\OTS-Courier-Services\Burndown Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="8595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10130" windowHeight="8600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>Hours Spent</t>
   </si>
@@ -126,6 +126,54 @@
   </si>
   <si>
     <t>Story 18</t>
+  </si>
+  <si>
+    <t>Story 19</t>
+  </si>
+  <si>
+    <t>Story 20</t>
+  </si>
+  <si>
+    <t>Story 16</t>
+  </si>
+  <si>
+    <t>Story 17</t>
+  </si>
+  <si>
+    <t>Story 2</t>
+  </si>
+  <si>
+    <t>Story 3</t>
+  </si>
+  <si>
+    <t>Day 21</t>
+  </si>
+  <si>
+    <t>Day 22</t>
+  </si>
+  <si>
+    <t>Day 23</t>
+  </si>
+  <si>
+    <t>Day 24</t>
+  </si>
+  <si>
+    <t>Day 25</t>
+  </si>
+  <si>
+    <t>Day 26</t>
+  </si>
+  <si>
+    <t>Day 27</t>
+  </si>
+  <si>
+    <t>Day 28</t>
+  </si>
+  <si>
+    <t>Day 29</t>
+  </si>
+  <si>
+    <t>Day 30</t>
   </si>
 </sst>
 </file>
@@ -1197,6 +1245,524 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Burndown</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Chart Sprint 3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 3'!$C$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E658-4BE6-A1B1-A15D033F44A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 3'!$C$12:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.20000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.400000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8000000000000087</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E658-4BE6-A1B1-A15D033F44A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="459391488"/>
+        <c:axId val="459390176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="459391488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Days</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> within Sprint</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459390176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="459390176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Hours of Work</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Remaining</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459391488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1277,6 +1843,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1794,6 +2400,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2358,6 +3480,41 @@
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2678,25 +3835,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="A3:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -2728,7 +3885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2767,16 +3924,16 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <f>SUM(C5:L5)</f>
+        <f t="shared" ref="M5:M10" si="0">SUM(C5:L5)</f>
         <v>14.5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6:B10" si="0">C6+D6+E6+F6+G6+H6+I6+J6+K6+L6</f>
+        <f t="shared" ref="B6:B10" si="1">C6+D6+E6+F6+G6+H6+I6+J6+K6+L6</f>
         <v>7.5</v>
       </c>
       <c r="C6">
@@ -2810,183 +3967,183 @@
         <v>2</v>
       </c>
       <c r="M6">
-        <f>SUM(C6:L6)</f>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1.5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1.5</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f>SUM(C7:L7)</f>
-        <v>6.5</v>
-      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2.5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>2.5</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <f>SUM(C8:L8)</f>
-        <v>6.5</v>
-      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <f>SUM(C9:L9)</f>
-        <v>7</v>
-      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <f>SUM(C10:L10)</f>
-        <v>9</v>
-      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2999,43 +4156,43 @@
         <v>51</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:L11" si="1">C11-SUM(D5:D10)</f>
+        <f t="shared" ref="D11:L11" si="2">C11-SUM(D5:D10)</f>
         <v>47</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37.5</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.5</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3098,12 +4255,12 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>2</v>
       </c>
@@ -3135,7 +4292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3178,7 +4335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -3221,7 +4378,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -3264,7 +4421,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -3307,7 +4464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3316,47 +4473,47 @@
         <v>29</v>
       </c>
       <c r="C6">
-        <f>B6-SUM(C2:C5)</f>
+        <f t="shared" ref="C6:L6" si="1">B6-SUM(C2:C5)</f>
         <v>29</v>
       </c>
       <c r="D6">
-        <f>C6-SUM(D2:D5)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="E6">
-        <f>D6-SUM(E2:E5)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="F6">
-        <f>E6-SUM(F2:F5)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="G6">
-        <f>F6-SUM(G2:G5)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="H6">
-        <f>G6-SUM(H2:H5)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I6">
-        <f>H6-SUM(I2:I5)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="J6">
-        <f>I6-SUM(J2:J5)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K6">
-        <f>J6-SUM(K2:K5)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L6">
-        <f>K6-SUM(L2:L5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -3412,15 +4569,427 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <f>C5+D5+E5+F5+G5+H5+I5+J5+K5+L5</f>
+        <v>7.5</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M10" si="0">SUM(C5:L5)</f>
+        <v>7.5</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:B10" si="1">C6+D6+E6+F6+G6+H6+I6+J6+K6+L6</f>
+        <v>5.5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1.5</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="P6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B5:B10)</f>
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <f>B11-SUM(C5:C10)</f>
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:L11" si="2">C11-SUM(D5:D10)</f>
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>58</v>
+      </c>
+      <c r="C12">
+        <f>B12-(B12/10)</f>
+        <v>52.2</v>
+      </c>
+      <c r="D12">
+        <f>C12-(B12/10)</f>
+        <v>46.400000000000006</v>
+      </c>
+      <c r="E12">
+        <f>D12-(B12/10)</f>
+        <v>40.600000000000009</v>
+      </c>
+      <c r="F12">
+        <f>E12-(B12/10)</f>
+        <v>34.800000000000011</v>
+      </c>
+      <c r="G12">
+        <f>F12-(B12/10)</f>
+        <v>29.000000000000011</v>
+      </c>
+      <c r="H12">
+        <f>G12-(B12/10)</f>
+        <v>23.20000000000001</v>
+      </c>
+      <c r="I12">
+        <f>H12-(B12/10)</f>
+        <v>17.400000000000009</v>
+      </c>
+      <c r="J12">
+        <f>I12-(B12/10)</f>
+        <v>11.600000000000009</v>
+      </c>
+      <c r="K12" s="2">
+        <f>J12-(B12/10)</f>
+        <v>5.8000000000000087</v>
+      </c>
+      <c r="L12">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3430,7 +4999,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Burndown Chart/Burndown Charts.xlsx
+++ b/Burndown Chart/Burndown Charts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10130" windowHeight="8600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10130" windowHeight="8600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>Hours Spent</t>
   </si>
@@ -174,6 +174,63 @@
   </si>
   <si>
     <t>Day 30</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Story 6</t>
+  </si>
+  <si>
+    <t>Story 7</t>
+  </si>
+  <si>
+    <t>Veronica</t>
+  </si>
+  <si>
+    <t>Story 21</t>
+  </si>
+  <si>
+    <t>Hayden</t>
+  </si>
+  <si>
+    <t>Reeve</t>
+  </si>
+  <si>
+    <t>Modification</t>
+  </si>
+  <si>
+    <t>Day 31</t>
+  </si>
+  <si>
+    <t>Day 32</t>
+  </si>
+  <si>
+    <t>Day 33</t>
+  </si>
+  <si>
+    <t>Day 34</t>
+  </si>
+  <si>
+    <t>Day 35</t>
+  </si>
+  <si>
+    <t>Day 36</t>
+  </si>
+  <si>
+    <t>Day 37</t>
+  </si>
+  <si>
+    <t>Day 38</t>
+  </si>
+  <si>
+    <t>Day 39</t>
+  </si>
+  <si>
+    <t>Day 40</t>
+  </si>
+  <si>
+    <t>Matthew</t>
   </si>
 </sst>
 </file>
@@ -1763,6 +1820,372 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 4'!$C$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7AF1-41B2-BA39-177A1EB162D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 4'!$C$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.20000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.400000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8000000000000087</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7AF1-41B2-BA39-177A1EB162D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="324928104"/>
+        <c:axId val="324928760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="324928104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324928760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="324928760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324928104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1883,6 +2306,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2916,6 +3379,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3514,6 +4493,41 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>168275</xdr:colOff>
       <xdr:row>31</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4571,8 +5585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4995,12 +6009,380 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <f>C4+D4+E4+F4+G4+H4+I4+J4+K4+L4</f>
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M8" si="0">SUM(C4:L4)</f>
+        <v>4</v>
+      </c>
+      <c r="P4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B8" si="1">C5+D5+E5+F5+G5+H5+I5+J5+K5+L5</f>
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <f>SUM(B4:B8)</f>
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:L9" si="2">B9-SUM(C4:C8)</f>
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>58</v>
+      </c>
+      <c r="C10">
+        <f>B10-(B10/10)</f>
+        <v>52.2</v>
+      </c>
+      <c r="D10">
+        <f>C10-(B10/10)</f>
+        <v>46.400000000000006</v>
+      </c>
+      <c r="E10">
+        <f>D10-(B10/10)</f>
+        <v>40.600000000000009</v>
+      </c>
+      <c r="F10">
+        <f>E10-(B10/10)</f>
+        <v>34.800000000000011</v>
+      </c>
+      <c r="G10">
+        <f>F10-(B10/10)</f>
+        <v>29.000000000000011</v>
+      </c>
+      <c r="H10">
+        <f>G10-(B10/10)</f>
+        <v>23.20000000000001</v>
+      </c>
+      <c r="I10">
+        <f>H10-(B10/10)</f>
+        <v>17.400000000000009</v>
+      </c>
+      <c r="J10">
+        <f>I10-(B10/10)</f>
+        <v>11.600000000000009</v>
+      </c>
+      <c r="K10" s="2">
+        <f>J10-(B10/10)</f>
+        <v>5.8000000000000087</v>
+      </c>
+      <c r="L10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Burndown Chart/Burndown Charts.xlsx
+++ b/Burndown Chart/Burndown Charts.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veronica\Documents\OTS-Courier-Services\Burndown Chart\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprint 1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sprint 2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sprint 3" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sprint 4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint 4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -232,51 +236,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="D\-MMM"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\-mmm"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -288,7 +258,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -296,53 +266,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -401,15 +337,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -418,26 +372,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" spc="-1" strike="noStrike">
+              <a:rPr sz="1400" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
@@ -451,18 +405,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -471,13 +424,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -524,12 +490,9 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -538,13 +501,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -556,28 +532,28 @@
                   <c:v>52.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.4</c:v>
+                  <c:v>46.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.6</c:v>
+                  <c:v>40.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.8</c:v>
+                  <c:v>34.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>29.000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.2</c:v>
+                  <c:v>23.20000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.4</c:v>
+                  <c:v>17.400000000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.6</c:v>
+                  <c:v>11.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.80000000000001</c:v>
+                  <c:v>5.8000000000000087</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -587,6 +563,14 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -594,12 +578,12 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="8319868"/>
-        <c:axId val="98395799"/>
+        <c:smooth val="0"/>
+        <c:axId val="163489040"/>
+        <c:axId val="163490608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="8319868"/>
+        <c:axId val="163489040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -612,26 +596,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr sz="1000" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Calibri"/>
@@ -650,37 +634,40 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98395799"/>
+        <c:crossAx val="163490608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98395799"/>
+        <c:axId val="163490608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,7 +677,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -703,26 +690,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr sz="1000" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Calibri"/>
@@ -745,24 +732,27 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8319868"/>
+        <c:crossAx val="163489040"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -783,25 +773,33 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -810,26 +808,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" spc="-1" strike="noStrike">
+              <a:rPr sz="1400" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
@@ -843,18 +841,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -863,13 +860,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -916,12 +926,9 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -930,13 +937,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -951,25 +971,25 @@
                   <c:v>25.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.4</c:v>
+                  <c:v>22.400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.2</c:v>
+                  <c:v>19.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.8</c:v>
+                  <c:v>12.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.60000000000001</c:v>
+                  <c:v>9.600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.40000000000001</c:v>
+                  <c:v>6.4000000000000048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2</c:v>
+                  <c:v>3.2000000000000046</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -979,6 +999,14 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -986,12 +1014,12 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="4331101"/>
-        <c:axId val="4968619"/>
+        <c:smooth val="0"/>
+        <c:axId val="163495312"/>
+        <c:axId val="163488256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="4331101"/>
+        <c:axId val="163495312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1004,26 +1032,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr sz="1000" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Calibri"/>
@@ -1042,37 +1070,40 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4968619"/>
+        <c:crossAx val="163488256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4968619"/>
+        <c:axId val="163488256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,7 +1113,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1095,26 +1126,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr sz="1000" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Calibri"/>
@@ -1137,24 +1168,27 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4331101"/>
+        <c:crossAx val="163495312"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1175,25 +1209,33 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1202,26 +1244,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" spc="-1" strike="noStrike">
+              <a:rPr sz="1400" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
@@ -1235,18 +1277,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1255,13 +1296,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1308,12 +1362,9 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1322,13 +1373,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1340,28 +1404,28 @@
                   <c:v>52.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.4</c:v>
+                  <c:v>46.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.6</c:v>
+                  <c:v>40.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.8</c:v>
+                  <c:v>34.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>29.000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.2</c:v>
+                  <c:v>23.20000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.4</c:v>
+                  <c:v>17.400000000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.6</c:v>
+                  <c:v>11.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.80000000000001</c:v>
+                  <c:v>5.8000000000000087</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1371,6 +1435,14 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1378,12 +1450,12 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="48309084"/>
-        <c:axId val="839178"/>
+        <c:smooth val="0"/>
+        <c:axId val="163489432"/>
+        <c:axId val="163491784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48309084"/>
+        <c:axId val="163489432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1396,26 +1468,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr sz="1000" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Calibri"/>
@@ -1434,37 +1506,40 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="839178"/>
+        <c:crossAx val="163491784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="839178"/>
+        <c:axId val="163491784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1474,7 +1549,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1487,26 +1562,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr sz="1000" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Calibri"/>
@@ -1529,24 +1604,27 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48309084"/>
+        <c:crossAx val="163489432"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1567,25 +1645,33 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1594,26 +1680,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="en-US" sz="1400" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
@@ -1623,22 +1709,22 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1647,13 +1733,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1662,25 +1761,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1700,12 +1799,9 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1714,13 +1810,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1732,28 +1841,28 @@
                   <c:v>52.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.4</c:v>
+                  <c:v>46.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.6</c:v>
+                  <c:v>40.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.8</c:v>
+                  <c:v>34.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>29.000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.2</c:v>
+                  <c:v>23.20000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.4</c:v>
+                  <c:v>17.400000000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.6</c:v>
+                  <c:v>11.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.80000000000001</c:v>
+                  <c:v>5.8000000000000087</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1763,6 +1872,14 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1770,12 +1887,12 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="9936002"/>
-        <c:axId val="33169771"/>
+        <c:smooth val="0"/>
+        <c:axId val="163495704"/>
+        <c:axId val="163492568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="9936002"/>
+        <c:axId val="163495704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1788,37 +1905,40 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33169771"/>
+        <c:crossAx val="163492568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33169771"/>
+        <c:axId val="163492568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1828,7 +1948,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1845,24 +1965,27 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9936002"/>
+        <c:crossAx val="163495704"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1873,6 +1996,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1883,23 +2007,29 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1913,14 +2043,14 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>174960</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 4"/>
+        <xdr:cNvPr id="2" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2184120" y="2384640"/>
-        <a:ext cx="7376760" cy="3682800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1934,7 +2064,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1948,14 +2078,14 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>57240</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2155680" y="1492560"/>
-        <a:ext cx="6547680" cy="3536640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1969,7 +2099,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1983,14 +2113,14 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>88920</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2427120" y="2568960"/>
-        <a:ext cx="6168600" cy="3228480"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2004,7 +2134,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -2018,14 +2148,14 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>88920</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3062160" y="2318040"/>
-        <a:ext cx="4505040" cy="2742840"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2038,1586 +2168,1815 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="21.625"/>
+    <col min="2" max="11" width="8.5"/>
+    <col min="12" max="12" width="11.375"/>
+    <col min="13" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <f aca="false">C5+D5+E5+F5+G5+H5+I5+J5+K5+L5</f>
+      <c r="B5">
+        <f t="shared" ref="B5:B10" si="0">C5+D5+E5+F5+G5+H5+I5+J5+K5+L5</f>
         <v>14.5</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="0" t="n">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>2.5</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0" t="n">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="0" t="n">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>3</v>
       </c>
-      <c r="M5" s="0" t="n">
-        <f aca="false">SUM(C5:L5)</f>
+      <c r="M5">
+        <f t="shared" ref="M5:M10" si="1">SUM(C5:L5)</f>
         <v>14.5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <f aca="false">C6+D6+E6+F6+G6+H6+I6+J6+K6+L6</f>
+      <c r="B6">
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>0.5</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0" t="n">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="0" t="n">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6">
         <v>2</v>
       </c>
-      <c r="M6" s="0" t="n">
-        <f aca="false">SUM(C6:L6)</f>
+      <c r="M6">
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <f aca="false">C7+D7+E7+F7+G7+H7+I7+J7+K7+L7</f>
+      <c r="B7">
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>1.5</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <f aca="false">SUM(C7:L7)</f>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">C8+D8+E8+F8+G8+H8+I8+J8+K8+L8</f>
+      <c r="B8">
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="0" t="n">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>2.5</v>
       </c>
-      <c r="I8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="0" t="n">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8">
         <v>2</v>
       </c>
-      <c r="M8" s="0" t="n">
-        <f aca="false">SUM(C8:L8)</f>
+      <c r="M8">
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <f aca="false">C9+D9+E9+F9+G9+H9+I9+J9+K9+L9</f>
+      <c r="B9">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="0" t="n">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9">
         <v>3</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <f aca="false">SUM(C9:L9)</f>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <f aca="false">C10+D10+E10+F10+G10+H10+I10+J10+K10+L10</f>
+      <c r="B10">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="0" t="n">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0" t="n">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>2</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10">
         <v>3</v>
       </c>
-      <c r="K10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <f aca="false">SUM(C10:L10)</f>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <f aca="false">SUM(B5:B10)</f>
+      <c r="B11">
+        <f>SUM(B5:B10)</f>
         <v>51</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <f aca="false">B11-SUM(C5:C10)</f>
+      <c r="C11">
+        <f t="shared" ref="C11:L11" si="2">B11-SUM(C5:C10)</f>
         <v>51</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <f aca="false">C11-SUM(D5:D10)</f>
+      <c r="D11">
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <f aca="false">D11-SUM(E5:E10)</f>
+      <c r="E11">
+        <f t="shared" si="2"/>
         <v>37.5</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <f aca="false">E11-SUM(F5:F10)</f>
+      <c r="F11">
+        <f t="shared" si="2"/>
         <v>34.5</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <f aca="false">F11-SUM(G5:G10)</f>
+      <c r="G11">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="H11" s="0" t="n">
-        <f aca="false">G11-SUM(H5:H10)</f>
+      <c r="H11">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I11" s="0" t="n">
-        <f aca="false">H11-SUM(I5:I10)</f>
+      <c r="I11">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="J11" s="0" t="n">
-        <f aca="false">I11-SUM(J5:J10)</f>
+      <c r="J11">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="K11" s="0" t="n">
-        <f aca="false">J11-SUM(K5:K10)</f>
+      <c r="K11">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="L11" s="0" t="n">
-        <f aca="false">K11-SUM(L5:L10)</f>
+      <c r="L11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>58</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <f aca="false">B12-(B12/10)</f>
+      <c r="C12">
+        <f>B12-(B12/10)</f>
         <v>52.2</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <f aca="false">C12-(B12/10)</f>
-        <v>46.4</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <f aca="false">D12-(B12/10)</f>
-        <v>40.6</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <f aca="false">E12-(B12/10)</f>
-        <v>34.8</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <f aca="false">F12-(B12/10)</f>
-        <v>29</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <f aca="false">G12-(B12/10)</f>
-        <v>23.2</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <f aca="false">H12-(B12/10)</f>
-        <v>17.4</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <f aca="false">I12-(B12/10)</f>
-        <v>11.6</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <f aca="false">J12-(B12/10)</f>
-        <v>5.80000000000001</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <f aca="false">0</f>
+      <c r="D12">
+        <f>C12-(B12/10)</f>
+        <v>46.400000000000006</v>
+      </c>
+      <c r="E12">
+        <f>D12-(B12/10)</f>
+        <v>40.600000000000009</v>
+      </c>
+      <c r="F12">
+        <f>E12-(B12/10)</f>
+        <v>34.800000000000011</v>
+      </c>
+      <c r="G12">
+        <f>F12-(B12/10)</f>
+        <v>29.000000000000011</v>
+      </c>
+      <c r="H12">
+        <f>G12-(B12/10)</f>
+        <v>23.20000000000001</v>
+      </c>
+      <c r="I12">
+        <f>H12-(B12/10)</f>
+        <v>17.400000000000009</v>
+      </c>
+      <c r="J12">
+        <f>I12-(B12/10)</f>
+        <v>11.600000000000009</v>
+      </c>
+      <c r="K12" s="2">
+        <f>J12-(B12/10)</f>
+        <v>5.8000000000000087</v>
+      </c>
+      <c r="L12">
+        <f>0</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="21.625"/>
+    <col min="2" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="0" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <f aca="false">C2+D2+E2+F2+G2+H2+I2+J2+K2+L2</f>
+      <c r="B2">
+        <f>C2+D2+E2+F2+G2+H2+I2+J2+K2+L2</f>
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0" t="n">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <f aca="false">SUM(C2:L2)</f>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>SUM(C2:L2)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <f aca="false">C3+D3+E3+F3+G3+H3+I3+J3+K3+L3</f>
+      <c r="B3">
+        <f>C3+D3+E3+F3+G3+H3+I3+J3+K3+L3</f>
         <v>8.5</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0" t="n">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>0.5</v>
       </c>
-      <c r="J3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <f aca="false">SUM(C3:L3)</f>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>SUM(C3:L3)</f>
         <v>8.5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <f aca="false">C4+D4+E4+F4+G4+H4+I4+J4+K4+L4</f>
+      <c r="B4">
+        <f>C4+D4+E4+F4+G4+H4+I4+J4+K4+L4</f>
         <v>5.5</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0" t="n">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>1.5</v>
       </c>
-      <c r="J4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="n">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4">
         <v>2</v>
       </c>
-      <c r="M4" s="0" t="n">
-        <f aca="false">SUM(C4:L4)</f>
+      <c r="M4">
+        <f>SUM(C4:L4)</f>
         <v>5.5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <f aca="false">C5+D5+E5+F5+G5+H5+I5+J5+K5+L5</f>
+      <c r="B5">
+        <f>C5+D5+E5+F5+G5+H5+I5+J5+K5+L5</f>
         <v>8</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="0" t="n">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0" t="n">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <f aca="false">SUM(C5:L5)</f>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>SUM(C5:L5)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <f aca="false">SUM(B2:B5)</f>
+      <c r="B6">
+        <f>SUM(B2:B5)</f>
         <v>29</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <f aca="false">B6-SUM(C2:C5)</f>
+      <c r="C6">
+        <f t="shared" ref="C6:L6" si="0">B6-SUM(C2:C5)</f>
         <v>29</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <f aca="false">C6-SUM(D2:D5)</f>
+      <c r="D6">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <f aca="false">D6-SUM(E2:E5)</f>
+      <c r="E6">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <f aca="false">E6-SUM(F2:F5)</f>
+      <c r="F6">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <f aca="false">F6-SUM(G2:G5)</f>
+      <c r="G6">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <f aca="false">G6-SUM(H2:H5)</f>
+      <c r="H6">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <f aca="false">H6-SUM(I2:I5)</f>
+      <c r="I6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J6" s="0" t="n">
-        <f aca="false">I6-SUM(J2:J5)</f>
+      <c r="J6">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K6" s="0" t="n">
-        <f aca="false">J6-SUM(K2:K5)</f>
+      <c r="K6">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L6" s="0" t="n">
-        <f aca="false">K6-SUM(L2:L5)</f>
+      <c r="L6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>32</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <f aca="false">B7-(B7/10)</f>
+      <c r="C7">
+        <f>B7-(B7/10)</f>
         <v>28.8</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <f aca="false">C7-(B7/10)</f>
+      <c r="D7">
+        <f>C7-(B7/10)</f>
         <v>25.6</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <f aca="false">D7-(B7/10)</f>
-        <v>22.4</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <f aca="false">E7-(B7/10)</f>
-        <v>19.2</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <f aca="false">F7-(B7/10)</f>
-        <v>16</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <f aca="false">G7-(B7/10)</f>
-        <v>12.8</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <f aca="false">H7-(B7/10)</f>
-        <v>9.60000000000001</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <f aca="false">I7-(B7/10)</f>
-        <v>6.40000000000001</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <f aca="false">J7-(B7/10)</f>
-        <v>3.2</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <f aca="false">0</f>
+      <c r="E7">
+        <f>D7-(B7/10)</f>
+        <v>22.400000000000002</v>
+      </c>
+      <c r="F7">
+        <f>E7-(B7/10)</f>
+        <v>19.200000000000003</v>
+      </c>
+      <c r="G7">
+        <f>F7-(B7/10)</f>
+        <v>16.000000000000004</v>
+      </c>
+      <c r="H7">
+        <f>G7-(B7/10)</f>
+        <v>12.800000000000004</v>
+      </c>
+      <c r="I7">
+        <f>H7-(B7/10)</f>
+        <v>9.600000000000005</v>
+      </c>
+      <c r="J7">
+        <f>I7-(B7/10)</f>
+        <v>6.4000000000000048</v>
+      </c>
+      <c r="K7" s="2">
+        <f>J7-(B7/10)</f>
+        <v>3.2000000000000046</v>
+      </c>
+      <c r="L7">
+        <f>0</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="25.5"/>
+    <col min="2" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <f aca="false">C5+D5+E5+F5+G5+H5+I5+J5+K5+L5</f>
+      <c r="B5">
+        <f t="shared" ref="B5:B10" si="0">C5+D5+E5+F5+G5+H5+I5+J5+K5+L5</f>
         <v>7.5</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0" t="n">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5">
         <v>2</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5">
         <v>0.5</v>
       </c>
-      <c r="M5" s="0" t="n">
-        <f aca="false">SUM(C5:L5)</f>
+      <c r="M5">
+        <f t="shared" ref="M5:M10" si="1">SUM(C5:L5)</f>
         <v>7.5</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <f aca="false">C6+D6+E6+F6+G6+H6+I6+J6+K6+L6</f>
+      <c r="B6">
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0" t="n">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="0" t="n">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>1.5</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6">
         <v>2</v>
       </c>
-      <c r="M6" s="0" t="n">
-        <f aca="false">SUM(C6:L6)</f>
+      <c r="M6">
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6">
         <v>5.5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <f aca="false">C7+D7+E7+F7+G7+H7+I7+J7+K7+L7</f>
+      <c r="B7">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <f aca="false">SUM(C7:L7)</f>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">C8+D8+E8+F8+G8+H8+I8+J8+K8+L8</f>
+      <c r="B8">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <f aca="false">SUM(C8:L8)</f>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <f aca="false">C9+D9+E9+F9+G9+H9+I9+J9+K9+L9</f>
+      <c r="B9">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0" t="n">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="0" t="n">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9" s="0" t="n">
-        <f aca="false">SUM(C9:L9)</f>
+      <c r="M9">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <f aca="false">C10+D10+E10+F10+G10+H10+I10+J10+K10+L10</f>
+      <c r="B10">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0" t="n">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>2</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="L10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <f aca="false">SUM(C10:L10)</f>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <f aca="false">SUM(B5:B10)</f>
+      <c r="B11">
+        <f>SUM(B5:B10)</f>
         <v>27</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <f aca="false">B11-SUM(C5:C10)</f>
+      <c r="C11">
+        <f t="shared" ref="C11:L11" si="2">B11-SUM(C5:C10)</f>
         <v>27</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <f aca="false">C11-SUM(D5:D10)</f>
+      <c r="D11">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <f aca="false">D11-SUM(E5:E10)</f>
+      <c r="E11">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <f aca="false">E11-SUM(F5:F10)</f>
+      <c r="F11">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <f aca="false">F11-SUM(G5:G10)</f>
+      <c r="G11">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="H11" s="0" t="n">
-        <f aca="false">G11-SUM(H5:H10)</f>
+      <c r="H11">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I11" s="0" t="n">
-        <f aca="false">H11-SUM(I5:I10)</f>
+      <c r="I11">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="J11" s="0" t="n">
-        <f aca="false">I11-SUM(J5:J10)</f>
+      <c r="J11">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="K11" s="0" t="n">
-        <f aca="false">J11-SUM(K5:K10)</f>
+      <c r="K11">
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="L11" s="0" t="n">
-        <f aca="false">K11-SUM(L5:L10)</f>
+      <c r="L11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>58</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <f aca="false">B12-(B12/10)</f>
+      <c r="C12">
+        <f>B12-(B12/10)</f>
         <v>52.2</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <f aca="false">C12-(B12/10)</f>
-        <v>46.4</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <f aca="false">D12-(B12/10)</f>
-        <v>40.6</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <f aca="false">E12-(B12/10)</f>
-        <v>34.8</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <f aca="false">F12-(B12/10)</f>
-        <v>29</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <f aca="false">G12-(B12/10)</f>
-        <v>23.2</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <f aca="false">H12-(B12/10)</f>
-        <v>17.4</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <f aca="false">I12-(B12/10)</f>
-        <v>11.6</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <f aca="false">J12-(B12/10)</f>
-        <v>5.80000000000001</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <f aca="false">0</f>
+      <c r="D12">
+        <f>C12-(B12/10)</f>
+        <v>46.400000000000006</v>
+      </c>
+      <c r="E12">
+        <f>D12-(B12/10)</f>
+        <v>40.600000000000009</v>
+      </c>
+      <c r="F12">
+        <f>E12-(B12/10)</f>
+        <v>34.800000000000011</v>
+      </c>
+      <c r="G12">
+        <f>F12-(B12/10)</f>
+        <v>29.000000000000011</v>
+      </c>
+      <c r="H12">
+        <f>G12-(B12/10)</f>
+        <v>23.20000000000001</v>
+      </c>
+      <c r="I12">
+        <f>H12-(B12/10)</f>
+        <v>17.400000000000009</v>
+      </c>
+      <c r="J12">
+        <f>I12-(B12/10)</f>
+        <v>11.600000000000009</v>
+      </c>
+      <c r="K12" s="2">
+        <f>J12-(B12/10)</f>
+        <v>5.8000000000000087</v>
+      </c>
+      <c r="L12">
+        <f>0</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col min="1" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="0" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <f aca="false">C4+D4+E4+F4+G4+H4+I4+J4+K4+L4</f>
+      <c r="B4">
+        <f>C4+D4+E4+F4+G4+H4+I4+J4+K4+L4</f>
         <v>10</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0" t="n">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>4</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0" t="n">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>6</v>
       </c>
-      <c r="J4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <f aca="false">SUM(C4:L4)</f>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>SUM(C4:L4)</f>
         <v>10</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="P4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <f aca="false">C5+D5+E5+F5+G5+H5+I5+J5+K5+L5</f>
+      <c r="B5">
+        <f>C5+D5+E5+F5+G5+H5+I5+J5+K5+L5</f>
         <v>1</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="0" t="n">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <f aca="false">SUM(C5:L5)</f>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>SUM(C5:L5)</f>
         <v>1</v>
       </c>
-      <c r="P5" s="0" t="s">
+      <c r="P5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <f aca="false">C6+D6+E6+F6+G6+H6+I6+J6+K6+L6</f>
-        <v>5</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
+      <c r="B6">
+        <f>C6+D6+E6+F6+G6+H6+I6+J6+K6+L6</f>
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <f aca="false">SUM(C6:L6)</f>
-        <v>5</v>
-      </c>
-      <c r="P6" s="0" t="s">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f>SUM(C6:L6)</f>
+        <v>10</v>
+      </c>
+      <c r="P6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <f aca="false">C7+D7+E7+F7+G7+H7+I7+J7+K7+L7</f>
+      <c r="B7">
+        <f>C7+D7+E7+F7+G7+H7+I7+J7+K7+L7</f>
         <v>1</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <f aca="false">SUM(C7:L7)</f>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>SUM(C7:L7)</f>
         <v>1</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="P7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">C8+D8+E8+F8+G8+H8+I8+J8+K8+L8</f>
+      <c r="B8">
+        <f>C8+D8+E8+F8+G8+H8+I8+J8+K8+L8</f>
         <v>7</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>3</v>
       </c>
-      <c r="H8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <f aca="false">SUM(C8:L8)</f>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f>SUM(C8:L8)</f>
         <v>7</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="P8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <f aca="false">SUM(B4:B8)</f>
-        <v>24</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <f aca="false">B9-SUM(C4:C8)</f>
-        <v>24</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <f aca="false">C9-SUM(D4:D8)</f>
-        <v>23</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <f aca="false">D9-SUM(E4:E8)</f>
+      <c r="B9">
+        <f>SUM(B4:B8)</f>
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:L9" si="0">B9-SUM(C4:C8)</f>
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <f aca="false">E9-SUM(F4:F8)</f>
-        <v>16</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <f aca="false">F9-SUM(G4:G8)</f>
-        <v>6</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <f aca="false">G9-SUM(H4:H8)</f>
-        <v>6</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <f aca="false">H9-SUM(I4:I8)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <f aca="false">I9-SUM(J4:J8)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <f aca="false">J9-SUM(K4:K8)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <f aca="false">K9-SUM(L4:L8)</f>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>58</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <f aca="false">B10-(B10/10)</f>
+      <c r="C10">
+        <f>B10-(B10/10)</f>
         <v>52.2</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <f aca="false">C10-(B10/10)</f>
-        <v>46.4</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <f aca="false">D10-(B10/10)</f>
-        <v>40.6</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <f aca="false">E10-(B10/10)</f>
-        <v>34.8</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <f aca="false">F10-(B10/10)</f>
-        <v>29</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <f aca="false">G10-(B10/10)</f>
-        <v>23.2</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <f aca="false">H10-(B10/10)</f>
-        <v>17.4</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <f aca="false">I10-(B10/10)</f>
-        <v>11.6</v>
-      </c>
-      <c r="K10" s="2" t="n">
-        <f aca="false">J10-(B10/10)</f>
-        <v>5.80000000000001</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <f aca="false">0</f>
+      <c r="D10">
+        <f>C10-(B10/10)</f>
+        <v>46.400000000000006</v>
+      </c>
+      <c r="E10">
+        <f>D10-(B10/10)</f>
+        <v>40.600000000000009</v>
+      </c>
+      <c r="F10">
+        <f>E10-(B10/10)</f>
+        <v>34.800000000000011</v>
+      </c>
+      <c r="G10">
+        <f>F10-(B10/10)</f>
+        <v>29.000000000000011</v>
+      </c>
+      <c r="H10">
+        <f>G10-(B10/10)</f>
+        <v>23.20000000000001</v>
+      </c>
+      <c r="I10">
+        <f>H10-(B10/10)</f>
+        <v>17.400000000000009</v>
+      </c>
+      <c r="J10">
+        <f>I10-(B10/10)</f>
+        <v>11.600000000000009</v>
+      </c>
+      <c r="K10" s="2">
+        <f>J10-(B10/10)</f>
+        <v>5.8000000000000087</v>
+      </c>
+      <c r="L10">
+        <f>0</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Burndown Chart/Burndown Charts.xlsx
+++ b/Burndown Chart/Burndown Charts.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veronica\Documents\OTS-Courier-Services\Burndown Chart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew Magin\Documents\OTS-Courier-Services\Burndown Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 3" sheetId="3" r:id="rId3"/>
     <sheet name="Sprint 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId5"/>
+    <sheet name="Release 1" sheetId="5" r:id="rId6"/>
+    <sheet name="Release 2" sheetId="6" r:id="rId7"/>
+    <sheet name="Assigned Stories" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="223">
   <si>
     <t>Hours Spent</t>
   </si>
@@ -231,16 +235,478 @@
   </si>
   <si>
     <t>Matthew</t>
+  </si>
+  <si>
+    <t>Story Name</t>
+  </si>
+  <si>
+    <t>Task No</t>
+  </si>
+  <si>
+    <t>Task Description</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>Estimated Hours</t>
+  </si>
+  <si>
+    <t>Effort Hours Remaining</t>
+  </si>
+  <si>
+    <t>Create a home page (customers view of website)</t>
+  </si>
+  <si>
+    <t>Write test cases</t>
+  </si>
+  <si>
+    <t>Create login system for customers (connects to database)</t>
+  </si>
+  <si>
+    <t>Create profile / shipping management page</t>
+  </si>
+  <si>
+    <t>Create table in the database to store pickup requests</t>
+  </si>
+  <si>
+    <t>Create book shipment form</t>
+  </si>
+  <si>
+    <t>Write code to connect and submit to the database (pickup request table)</t>
+  </si>
+  <si>
+    <t>Create page to show all pending shipments</t>
+  </si>
+  <si>
+    <t>Verify story is complete (acceptance criteria test)</t>
+  </si>
+  <si>
+    <t>T001</t>
+  </si>
+  <si>
+    <t>T002</t>
+  </si>
+  <si>
+    <t>T003</t>
+  </si>
+  <si>
+    <t>T004</t>
+  </si>
+  <si>
+    <t>T005</t>
+  </si>
+  <si>
+    <t>T006</t>
+  </si>
+  <si>
+    <t>T007</t>
+  </si>
+  <si>
+    <t>T008</t>
+  </si>
+  <si>
+    <t>T009</t>
+  </si>
+  <si>
+    <t>T010</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Time Taken</t>
+  </si>
+  <si>
+    <t>Create a tracking page (customers view of website)</t>
+  </si>
+  <si>
+    <t>Connecting to the database and selecting the unique tracking number.</t>
+  </si>
+  <si>
+    <t>Create page outputting the results of the tracking number in a visually appealing tabular format.</t>
+  </si>
+  <si>
+    <t>T011</t>
+  </si>
+  <si>
+    <t>T012</t>
+  </si>
+  <si>
+    <t>T013</t>
+  </si>
+  <si>
+    <t>T014</t>
+  </si>
+  <si>
+    <t>T015</t>
+  </si>
+  <si>
+    <t>T016</t>
+  </si>
+  <si>
+    <t>T017</t>
+  </si>
+  <si>
+    <t>T018</t>
+  </si>
+  <si>
+    <t>T019</t>
+  </si>
+  <si>
+    <t>T020</t>
+  </si>
+  <si>
+    <t>T021</t>
+  </si>
+  <si>
+    <t>T022</t>
+  </si>
+  <si>
+    <t>T023</t>
+  </si>
+  <si>
+    <t>T024</t>
+  </si>
+  <si>
+    <t>T025</t>
+  </si>
+  <si>
+    <t>T026</t>
+  </si>
+  <si>
+    <t>T027</t>
+  </si>
+  <si>
+    <t>T028</t>
+  </si>
+  <si>
+    <t>T029</t>
+  </si>
+  <si>
+    <t>T030</t>
+  </si>
+  <si>
+    <t>T031</t>
+  </si>
+  <si>
+    <t>Create the pdf template for the consignment note.</t>
+  </si>
+  <si>
+    <t>Write test cases.</t>
+  </si>
+  <si>
+    <t>Connect to database and select relevant information for the consignment note.</t>
+  </si>
+  <si>
+    <t>Generate a printable copy of the consignment note.</t>
+  </si>
+  <si>
+    <t>Write code to save the consignment note to the database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create the estimate shipping webpage. </t>
+  </si>
+  <si>
+    <t>Write code (formula) to calculate the shipping cost based off the information given in the form.</t>
+  </si>
+  <si>
+    <t>Create page to output the results of the calculation</t>
+  </si>
+  <si>
+    <t>Verify story is complete (acceptance criteria test).</t>
+  </si>
+  <si>
+    <t>Create the pdf template for the tax invoice.</t>
+  </si>
+  <si>
+    <t>Connect to database and select relevant information for the tax invoice.</t>
+  </si>
+  <si>
+    <t>Generate a printable copy of the tax invoice.</t>
+  </si>
+  <si>
+    <t>Write code to email a pdf copy of the invoice.</t>
+  </si>
+  <si>
+    <t>Write code to save the tax invoice to the database</t>
+  </si>
+  <si>
+    <t>T032</t>
+  </si>
+  <si>
+    <t>T033</t>
+  </si>
+  <si>
+    <t>T034</t>
+  </si>
+  <si>
+    <t>T035</t>
+  </si>
+  <si>
+    <t>T036</t>
+  </si>
+  <si>
+    <t>T037</t>
+  </si>
+  <si>
+    <t>T038</t>
+  </si>
+  <si>
+    <t>T039</t>
+  </si>
+  <si>
+    <t>T040</t>
+  </si>
+  <si>
+    <t>Create registration page (where users registers).</t>
+  </si>
+  <si>
+    <t>Write code to submit the registration information to the database</t>
+  </si>
+  <si>
+    <t>Create a personal profile page and write code to retrieve user details from the database.</t>
+  </si>
+  <si>
+    <t>Write code to retrieve the user information from the database and output it to the “make a booking” page.</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>T041</t>
+  </si>
+  <si>
+    <t>T042</t>
+  </si>
+  <si>
+    <t>T043</t>
+  </si>
+  <si>
+    <t>T044</t>
+  </si>
+  <si>
+    <t>T045</t>
+  </si>
+  <si>
+    <t>T046</t>
+  </si>
+  <si>
+    <t>T047</t>
+  </si>
+  <si>
+    <t>T048</t>
+  </si>
+  <si>
+    <t>T049</t>
+  </si>
+  <si>
+    <t>T050</t>
+  </si>
+  <si>
+    <t>T051</t>
+  </si>
+  <si>
+    <t>T052</t>
+  </si>
+  <si>
+    <t>T053</t>
+  </si>
+  <si>
+    <t>T054</t>
+  </si>
+  <si>
+    <t>T055</t>
+  </si>
+  <si>
+    <t>T056</t>
+  </si>
+  <si>
+    <t>Story 8 - Sprint 1</t>
+  </si>
+  <si>
+    <t>Story 9 - Sprint 1</t>
+  </si>
+  <si>
+    <t>Story 10 - Sprint 1</t>
+  </si>
+  <si>
+    <t>Story 11 - Sprint 1</t>
+  </si>
+  <si>
+    <t>Story 12 - Sprint 1</t>
+  </si>
+  <si>
+    <t>Story 14 - Sprint 1</t>
+  </si>
+  <si>
+    <t>Story 4 - Sprint 2</t>
+  </si>
+  <si>
+    <t>Create page within the dashboard for displaying a list of shipments - with pagination plugin.</t>
+  </si>
+  <si>
+    <t>Write code to connect to the database and output the shipment results in a list.</t>
+  </si>
+  <si>
+    <t>Create a page within the dashboard for displaying all the data related to a single shipment (individual shipment page)</t>
+  </si>
+  <si>
+    <t>Create a page within the dashboard to give the user the option to update the status.</t>
+  </si>
+  <si>
+    <t>Write code to modify the shipment status in the database</t>
+  </si>
+  <si>
+    <t>Create dashboard portal for employees</t>
+  </si>
+  <si>
+    <t>Create page within the dashboard for displaying a list of contacts.</t>
+  </si>
+  <si>
+    <t>Create customers table within the database to store their details.</t>
+  </si>
+  <si>
+    <t>Write code to connect to the database and output the results in a list.</t>
+  </si>
+  <si>
+    <t>Use plugin to create pagination for data</t>
+  </si>
+  <si>
+    <t>Create page within the dashboard for displaying all the data related to a single customer</t>
+  </si>
+  <si>
+    <t>Story 1 - Sprint 2</t>
+  </si>
+  <si>
+    <t>Story 5 - Sprint 2</t>
+  </si>
+  <si>
+    <t>Create page within the dashboard for displaying a list of payments - with pagination plugin.</t>
+  </si>
+  <si>
+    <t>Write code to connect to the database and output the payment results in a list.</t>
+  </si>
+  <si>
+    <t>Create a page within the dashboard to give the user the option to update the status of the payment.</t>
+  </si>
+  <si>
+    <t>Write code to modify the payment status in the database</t>
+  </si>
+  <si>
+    <t>T057</t>
+  </si>
+  <si>
+    <t>T058</t>
+  </si>
+  <si>
+    <t>T059</t>
+  </si>
+  <si>
+    <t>T060</t>
+  </si>
+  <si>
+    <t>T061</t>
+  </si>
+  <si>
+    <t>T062</t>
+  </si>
+  <si>
+    <t>T063</t>
+  </si>
+  <si>
+    <t>T064</t>
+  </si>
+  <si>
+    <t>T065</t>
+  </si>
+  <si>
+    <t>T066</t>
+  </si>
+  <si>
+    <t>T067</t>
+  </si>
+  <si>
+    <t>T068</t>
+  </si>
+  <si>
+    <t>T069</t>
+  </si>
+  <si>
+    <t>T070</t>
+  </si>
+  <si>
+    <t>T071</t>
+  </si>
+  <si>
+    <t>T072</t>
+  </si>
+  <si>
+    <t>T073</t>
+  </si>
+  <si>
+    <t>T074</t>
+  </si>
+  <si>
+    <t>T075</t>
+  </si>
+  <si>
+    <t>Story 18 - Sprint 2</t>
+  </si>
+  <si>
+    <t>Create page within the dashboard for displaying a list of all pending pickups and package drop offs - with pagination plugin (table sorted by postcode).</t>
+  </si>
+  <si>
+    <t>Create a page to assign certain deliveries or pickups to a single driver.</t>
+  </si>
+  <si>
+    <t>Write code to modify the shipment data in the database to reflect the employee’s id.</t>
+  </si>
+  <si>
+    <t>Write code to send an automatic notification to the driver that they have been assigned pickups or deliveries.</t>
+  </si>
+  <si>
+    <t>Story 19 - Sprint 3</t>
+  </si>
+  <si>
+    <t>Create expenses page where the coordinator can view all expenses.</t>
+  </si>
+  <si>
+    <t>Create a table within the database which stores expenses</t>
+  </si>
+  <si>
+    <t>Create a php connection on the expenses page to output all of the expenses within the expenses table.</t>
+  </si>
+  <si>
+    <t>Create a page with a form where the coordinator can add expenses incurred by employees.</t>
+  </si>
+  <si>
+    <t>Create a page that submits data that is entered into the form to the database, which redirects back to the expenses page.</t>
+  </si>
+  <si>
+    <t>Story 20 - Sprint 3</t>
+  </si>
+  <si>
+    <t>Create page within the dashboard with forms for a pickup request.</t>
+  </si>
+  <si>
+    <t>Create table in the database and write code to connect and store the information entered into the form.</t>
+  </si>
+  <si>
+    <t>Create page to display a list of existing requests</t>
+  </si>
+  <si>
+    <t>T076</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d\-mmm"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -248,16 +714,28 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -265,14 +743,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,9 +927,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nb-NO"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -385,7 +953,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" strike="noStrike" spc="-1">
+              <a:rPr lang="en-AU" sz="1400" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -485,6 +1053,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC52-49A9-8B8A-A251FB5BC50B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -562,6 +1135,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC52-49A9-8B8A-A251FB5BC50B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -609,7 +1187,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-AU" sz="1000" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -703,7 +1281,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-AU" sz="1000" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -795,9 +1373,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nb-NO"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -821,7 +1399,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" strike="noStrike" spc="-1">
+              <a:rPr lang="en-AU" sz="1400" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -921,6 +1499,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A24-40D2-AC2E-F6B7DF611A41}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -998,6 +1581,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0A24-40D2-AC2E-F6B7DF611A41}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1045,7 +1633,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-AU" sz="1000" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1139,7 +1727,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-AU" sz="1000" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1231,9 +1819,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nb-NO"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -1257,7 +1845,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" strike="noStrike" spc="-1">
+              <a:rPr lang="en-AU" sz="1400" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1357,6 +1945,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-67E3-4BAF-B5FB-9D5F5BC0A62F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1434,6 +2027,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-67E3-4BAF-B5FB-9D5F5BC0A62F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1481,7 +2079,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-AU" sz="1000" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1575,7 +2173,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-AU" sz="1000" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1667,9 +2265,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nb-NO"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -1709,7 +2307,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1761,28 +2358,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1794,6 +2391,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B6E-43D7-968A-DDA46B3EBB10}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1871,6 +2473,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9B6E-43D7-968A-DDA46B3EBB10}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1996,7 +2603,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2045,7 +2651,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 4"/>
+        <xdr:cNvPr id="2" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2080,7 +2692,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2115,7 +2733,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2150,7 +2774,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2169,7 +2799,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2244,6 +2874,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2279,6 +2926,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2434,10 +3098,10 @@
   <dimension ref="A2:M12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="A5" sqref="A5:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.625"/>
     <col min="2" max="11" width="8.5"/>
@@ -2855,7 +3519,7 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.625"/>
     <col min="2" max="1025" width="8.5"/>
@@ -3174,10 +3838,10 @@
   <dimension ref="A3:P12"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5"/>
     <col min="2" max="1025" width="8.5"/>
@@ -3601,13 +4265,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="2" max="1025" width="8.5"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -3837,7 +4502,7 @@
       </c>
       <c r="B8">
         <f>C8+D8+E8+F8+G8+H8+I8+J8+K8+L8</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3861,17 +4526,17 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
         <f>SUM(C8:L8)</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="P8" t="s">
         <v>67</v>
@@ -3883,39 +4548,39 @@
       </c>
       <c r="B9">
         <f>SUM(B4:B8)</f>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:L9" si="0">B9-SUM(C4:C8)</f>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
@@ -3979,4 +4644,1667 @@
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="75.625" customWidth="1"/>
+    <col min="4" max="4" width="6.125" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="3"/>
+      <c r="H3">
+        <f>SUM(F4:F12)</f>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1.5</v>
+      </c>
+      <c r="H4">
+        <f>H3-G4</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f>H4-G5</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H12" si="0">H5-G6</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9">
+        <v>1.5</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11">
+        <v>1.5</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
+      <c r="B17" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18">
+        <v>1.5</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+      <c r="B28" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="10">
+        <v>2</v>
+      </c>
+      <c r="G28" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29">
+        <v>1.5</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="22"/>
+      <c r="B35" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="10">
+        <v>1</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1</v>
+      </c>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36">
+        <v>1.5</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40">
+        <v>2.5</v>
+      </c>
+      <c r="G40">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="22"/>
+      <c r="B41" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="10">
+        <v>1</v>
+      </c>
+      <c r="G41" s="10">
+        <v>1</v>
+      </c>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+      <c r="B45" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45">
+        <v>0.5</v>
+      </c>
+      <c r="G45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+      <c r="B47" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+      <c r="B48" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="22"/>
+      <c r="B49" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="17"/>
+      <c r="F49" s="10">
+        <v>1</v>
+      </c>
+      <c r="G49" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+      <c r="B51" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
+      <c r="B52" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52">
+        <v>0.5</v>
+      </c>
+      <c r="G52">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
+      <c r="B53" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
+      <c r="B54" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55">
+        <v>0.5</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="22"/>
+      <c r="B56" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" s="17"/>
+      <c r="F56" s="10">
+        <v>1</v>
+      </c>
+      <c r="G56" s="10">
+        <v>1</v>
+      </c>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="21"/>
+      <c r="B58" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+      <c r="B59" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59">
+        <v>0.5</v>
+      </c>
+      <c r="G59">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="21"/>
+      <c r="B60" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" t="s">
+        <v>186</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="21"/>
+      <c r="B61" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61">
+        <v>0.5</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="22"/>
+      <c r="B62" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E62" s="17"/>
+      <c r="F62" s="10">
+        <v>1</v>
+      </c>
+      <c r="G62" s="10">
+        <v>1</v>
+      </c>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="21"/>
+      <c r="B64" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="21"/>
+      <c r="B65" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" t="s">
+        <v>209</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="21"/>
+      <c r="B66" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" t="s">
+        <v>210</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66">
+        <v>0.5</v>
+      </c>
+      <c r="G66">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="22"/>
+      <c r="B67" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="17"/>
+      <c r="F67" s="10">
+        <v>1</v>
+      </c>
+      <c r="G67" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H67" s="10"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="21"/>
+      <c r="B69" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" t="s">
+        <v>213</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E69" s="16"/>
+      <c r="F69">
+        <v>1.5</v>
+      </c>
+      <c r="G69">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="21"/>
+      <c r="B70" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="16"/>
+      <c r="F70">
+        <v>0.5</v>
+      </c>
+      <c r="G70">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="21"/>
+      <c r="B71" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C71" t="s">
+        <v>215</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E71" s="16"/>
+      <c r="F71">
+        <v>0.5</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="21"/>
+      <c r="B72" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" t="s">
+        <v>216</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" s="16"/>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="21"/>
+      <c r="B73" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C73" t="s">
+        <v>217</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E73" s="16"/>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="22"/>
+      <c r="B74" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E74" s="17"/>
+      <c r="F74" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G74" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H74" s="10"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C75" t="s">
+        <v>219</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C76" t="s">
+        <v>220</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E76" s="16"/>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="21"/>
+      <c r="B77" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77" t="s">
+        <v>221</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E77" s="16"/>
+      <c r="F77">
+        <v>1.5</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="21"/>
+      <c r="B78" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C78" t="s">
+        <v>121</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E78" s="16"/>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="22"/>
+      <c r="B79" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E79" s="17"/>
+      <c r="F79" s="10">
+        <v>1</v>
+      </c>
+      <c r="G79" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H79" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="E50:E56"/>
+    <mergeCell ref="E42:E49"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="E68:E74"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E35"/>
+    <mergeCell ref="E36:E41"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="E4:E12"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="E18:E23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Burndown Chart/Burndown Charts.xlsx
+++ b/Burndown Chart/Burndown Charts.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="293">
   <si>
     <t>Hours Spent</t>
   </si>
@@ -700,6 +700,216 @@
   </si>
   <si>
     <t>T076</t>
+  </si>
+  <si>
+    <t>Story 16 - Sprint 3</t>
+  </si>
+  <si>
+    <t>Create a page within the Coordinator Dashboard to allow the Coordinator to send notifications.</t>
+  </si>
+  <si>
+    <t>Create a script capable of taking data submitted by the notification creator page and sending it to all receivers.</t>
+  </si>
+  <si>
+    <t>Write Test Cases</t>
+  </si>
+  <si>
+    <t>T077</t>
+  </si>
+  <si>
+    <t>T078</t>
+  </si>
+  <si>
+    <t>T079</t>
+  </si>
+  <si>
+    <t>T080</t>
+  </si>
+  <si>
+    <t>T081</t>
+  </si>
+  <si>
+    <t>T082</t>
+  </si>
+  <si>
+    <t>T083</t>
+  </si>
+  <si>
+    <t>T084</t>
+  </si>
+  <si>
+    <t>T085</t>
+  </si>
+  <si>
+    <t>T086</t>
+  </si>
+  <si>
+    <t>T087</t>
+  </si>
+  <si>
+    <t>T088</t>
+  </si>
+  <si>
+    <t>T089</t>
+  </si>
+  <si>
+    <t>T090</t>
+  </si>
+  <si>
+    <t>T091</t>
+  </si>
+  <si>
+    <t>T092</t>
+  </si>
+  <si>
+    <t>T093</t>
+  </si>
+  <si>
+    <t>T094</t>
+  </si>
+  <si>
+    <t>T095</t>
+  </si>
+  <si>
+    <t>T096</t>
+  </si>
+  <si>
+    <t>T097</t>
+  </si>
+  <si>
+    <t>T098</t>
+  </si>
+  <si>
+    <t>T099</t>
+  </si>
+  <si>
+    <t>T100</t>
+  </si>
+  <si>
+    <t>Create a page within the Coordinator Dashboard to allow the Coordinator to send emergency notifications.</t>
+  </si>
+  <si>
+    <t>Story 17 - Sprint 3</t>
+  </si>
+  <si>
+    <t>Story 3 - Sprint 3</t>
+  </si>
+  <si>
+    <t>Write tracking page where coordinator can track the packages</t>
+  </si>
+  <si>
+    <t>Include the pages in the sidebar</t>
+  </si>
+  <si>
+    <t>Write the driver journey page where the driver can notify the start and end time of their journey</t>
+  </si>
+  <si>
+    <t>Create the buttons for start and end time</t>
+  </si>
+  <si>
+    <t>Create a table within the database for the start and end button of the driver's journey</t>
+  </si>
+  <si>
+    <t>Story 6 - Daily Summary of Deliveryies</t>
+  </si>
+  <si>
+    <t>Create a page where drivers are able to view all deliveries filtered by day and ordered by delivery time.</t>
+  </si>
+  <si>
+    <t>Modify the database to store the additional data needed for this page.</t>
+  </si>
+  <si>
+    <t>Incorporate page into driver dashboard.</t>
+  </si>
+  <si>
+    <t>Story 7 - See Individual Delivery Details</t>
+  </si>
+  <si>
+    <t>T101</t>
+  </si>
+  <si>
+    <t>T102</t>
+  </si>
+  <si>
+    <t>T103</t>
+  </si>
+  <si>
+    <t>T104</t>
+  </si>
+  <si>
+    <t>T105</t>
+  </si>
+  <si>
+    <t>T106</t>
+  </si>
+  <si>
+    <t>T107</t>
+  </si>
+  <si>
+    <t>T108</t>
+  </si>
+  <si>
+    <t>T109</t>
+  </si>
+  <si>
+    <t>T110</t>
+  </si>
+  <si>
+    <t>T111</t>
+  </si>
+  <si>
+    <t>T112</t>
+  </si>
+  <si>
+    <t>T113</t>
+  </si>
+  <si>
+    <t>Create an overview page to view a list of deliveries</t>
+  </si>
+  <si>
+    <t>Create a link to the database that retrieves the assigned deliveries.</t>
+  </si>
+  <si>
+    <t>Create a table to outputs the retrieved data.</t>
+  </si>
+  <si>
+    <t>Refine the work done on the contacts list and page done in sprint 2.</t>
+  </si>
+  <si>
+    <t>Finish the manual bookings page for the coordinator in sprint 3</t>
+  </si>
+  <si>
+    <t>Story 22 - Accessing Tracking Details</t>
+  </si>
+  <si>
+    <t>Add a table module on the dashboard to display saved tracking number.</t>
+  </si>
+  <si>
+    <t>Create a connection to the database that pulls saved tracking numbers</t>
+  </si>
+  <si>
+    <t>Write code to output the retrieved tracking numbers.</t>
+  </si>
+  <si>
+    <t>Story 23 - Scanning Connote Numbers and Modifying Shipment Status</t>
+  </si>
+  <si>
+    <t>Creating page within the driver dashboard that the driver can type in the connote number and get results back.</t>
+  </si>
+  <si>
+    <t>Create a link to the database that retrieves all details about the package based off the connote number.</t>
+  </si>
+  <si>
+    <t>Implement a way for the driver to update the packages status in the database.</t>
+  </si>
+  <si>
+    <t>T114</t>
+  </si>
+  <si>
+    <t>T115</t>
+  </si>
+  <si>
+    <t>T116</t>
   </si>
 </sst>
 </file>
@@ -765,7 +975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -773,34 +983,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -809,13 +1007,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -823,11 +1015,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -835,12 +1051,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4684,16 +4895,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="75.625" customWidth="1"/>
+    <col min="3" max="3" width="82.625" customWidth="1"/>
     <col min="4" max="4" width="6.125" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
     <col min="6" max="7" width="16" customWidth="1"/>
@@ -4736,19 +4947,19 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C4" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>67</v>
       </c>
       <c r="F4">
@@ -4763,17 +4974,17 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="14"/>
+      <c r="D5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="23"/>
       <c r="F5">
         <v>2</v>
       </c>
@@ -4786,17 +4997,17 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="14"/>
+      <c r="D6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="23"/>
       <c r="F6">
         <v>3</v>
       </c>
@@ -4809,17 +5020,17 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C7" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="14"/>
+      <c r="D7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="23"/>
       <c r="F7">
         <v>2</v>
       </c>
@@ -4832,17 +5043,17 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C8" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="14"/>
+      <c r="D8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="23"/>
       <c r="F8">
         <v>0.5</v>
       </c>
@@ -4855,17 +5066,17 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C9" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="14"/>
+      <c r="D9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="23"/>
       <c r="F9">
         <v>1.5</v>
       </c>
@@ -4878,17 +5089,17 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C10" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="14"/>
+      <c r="D10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="23"/>
       <c r="F10">
         <v>1</v>
       </c>
@@ -4901,17 +5112,17 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C11" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="14"/>
+      <c r="D11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="23"/>
       <c r="F11">
         <v>1.5</v>
       </c>
@@ -4924,42 +5135,42 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="10">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1</v>
-      </c>
-      <c r="H12" s="10">
+      <c r="D12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C13" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>63</v>
       </c>
       <c r="F13">
@@ -4970,17 +5181,17 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C14" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="9"/>
+      <c r="D14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="25"/>
       <c r="F14">
         <v>2</v>
       </c>
@@ -4989,17 +5200,17 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C15" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="9"/>
+      <c r="D15" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="25"/>
       <c r="F15">
         <v>1</v>
       </c>
@@ -5008,17 +5219,17 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C16" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="9"/>
+      <c r="D16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="25"/>
       <c r="F16">
         <v>2</v>
       </c>
@@ -5027,36 +5238,36 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="10">
-        <v>1</v>
-      </c>
-      <c r="G17" s="10">
-        <v>1</v>
-      </c>
-      <c r="H17" s="10"/>
+      <c r="D17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C18" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E18" s="18" t="s">
@@ -5070,17 +5281,17 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C19" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="4"/>
+      <c r="D19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="21"/>
       <c r="F19">
         <v>1</v>
       </c>
@@ -5089,17 +5300,17 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="22"/>
+      <c r="B20" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C20" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="4"/>
+      <c r="D20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="21"/>
       <c r="F20">
         <v>1</v>
       </c>
@@ -5108,17 +5319,17 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C21" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="4"/>
+      <c r="D21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="21"/>
       <c r="F21">
         <v>2</v>
       </c>
@@ -5127,17 +5338,17 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C22" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="4"/>
+      <c r="D22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="21"/>
       <c r="F22">
         <v>2</v>
       </c>
@@ -5147,37 +5358,37 @@
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="10">
-        <v>1</v>
-      </c>
-      <c r="G23" s="10">
-        <v>1</v>
-      </c>
-      <c r="H23" s="10"/>
+      <c r="D23" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6"/>
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C24" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E24" s="18" t="s">
@@ -5192,17 +5403,17 @@
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C25" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="20"/>
+      <c r="D25" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="19"/>
       <c r="F25">
         <v>1</v>
       </c>
@@ -5211,17 +5422,17 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="22"/>
+      <c r="B26" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C26" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="20"/>
+      <c r="D26" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="19"/>
       <c r="F26">
         <v>2</v>
       </c>
@@ -5230,17 +5441,17 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="22"/>
+      <c r="B27" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C27" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="20"/>
+      <c r="D27" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="19"/>
       <c r="F27">
         <v>0.5</v>
       </c>
@@ -5249,36 +5460,36 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="10">
+      <c r="D28" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="6">
         <v>2</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="6">
         <v>1.5</v>
       </c>
-      <c r="H28" s="10"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C29" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E29" s="18" t="s">
@@ -5292,17 +5503,17 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="22"/>
+      <c r="B30" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C30" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="4"/>
+      <c r="D30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="21"/>
       <c r="F30">
         <v>1</v>
       </c>
@@ -5311,17 +5522,17 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C31" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="4"/>
+      <c r="D31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="21"/>
       <c r="F31">
         <v>1</v>
       </c>
@@ -5330,17 +5541,17 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="22"/>
+      <c r="B32" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C32" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="4"/>
+      <c r="D32" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="21"/>
       <c r="F32">
         <v>2</v>
       </c>
@@ -5349,17 +5560,17 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="22"/>
+      <c r="B33" s="4" t="s">
         <v>118</v>
       </c>
       <c r="C33" t="s">
         <v>132</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="4"/>
+      <c r="D33" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="21"/>
       <c r="F33">
         <v>2</v>
       </c>
@@ -5368,17 +5579,17 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="6" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C34" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="4"/>
+      <c r="D34" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="21"/>
       <c r="F34">
         <v>2</v>
       </c>
@@ -5387,36 +5598,36 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="10">
-        <v>1</v>
-      </c>
-      <c r="G35" s="10">
-        <v>1</v>
-      </c>
-      <c r="H35" s="10"/>
+      <c r="D35" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+      <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C36" t="s">
         <v>143</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E36" s="18" t="s">
@@ -5430,17 +5641,17 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="6" t="s">
+      <c r="A37" s="22"/>
+      <c r="B37" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C37" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="20"/>
+      <c r="D37" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="19"/>
       <c r="F37">
         <v>2</v>
       </c>
@@ -5449,17 +5660,17 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="6" t="s">
+      <c r="A38" s="22"/>
+      <c r="B38" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C38" t="s">
         <v>144</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38" s="20"/>
+      <c r="D38" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="19"/>
       <c r="F38">
         <v>2</v>
       </c>
@@ -5468,17 +5679,17 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="22"/>
+      <c r="B39" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C39" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="20"/>
+      <c r="D39" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="19"/>
       <c r="F39">
         <v>2</v>
       </c>
@@ -5487,17 +5698,17 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="6" t="s">
+      <c r="A40" s="22"/>
+      <c r="B40" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C40" t="s">
         <v>146</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="20"/>
+      <c r="D40" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="19"/>
       <c r="F40">
         <v>2.5</v>
       </c>
@@ -5506,39 +5717,39 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="10">
-        <v>1</v>
-      </c>
-      <c r="G41" s="10">
-        <v>1</v>
-      </c>
-      <c r="H41" s="10"/>
+      <c r="D41" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="6">
+        <v>1</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
+      <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="4" t="s">
         <v>141</v>
       </c>
       <c r="C42" t="s">
         <v>176</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="24" t="s">
+      <c r="D42" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>62</v>
       </c>
       <c r="F42">
@@ -5549,17 +5760,17 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="6" t="s">
+      <c r="A43" s="15"/>
+      <c r="B43" s="4" t="s">
         <v>142</v>
       </c>
       <c r="C43" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" s="5"/>
+      <c r="D43" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="17"/>
       <c r="F43">
         <v>2</v>
       </c>
@@ -5568,17 +5779,17 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="6" t="s">
+      <c r="A44" s="15"/>
+      <c r="B44" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C44" t="s">
         <v>177</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="5"/>
+      <c r="D44" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="17"/>
       <c r="F44">
         <v>2</v>
       </c>
@@ -5587,17 +5798,17 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="6" t="s">
+      <c r="A45" s="15"/>
+      <c r="B45" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C45" t="s">
         <v>178</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E45" s="5"/>
+      <c r="D45" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="17"/>
       <c r="F45">
         <v>0.5</v>
       </c>
@@ -5606,17 +5817,17 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
-      <c r="B46" s="6" t="s">
+      <c r="A46" s="15"/>
+      <c r="B46" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C46" t="s">
         <v>179</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="5"/>
+      <c r="D46" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="17"/>
       <c r="F46">
         <v>1</v>
       </c>
@@ -5625,17 +5836,17 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="6" t="s">
+      <c r="A47" s="15"/>
+      <c r="B47" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C47" t="s">
         <v>180</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" s="5"/>
+      <c r="D47" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="17"/>
       <c r="F47">
         <v>1</v>
       </c>
@@ -5644,17 +5855,17 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
-      <c r="B48" s="6" t="s">
+      <c r="A48" s="15"/>
+      <c r="B48" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C48" t="s">
         <v>181</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" s="5"/>
+      <c r="D48" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="17"/>
       <c r="F48">
         <v>2</v>
       </c>
@@ -5663,39 +5874,39 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
-      <c r="B49" s="12" t="s">
+      <c r="A49" s="16"/>
+      <c r="B49" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D49" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="10">
-        <v>1</v>
-      </c>
-      <c r="G49" s="10">
+      <c r="D49" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="6">
+        <v>1</v>
+      </c>
+      <c r="G49" s="6">
         <v>0.5</v>
       </c>
-      <c r="H49" s="10"/>
+      <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C50" t="s">
         <v>171</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E50" s="24" t="s">
+      <c r="D50" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F50">
@@ -5706,17 +5917,17 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
-      <c r="B51" s="6" t="s">
+      <c r="A51" s="15"/>
+      <c r="B51" s="4" t="s">
         <v>155</v>
       </c>
       <c r="C51" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E51" s="5"/>
+      <c r="D51" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="17"/>
       <c r="F51">
         <v>2</v>
       </c>
@@ -5725,17 +5936,17 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
-      <c r="B52" s="6" t="s">
+      <c r="A52" s="15"/>
+      <c r="B52" s="4" t="s">
         <v>156</v>
       </c>
       <c r="C52" t="s">
         <v>172</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E52" s="5"/>
+      <c r="D52" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="17"/>
       <c r="F52">
         <v>0.5</v>
       </c>
@@ -5744,17 +5955,17 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
-      <c r="B53" s="6" t="s">
+      <c r="A53" s="15"/>
+      <c r="B53" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C53" t="s">
         <v>173</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E53" s="5"/>
+      <c r="D53" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="17"/>
       <c r="F53">
         <v>2</v>
       </c>
@@ -5763,17 +5974,17 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="6" t="s">
+      <c r="A54" s="15"/>
+      <c r="B54" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C54" t="s">
         <v>174</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E54" s="5"/>
+      <c r="D54" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="17"/>
       <c r="F54">
         <v>1</v>
       </c>
@@ -5782,17 +5993,17 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="6" t="s">
+      <c r="A55" s="15"/>
+      <c r="B55" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C55" t="s">
         <v>175</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E55" s="5"/>
+      <c r="D55" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="17"/>
       <c r="F55">
         <v>0.5</v>
       </c>
@@ -5801,39 +6012,39 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
-      <c r="B56" s="12" t="s">
+      <c r="A56" s="16"/>
+      <c r="B56" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D56" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E56" s="17"/>
-      <c r="F56" s="10">
-        <v>1</v>
-      </c>
-      <c r="G56" s="10">
-        <v>1</v>
-      </c>
-      <c r="H56" s="10"/>
+      <c r="D56" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" s="13"/>
+      <c r="F56" s="6">
+        <v>1</v>
+      </c>
+      <c r="G56" s="6">
+        <v>1</v>
+      </c>
+      <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C57" t="s">
         <v>184</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E57" s="24" t="s">
+      <c r="D57" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F57">
@@ -5844,17 +6055,17 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
-      <c r="B58" s="6" t="s">
+      <c r="A58" s="15"/>
+      <c r="B58" s="4" t="s">
         <v>162</v>
       </c>
       <c r="C58" t="s">
         <v>121</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E58" s="5"/>
+      <c r="D58" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="17"/>
       <c r="F58">
         <v>1</v>
       </c>
@@ -5863,17 +6074,17 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-      <c r="B59" s="6" t="s">
+      <c r="A59" s="15"/>
+      <c r="B59" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C59" t="s">
         <v>185</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" s="5"/>
+      <c r="D59" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" s="17"/>
       <c r="F59">
         <v>0.5</v>
       </c>
@@ -5882,17 +6093,17 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="6" t="s">
+      <c r="A60" s="15"/>
+      <c r="B60" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C60" t="s">
         <v>186</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E60" s="5"/>
+      <c r="D60" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="17"/>
       <c r="F60">
         <v>1</v>
       </c>
@@ -5901,17 +6112,17 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
-      <c r="B61" s="6" t="s">
+      <c r="A61" s="15"/>
+      <c r="B61" s="4" t="s">
         <v>189</v>
       </c>
       <c r="C61" t="s">
         <v>187</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E61" s="5"/>
+      <c r="D61" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="17"/>
       <c r="F61">
         <v>0.5</v>
       </c>
@@ -5920,39 +6131,39 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="22"/>
-      <c r="B62" s="12" t="s">
+      <c r="A62" s="16"/>
+      <c r="B62" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D62" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E62" s="17"/>
-      <c r="F62" s="10">
-        <v>1</v>
-      </c>
-      <c r="G62" s="10">
-        <v>1</v>
-      </c>
-      <c r="H62" s="10"/>
+      <c r="D62" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="F62" s="6">
+        <v>1</v>
+      </c>
+      <c r="G62" s="6">
+        <v>1</v>
+      </c>
+      <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E63" s="24" t="s">
+      <c r="D63" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="11" t="s">
         <v>147</v>
       </c>
       <c r="F63">
@@ -5963,17 +6174,17 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
-      <c r="B64" s="6" t="s">
+      <c r="A64" s="15"/>
+      <c r="B64" s="4" t="s">
         <v>192</v>
       </c>
       <c r="C64" t="s">
         <v>121</v>
       </c>
-      <c r="D64" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E64" s="5"/>
+      <c r="D64" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E64" s="17"/>
       <c r="F64">
         <v>1</v>
       </c>
@@ -5982,17 +6193,17 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
-      <c r="B65" s="6" t="s">
+      <c r="A65" s="15"/>
+      <c r="B65" s="4" t="s">
         <v>193</v>
       </c>
       <c r="C65" t="s">
         <v>209</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E65" s="5"/>
+      <c r="D65" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="17"/>
       <c r="F65">
         <v>2</v>
       </c>
@@ -6001,17 +6212,17 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
-      <c r="B66" s="6" t="s">
+      <c r="A66" s="15"/>
+      <c r="B66" s="4" t="s">
         <v>194</v>
       </c>
       <c r="C66" t="s">
         <v>210</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E66" s="5"/>
+      <c r="D66" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" s="17"/>
       <c r="F66">
         <v>0.5</v>
       </c>
@@ -6020,39 +6231,39 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="22"/>
-      <c r="B67" s="12" t="s">
+      <c r="A67" s="16"/>
+      <c r="B67" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D67" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E67" s="17"/>
-      <c r="F67" s="10">
-        <v>1</v>
-      </c>
-      <c r="G67" s="10">
+      <c r="D67" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="13"/>
+      <c r="F67" s="6">
+        <v>1</v>
+      </c>
+      <c r="G67" s="6">
         <v>0.5</v>
       </c>
-      <c r="H67" s="10"/>
+      <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="4" t="s">
         <v>196</v>
       </c>
       <c r="C68" t="s">
         <v>121</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E68" s="24" t="s">
+      <c r="D68" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="11" t="s">
         <v>67</v>
       </c>
       <c r="F68">
@@ -6063,17 +6274,17 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
-      <c r="B69" s="6" t="s">
+      <c r="A69" s="15"/>
+      <c r="B69" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C69" t="s">
         <v>213</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E69" s="16"/>
+      <c r="D69" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E69" s="12"/>
       <c r="F69">
         <v>1.5</v>
       </c>
@@ -6082,17 +6293,17 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
-      <c r="B70" s="6" t="s">
+      <c r="A70" s="15"/>
+      <c r="B70" s="4" t="s">
         <v>198</v>
       </c>
       <c r="C70" t="s">
         <v>214</v>
       </c>
-      <c r="D70" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E70" s="16"/>
+      <c r="D70" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="12"/>
       <c r="F70">
         <v>0.5</v>
       </c>
@@ -6101,17 +6312,17 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="21"/>
-      <c r="B71" s="6" t="s">
+      <c r="A71" s="15"/>
+      <c r="B71" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C71" t="s">
         <v>215</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E71" s="16"/>
+      <c r="D71" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E71" s="12"/>
       <c r="F71">
         <v>0.5</v>
       </c>
@@ -6120,17 +6331,17 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
-      <c r="B72" s="6" t="s">
+      <c r="A72" s="15"/>
+      <c r="B72" s="4" t="s">
         <v>200</v>
       </c>
       <c r="C72" t="s">
         <v>216</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E72" s="16"/>
+      <c r="D72" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" s="12"/>
       <c r="F72">
         <v>1</v>
       </c>
@@ -6139,17 +6350,17 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
-      <c r="B73" s="6" t="s">
+      <c r="A73" s="15"/>
+      <c r="B73" s="4" t="s">
         <v>201</v>
       </c>
       <c r="C73" t="s">
         <v>217</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E73" s="16"/>
+      <c r="D73" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E73" s="12"/>
       <c r="F73">
         <v>1</v>
       </c>
@@ -6158,39 +6369,39 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="22"/>
-      <c r="B74" s="12" t="s">
+      <c r="A74" s="16"/>
+      <c r="B74" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D74" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E74" s="17"/>
-      <c r="F74" s="10">
+      <c r="D74" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E74" s="13"/>
+      <c r="F74" s="6">
         <v>0.5</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G74" s="6">
         <v>0.5</v>
       </c>
-      <c r="H74" s="10"/>
+      <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C75" t="s">
         <v>219</v>
       </c>
-      <c r="D75" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E75" s="24" t="s">
+      <c r="D75" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E75" s="11" t="s">
         <v>62</v>
       </c>
       <c r="F75">
@@ -6201,17 +6412,17 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="6" t="s">
+      <c r="A76" s="15"/>
+      <c r="B76" s="4" t="s">
         <v>204</v>
       </c>
       <c r="C76" t="s">
         <v>220</v>
       </c>
-      <c r="D76" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E76" s="16"/>
+      <c r="D76" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E76" s="12"/>
       <c r="F76">
         <v>2</v>
       </c>
@@ -6220,17 +6431,17 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="21"/>
-      <c r="B77" s="6" t="s">
+      <c r="A77" s="15"/>
+      <c r="B77" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C77" t="s">
         <v>221</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E77" s="16"/>
+      <c r="D77" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E77" s="12"/>
       <c r="F77">
         <v>1.5</v>
       </c>
@@ -6239,17 +6450,17 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
-      <c r="B78" s="6" t="s">
+      <c r="A78" s="15"/>
+      <c r="B78" s="4" t="s">
         <v>206</v>
       </c>
       <c r="C78" t="s">
         <v>121</v>
       </c>
-      <c r="D78" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E78" s="16"/>
+      <c r="D78" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E78" s="12"/>
       <c r="F78">
         <v>1</v>
       </c>
@@ -6258,32 +6469,757 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="22"/>
-      <c r="B79" s="12" t="s">
+      <c r="A79" s="16"/>
+      <c r="B79" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D79" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E79" s="17"/>
-      <c r="F79" s="10">
-        <v>1</v>
-      </c>
-      <c r="G79" s="10">
+      <c r="D79" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E79" s="13"/>
+      <c r="F79" s="6">
+        <v>1</v>
+      </c>
+      <c r="G79" s="6">
         <v>0.5</v>
       </c>
-      <c r="H79" s="10"/>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C80" t="s">
+        <v>224</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="15"/>
+      <c r="B81" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C81" t="s">
+        <v>225</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="F81">
+        <v>1.5</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="15"/>
+      <c r="B82" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C82" t="s">
+        <v>226</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E82" s="12"/>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="16"/>
+      <c r="B83" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E83" s="13"/>
+      <c r="F83" s="6">
+        <v>1</v>
+      </c>
+      <c r="G83" s="6">
+        <v>1</v>
+      </c>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C84" t="s">
+        <v>251</v>
+      </c>
+      <c r="D84" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="22"/>
+      <c r="B85" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C85" t="s">
+        <v>225</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E85" s="17"/>
+      <c r="F85">
+        <v>1.5</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="22"/>
+      <c r="B86" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C86" t="s">
+        <v>226</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E86" s="17"/>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="22"/>
+      <c r="B87" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C87" t="s">
+        <v>128</v>
+      </c>
+      <c r="D87" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E87" s="17"/>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D88" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C90" t="s">
+        <v>254</v>
+      </c>
+      <c r="D90" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="15"/>
+      <c r="B91" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C91" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E91" s="12"/>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="15"/>
+      <c r="B92" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C92" t="s">
+        <v>255</v>
+      </c>
+      <c r="D92" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E92" s="12"/>
+      <c r="F92">
+        <v>0.5</v>
+      </c>
+      <c r="G92">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="15"/>
+      <c r="B93" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C93" t="s">
+        <v>256</v>
+      </c>
+      <c r="D93" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E93" s="12"/>
+      <c r="F93">
+        <v>3</v>
+      </c>
+      <c r="G93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="15"/>
+      <c r="B94" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C94" t="s">
+        <v>257</v>
+      </c>
+      <c r="D94" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E94" s="12"/>
+      <c r="F94">
+        <v>0.5</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="15"/>
+      <c r="B95" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C95" t="s">
+        <v>258</v>
+      </c>
+      <c r="D95" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E95" s="12"/>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="16"/>
+      <c r="B96" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E96" s="13"/>
+      <c r="F96" s="6">
+        <v>1</v>
+      </c>
+      <c r="G96" s="6">
+        <v>1</v>
+      </c>
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D97" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D98" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>259</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C99" t="s">
+        <v>260</v>
+      </c>
+      <c r="D99" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F99">
+        <v>4</v>
+      </c>
+      <c r="G99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C100" t="s">
+        <v>261</v>
+      </c>
+      <c r="D100" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F100">
+        <v>0.5</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C101" t="s">
+        <v>262</v>
+      </c>
+      <c r="D101" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F101">
+        <v>0.5</v>
+      </c>
+      <c r="G101">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C102" t="s">
+        <v>121</v>
+      </c>
+      <c r="D102" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F102">
+        <v>0.5</v>
+      </c>
+      <c r="G102">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="6"/>
+      <c r="B103" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G103" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H103" s="6"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>263</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C104" t="s">
+        <v>277</v>
+      </c>
+      <c r="D104" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F104">
+        <v>0.5</v>
+      </c>
+      <c r="G104">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C105" t="s">
+        <v>121</v>
+      </c>
+      <c r="D105" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F105">
+        <v>0.5</v>
+      </c>
+      <c r="G105">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C106" t="s">
+        <v>278</v>
+      </c>
+      <c r="D106" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F106">
+        <v>0.5</v>
+      </c>
+      <c r="G106">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C107" t="s">
+        <v>279</v>
+      </c>
+      <c r="D107" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C108" t="s">
+        <v>128</v>
+      </c>
+      <c r="D108" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F108">
+        <v>0.5</v>
+      </c>
+      <c r="G108">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C109" t="s">
+        <v>280</v>
+      </c>
+      <c r="D109" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="6"/>
+      <c r="B110" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6">
+        <v>2</v>
+      </c>
+      <c r="G110" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H110" s="6"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>282</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C111" t="s">
+        <v>283</v>
+      </c>
+      <c r="D111" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F111">
+        <v>0.5</v>
+      </c>
+      <c r="G111">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C112" t="s">
+        <v>284</v>
+      </c>
+      <c r="D112" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F112">
+        <v>0.5</v>
+      </c>
+      <c r="G112">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C113" t="s">
+        <v>285</v>
+      </c>
+      <c r="D113" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="6"/>
+      <c r="B114" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6">
+        <v>1</v>
+      </c>
+      <c r="G114" s="6">
+        <v>1</v>
+      </c>
+      <c r="H114" s="6"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>286</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C115" t="s">
+        <v>287</v>
+      </c>
+      <c r="D115" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C116" t="s">
+        <v>121</v>
+      </c>
+      <c r="D116" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C117" t="s">
+        <v>288</v>
+      </c>
+      <c r="D117" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C118" t="s">
+        <v>289</v>
+      </c>
+      <c r="D118" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="6"/>
+      <c r="B119" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G119" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H119" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="E57:E62"/>
-    <mergeCell ref="E50:E56"/>
+  <mergeCells count="30">
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="E90:E96"/>
+    <mergeCell ref="A90:A96"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="E4:E12"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E35"/>
+    <mergeCell ref="E36:E41"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="E42:E49"/>
     <mergeCell ref="A68:A74"/>
     <mergeCell ref="E68:E74"/>
@@ -6291,18 +7227,11 @@
     <mergeCell ref="A50:A56"/>
     <mergeCell ref="A57:A62"/>
     <mergeCell ref="A63:A67"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E35"/>
-    <mergeCell ref="E36:E41"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="E4:E12"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="E50:E56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Burndown Chart/Burndown Charts.xlsx
+++ b/Burndown Chart/Burndown Charts.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew Magin\Documents\OTS-Courier-Services\Burndown Chart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\OTS-Courier-Services\Burndown Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10130" windowHeight="8190" tabRatio="987" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="400">
   <si>
     <t>Hours Spent</t>
   </si>
@@ -1221,6 +1221,15 @@
   </si>
   <si>
     <t>T1</t>
+  </si>
+  <si>
+    <t>Project Hours Remaining</t>
+  </si>
+  <si>
+    <t>Story 3 - Sprint 4</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1258,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1259,6 +1268,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,7 +1308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1316,6 +1331,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1328,17 +1354,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1346,16 +1366,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1370,14 +1393,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4642,163 +4661,163 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="53"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>54.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>53.18103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.5</c:v>
+                  <c:v>51.86206</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58</c:v>
+                  <c:v>50.543089999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.5</c:v>
+                  <c:v>49.224119999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56.5</c:v>
+                  <c:v>47.905149999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.5</c:v>
+                  <c:v>46.586179999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55</c:v>
+                  <c:v>45.267209999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53</c:v>
+                  <c:v>43.948239999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51</c:v>
+                  <c:v>42.629269999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.5</c:v>
+                  <c:v>41.310299999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48.5</c:v>
+                  <c:v>39.991329999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47.5</c:v>
+                  <c:v>38.672359999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44.5</c:v>
+                  <c:v>37.353389999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43</c:v>
+                  <c:v>36.034419999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42</c:v>
+                  <c:v>34.715449999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41</c:v>
+                  <c:v>33.396479999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38</c:v>
+                  <c:v>32.077509999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>36.5</c:v>
+                  <c:v>30.758539999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35.5</c:v>
+                  <c:v>29.439569999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.5</c:v>
+                  <c:v>28.120599999999996</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>31.5</c:v>
+                  <c:v>26.801629999999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>30.5</c:v>
+                  <c:v>25.482659999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>30</c:v>
+                  <c:v>24.163689999999995</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27</c:v>
+                  <c:v>22.844719999999995</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.5</c:v>
+                  <c:v>21.525749999999995</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>25.5</c:v>
+                  <c:v>20.206779999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>24.5</c:v>
+                  <c:v>18.887809999999995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23.5</c:v>
+                  <c:v>17.568839999999994</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>23.5</c:v>
+                  <c:v>16.249869999999994</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>22.5</c:v>
+                  <c:v>14.930899999999994</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>20.5</c:v>
+                  <c:v>13.611929999999994</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>16.5</c:v>
+                  <c:v>12.292959999999994</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16</c:v>
+                  <c:v>10.973989999999993</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15.5</c:v>
+                  <c:v>9.6550199999999933</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>15</c:v>
+                  <c:v>8.3360499999999931</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>14.5</c:v>
+                  <c:v>7.0170799999999929</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>14</c:v>
+                  <c:v>5.6981099999999927</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>13.5</c:v>
+                  <c:v>4.3791399999999925</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>13</c:v>
+                  <c:v>3.0601699999999923</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>12</c:v>
+                  <c:v>1.7411999999999923</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11.5</c:v>
+                  <c:v>0.42222999999999233</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10.5</c:v>
+                  <c:v>-0.89674000000000764</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8.5</c:v>
+                  <c:v>-2.2157100000000076</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8</c:v>
+                  <c:v>-3.5346800000000078</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.5</c:v>
+                  <c:v>-4.853650000000008</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.5</c:v>
+                  <c:v>-6.1726200000000082</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.5</c:v>
+                  <c:v>-7.4915900000000084</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.5</c:v>
+                  <c:v>-8.8105600000000077</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.5</c:v>
+                  <c:v>-10.129530000000008</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.5</c:v>
+                  <c:v>-11.448500000000008</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.5</c:v>
+                  <c:v>-12.767470000000008</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>-14.086440000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5473,11 +5492,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU" sz="1800" b="1"/>
-              <a:t>Project Burndown</a:t>
+              <a:t>Project</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-AU" sz="1800" b="1" baseline="0"/>
-              <a:t> Chart</a:t>
+              <a:t> Burndown Chart</a:t>
             </a:r>
             <a:endParaRPr lang="en-AU" sz="1800" b="1"/>
           </a:p>
@@ -5535,7 +5554,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Assigned Stories'!$N$4:$N$120</c:f>
+              <c:f>'Assigned Stories'!$O$4:$O$119</c:f>
               <c:strCache>
                 <c:ptCount val="116"/>
                 <c:pt idx="0">
@@ -5891,7 +5910,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Assigned Stories'!$G$3:$G$119</c:f>
+              <c:f>'Assigned Stories'!$F$3:$F$119</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="117"/>
@@ -5899,349 +5918,349 @@
                   <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>151</c:v>
+                  <c:v>151.68102999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149</c:v>
+                  <c:v>150.36205999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>146</c:v>
+                  <c:v>149.04308999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>144</c:v>
+                  <c:v>147.72411999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>143.5</c:v>
+                  <c:v>146.40514999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>142</c:v>
+                  <c:v>145.08617999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>141</c:v>
+                  <c:v>143.76720999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>139.5</c:v>
+                  <c:v>142.44823999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>138.5</c:v>
+                  <c:v>141.12926999999993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>137.5</c:v>
+                  <c:v>139.81029999999993</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>135.5</c:v>
+                  <c:v>138.49132999999992</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>134.5</c:v>
+                  <c:v>137.17235999999991</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>132.5</c:v>
+                  <c:v>135.85338999999991</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>131.5</c:v>
+                  <c:v>134.5344199999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>130</c:v>
+                  <c:v>133.21544999999989</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>129</c:v>
+                  <c:v>131.89647999999988</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>128</c:v>
+                  <c:v>130.57750999999988</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>126</c:v>
+                  <c:v>129.25853999999987</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>124</c:v>
+                  <c:v>127.93956999999988</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>123</c:v>
+                  <c:v>126.62059999999988</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>122</c:v>
+                  <c:v>125.30162999999989</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>121</c:v>
+                  <c:v>123.9826599999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>119</c:v>
+                  <c:v>122.6636899999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>118.5</c:v>
+                  <c:v>121.34471999999991</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>116.5</c:v>
+                  <c:v>120.02574999999992</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>115</c:v>
+                  <c:v>118.70677999999992</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>114</c:v>
+                  <c:v>117.38780999999993</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>113</c:v>
+                  <c:v>116.06883999999994</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>111</c:v>
+                  <c:v>114.74986999999994</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>109</c:v>
+                  <c:v>113.43089999999995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>107</c:v>
+                  <c:v>112.11192999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>106</c:v>
+                  <c:v>110.79295999999997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>104.5</c:v>
+                  <c:v>109.47398999999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>102.5</c:v>
+                  <c:v>108.15501999999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>100.5</c:v>
+                  <c:v>106.83604999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>98.5</c:v>
+                  <c:v>105.51707999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>96</c:v>
+                  <c:v>104.19811</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>95</c:v>
+                  <c:v>102.87914000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>92</c:v>
+                  <c:v>101.56017000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>90</c:v>
+                  <c:v>100.24120000000002</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>88</c:v>
+                  <c:v>98.922230000000027</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>87.5</c:v>
+                  <c:v>97.603260000000034</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>86.5</c:v>
+                  <c:v>96.284290000000041</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>85.5</c:v>
+                  <c:v>94.965320000000048</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>83.5</c:v>
+                  <c:v>93.646350000000055</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>82.5</c:v>
+                  <c:v>92.327380000000062</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>80.5</c:v>
+                  <c:v>91.008410000000069</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>78.5</c:v>
+                  <c:v>89.689440000000076</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>78</c:v>
+                  <c:v>88.370470000000083</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>76</c:v>
+                  <c:v>87.05150000000009</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>75</c:v>
+                  <c:v>85.732530000000096</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>74.5</c:v>
+                  <c:v>84.413560000000103</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>73.5</c:v>
+                  <c:v>83.09459000000011</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>71.5</c:v>
+                  <c:v>81.775620000000117</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>70.5</c:v>
+                  <c:v>80.456650000000124</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>70</c:v>
+                  <c:v>79.137680000000131</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>69</c:v>
+                  <c:v>77.818710000000138</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>68.5</c:v>
+                  <c:v>76.499740000000145</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>67.5</c:v>
+                  <c:v>75.180770000000152</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>65.5</c:v>
+                  <c:v>73.861800000000159</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>64.5</c:v>
+                  <c:v>72.542830000000166</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62.5</c:v>
+                  <c:v>71.223860000000172</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>62</c:v>
+                  <c:v>69.904890000000179</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>61</c:v>
+                  <c:v>68.585920000000186</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>60</c:v>
+                  <c:v>67.266950000000193</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>58.5</c:v>
+                  <c:v>65.9479800000002</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>58</c:v>
+                  <c:v>64.629010000000207</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>57.5</c:v>
+                  <c:v>63.310040000000207</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>56.5</c:v>
+                  <c:v>61.991070000000207</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>55.5</c:v>
+                  <c:v>60.672100000000206</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>55</c:v>
+                  <c:v>59.353130000000206</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>53</c:v>
+                  <c:v>58.034160000000206</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>51</c:v>
+                  <c:v>56.715190000000206</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>49.5</c:v>
+                  <c:v>55.396220000000206</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>48.5</c:v>
+                  <c:v>54.077250000000205</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>47.5</c:v>
+                  <c:v>52.758280000000205</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>44.5</c:v>
+                  <c:v>51.439310000000205</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>43</c:v>
+                  <c:v>50.120340000000205</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42</c:v>
+                  <c:v>48.801370000000205</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>41</c:v>
+                  <c:v>47.482400000000204</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>38</c:v>
+                  <c:v>46.163430000000204</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>36.5</c:v>
+                  <c:v>44.844460000000204</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>35.5</c:v>
+                  <c:v>43.525490000000204</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>34.5</c:v>
+                  <c:v>42.206520000000204</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>31.5</c:v>
+                  <c:v>40.887550000000203</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>30.5</c:v>
+                  <c:v>39.568580000000203</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>30</c:v>
+                  <c:v>38.249610000000203</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>27</c:v>
+                  <c:v>36.930640000000203</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>26.5</c:v>
+                  <c:v>35.611670000000203</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>25.5</c:v>
+                  <c:v>34.292700000000202</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>24.5</c:v>
+                  <c:v>32.973730000000202</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>23.5</c:v>
+                  <c:v>31.654760000000202</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>23.5</c:v>
+                  <c:v>30.335790000000202</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>22.5</c:v>
+                  <c:v>29.016820000000202</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>20.5</c:v>
+                  <c:v>27.697850000000201</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>16.5</c:v>
+                  <c:v>26.378880000000201</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>16</c:v>
+                  <c:v>25.059910000000201</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>15.5</c:v>
+                  <c:v>23.740940000000201</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>15</c:v>
+                  <c:v>22.421970000000201</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>14.5</c:v>
+                  <c:v>21.1030000000002</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>14</c:v>
+                  <c:v>19.7840300000002</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>13.5</c:v>
+                  <c:v>18.4650600000002</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>13</c:v>
+                  <c:v>17.1460900000002</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>12</c:v>
+                  <c:v>15.8271200000002</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>11.5</c:v>
+                  <c:v>14.508150000000199</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>10.5</c:v>
+                  <c:v>13.189180000000199</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>8.5</c:v>
+                  <c:v>11.870210000000199</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>8</c:v>
+                  <c:v>10.551240000000199</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>7.5</c:v>
+                  <c:v>9.2322700000001987</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>6.5</c:v>
+                  <c:v>7.9133000000001985</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>5.5</c:v>
+                  <c:v>6.5943300000001983</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>4.5</c:v>
+                  <c:v>5.2753600000001981</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3.5</c:v>
+                  <c:v>3.9563900000001979</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.5</c:v>
+                  <c:v>2.6374200000001977</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.5</c:v>
+                  <c:v>1.3184500000001977</c:v>
                 </c:pt>
                 <c:pt idx="116">
                   <c:v>0</c:v>
@@ -6252,7 +6271,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-372C-4224-98F0-659279371376}"/>
+              <c16:uniqueId val="{00000000-2F4B-4057-9E0F-9009AAF56AB2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6273,7 +6292,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Assigned Stories'!$N$4:$N$120</c:f>
+              <c:f>'Assigned Stories'!$O$4:$O$119</c:f>
               <c:strCache>
                 <c:ptCount val="116"/>
                 <c:pt idx="0">
@@ -6629,7 +6648,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Assigned Stories'!$I$3:$I$119</c:f>
+              <c:f>'Assigned Stories'!$J$3:$J$119</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="117"/>
@@ -6990,7 +7009,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-372C-4224-98F0-659279371376}"/>
+              <c16:uniqueId val="{00000001-2F4B-4057-9E0F-9009AAF56AB2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7003,11 +7022,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="484647312"/>
-        <c:axId val="484646656"/>
+        <c:axId val="431126376"/>
+        <c:axId val="431131952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="484647312"/>
+        <c:axId val="431126376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7034,8 +7053,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-AU" sz="1400" b="1"/>
-                  <a:t>Tasks Remaining</a:t>
+                  <a:t>Tasks</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1400" b="1" baseline="0"/>
+                  <a:t> Remaining</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU" sz="1400" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -7105,7 +7129,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484646656"/>
+        <c:crossAx val="431131952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7113,7 +7137,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="484646656"/>
+        <c:axId val="431131952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7140,7 +7164,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -7153,12 +7177,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-AU" sz="1400" b="1"/>
-                  <a:t>Hours</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-AU" sz="1400" b="1" baseline="0"/>
-                  <a:t> Remaing</a:t>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Hours Remaining</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7176,7 +7196,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -7223,7 +7243,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484647312"/>
+        <c:crossAx val="431126376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7235,37 +7255,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -9222,22 +9211,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>425820</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>122608</xdr:rowOff>
+      <xdr:colOff>1442163</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>173113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>47223</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>177030</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>91685</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE30093-6347-4308-BC93-9551C85066A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F94031D7-7A52-4F9C-81A0-B62C1738CAAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9561,23 +9550,23 @@
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.625"/>
-    <col min="2" max="11" width="8.5"/>
-    <col min="12" max="12" width="11.375"/>
-    <col min="13" max="1025" width="8.5"/>
+    <col min="1" max="1" width="21.6328125"/>
+    <col min="2" max="11" width="8.453125"/>
+    <col min="12" max="12" width="11.36328125"/>
+    <col min="13" max="1025" width="8.453125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -9609,7 +9598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -9652,7 +9641,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -9695,7 +9684,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -9738,7 +9727,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -9781,7 +9770,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -9824,7 +9813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -9867,7 +9856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -9916,7 +9905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -9979,13 +9968,13 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.625"/>
-    <col min="2" max="1025" width="8.5"/>
+    <col min="1" max="1" width="21.6328125"/>
+    <col min="2" max="1025" width="8.453125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>19</v>
       </c>
@@ -10017,7 +10006,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -10060,7 +10049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -10103,7 +10092,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -10146,7 +10135,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -10189,7 +10178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -10238,7 +10227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -10301,18 +10290,18 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5"/>
-    <col min="2" max="1025" width="8.5"/>
+    <col min="1" max="1" width="25.453125"/>
+    <col min="2" max="1025" width="8.453125"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>33</v>
       </c>
@@ -10344,7 +10333,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -10390,7 +10379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -10436,7 +10425,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -10479,7 +10468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -10525,7 +10514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -10571,7 +10560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -10617,7 +10606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -10666,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -10729,18 +10718,18 @@
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.125" customWidth="1"/>
-    <col min="2" max="1025" width="8.5"/>
+    <col min="1" max="1" width="22.08984375" customWidth="1"/>
+    <col min="2" max="1025" width="8.453125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>49</v>
       </c>
@@ -10772,12 +10761,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>59</v>
       </c>
       <c r="B4">
-        <f>C4+D4+E4+F4+G4+H4+I4+J4+K4+L4</f>
+        <f t="shared" ref="B4:B9" si="0">C4+D4+E4+F4+G4+H4+I4+J4+K4+L4</f>
         <v>5.5</v>
       </c>
       <c r="C4">
@@ -10811,16 +10800,16 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <f>SUM(C4:L4)</f>
+        <f t="shared" ref="M4:M9" si="1">SUM(C4:L4)</f>
         <v>5.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>60</v>
       </c>
       <c r="B5">
-        <f>C5+D5+E5+F5+G5+H5+I5+J5+K5+L5</f>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
       <c r="C5">
@@ -10854,16 +10843,16 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <f>SUM(C5:L5)</f>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>48</v>
       </c>
       <c r="B6">
-        <f>C6+D6+E6+F6+G6+H6+I6+J6+K6+L6</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C6">
@@ -10897,16 +10886,16 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <f>SUM(C6:L6)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>63</v>
       </c>
       <c r="B7">
-        <f>C7+D7+E7+F7+G7+H7+I7+J7+K7+L7</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C7">
@@ -10940,16 +10929,16 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <f>SUM(C7:L7)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>297</v>
       </c>
       <c r="B8">
-        <f>C8+D8+E8+F8+G8+H8+I8+J8+K8+L8</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="C8">
@@ -10983,16 +10972,16 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <f>SUM(C8:L8)</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>296</v>
       </c>
       <c r="B9">
-        <f>C9+D9+E9+F9+G9+H9+I9+J9+K9+L9</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9">
@@ -11026,11 +11015,11 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <f>SUM(C9:L9)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -11039,47 +11028,47 @@
         <v>32.5</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:L10" si="0">B10-SUM(C4:C9)</f>
+        <f t="shared" ref="C10:L10" si="2">B10-SUM(C4:C9)</f>
         <v>32.5</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30.5</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -11139,15 +11128,15 @@
   <dimension ref="A1:AB67"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="90.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="E1" s="3"/>
       <c r="F1">
         <f>SUM(F2:F117)</f>
@@ -11166,8 +11155,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
         <v>162</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -11179,7 +11168,7 @@
       <c r="D2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="23" t="s">
         <v>65</v>
       </c>
       <c r="F2">
@@ -11200,8 +11189,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A3" s="18"/>
       <c r="B3" s="4" t="s">
         <v>83</v>
       </c>
@@ -11211,7 +11200,7 @@
       <c r="D3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="23"/>
       <c r="F3">
         <v>2</v>
       </c>
@@ -11230,8 +11219,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>84</v>
       </c>
@@ -11241,7 +11230,7 @@
       <c r="D4" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="23"/>
       <c r="F4">
         <v>3</v>
       </c>
@@ -11260,8 +11249,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>85</v>
       </c>
@@ -11271,7 +11260,7 @@
       <c r="D5" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="23"/>
       <c r="F5">
         <v>2</v>
       </c>
@@ -11290,8 +11279,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
         <v>86</v>
       </c>
@@ -11301,7 +11290,7 @@
       <c r="D6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="23"/>
       <c r="F6">
         <v>0.5</v>
       </c>
@@ -11320,8 +11309,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A7" s="18"/>
       <c r="B7" s="4" t="s">
         <v>87</v>
       </c>
@@ -11331,7 +11320,7 @@
       <c r="D7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="23"/>
       <c r="F7">
         <v>1.5</v>
       </c>
@@ -11350,8 +11339,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A8" s="18"/>
       <c r="B8" s="4" t="s">
         <v>88</v>
       </c>
@@ -11361,7 +11350,7 @@
       <c r="D8" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="23"/>
       <c r="F8">
         <v>1</v>
       </c>
@@ -11380,8 +11369,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A9" s="18"/>
       <c r="B9" s="4" t="s">
         <v>89</v>
       </c>
@@ -11391,7 +11380,7 @@
       <c r="D9" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="23"/>
       <c r="F9">
         <v>1.5</v>
       </c>
@@ -11410,8 +11399,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="19"/>
       <c r="B10" s="7" t="s">
         <v>90</v>
       </c>
@@ -11421,7 +11410,7 @@
       <c r="D10" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="6">
         <v>1</v>
       </c>
@@ -11440,8 +11429,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
         <v>163</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -11453,7 +11442,7 @@
       <c r="D11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="27" t="s">
         <v>62</v>
       </c>
       <c r="F11">
@@ -11474,8 +11463,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A12" s="25"/>
       <c r="B12" s="4" t="s">
         <v>97</v>
       </c>
@@ -11485,7 +11474,7 @@
       <c r="D12" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="27"/>
       <c r="F12">
         <v>2</v>
       </c>
@@ -11504,8 +11493,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A13" s="25"/>
       <c r="B13" s="4" t="s">
         <v>98</v>
       </c>
@@ -11515,7 +11504,7 @@
       <c r="D13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="22"/>
+      <c r="E13" s="27"/>
       <c r="F13">
         <v>1</v>
       </c>
@@ -11534,8 +11523,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A14" s="25"/>
       <c r="B14" s="4" t="s">
         <v>99</v>
       </c>
@@ -11545,7 +11534,7 @@
       <c r="D14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="22"/>
+      <c r="E14" s="27"/>
       <c r="F14">
         <v>2</v>
       </c>
@@ -11564,8 +11553,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+    <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="26"/>
       <c r="B15" s="7" t="s">
         <v>100</v>
       </c>
@@ -11575,7 +11564,7 @@
       <c r="D15" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="23"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="6">
         <v>1</v>
       </c>
@@ -11594,8 +11583,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A16" s="17" t="s">
         <v>164</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -11607,7 +11596,7 @@
       <c r="D16" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="30" t="s">
         <v>64</v>
       </c>
       <c r="F16">
@@ -11628,8 +11617,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A17" s="29"/>
       <c r="B17" s="4" t="s">
         <v>102</v>
       </c>
@@ -11639,7 +11628,7 @@
       <c r="D17" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="27"/>
+      <c r="E17" s="31"/>
       <c r="F17">
         <v>1</v>
       </c>
@@ -11658,8 +11647,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A18" s="29"/>
       <c r="B18" s="4" t="s">
         <v>103</v>
       </c>
@@ -11669,7 +11658,7 @@
       <c r="D18" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="27"/>
+      <c r="E18" s="31"/>
       <c r="F18">
         <v>1</v>
       </c>
@@ -11688,8 +11677,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A19" s="29"/>
       <c r="B19" s="4" t="s">
         <v>104</v>
       </c>
@@ -11699,7 +11688,7 @@
       <c r="D19" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="27"/>
+      <c r="E19" s="31"/>
       <c r="F19">
         <v>2</v>
       </c>
@@ -11718,8 +11707,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A20" s="29"/>
       <c r="B20" s="4" t="s">
         <v>105</v>
       </c>
@@ -11729,7 +11718,7 @@
       <c r="D20" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="27"/>
+      <c r="E20" s="31"/>
       <c r="F20">
         <v>2</v>
       </c>
@@ -11748,8 +11737,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="19"/>
       <c r="B21" s="7" t="s">
         <v>106</v>
       </c>
@@ -11759,7 +11748,7 @@
       <c r="D21" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="28"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="6">
         <v>1</v>
       </c>
@@ -11778,8 +11767,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A22" s="17" t="s">
         <v>165</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -11791,7 +11780,7 @@
       <c r="D22" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="30" t="s">
         <v>61</v>
       </c>
       <c r="F22">
@@ -11804,7 +11793,7 @@
       <c r="H22">
         <v>1</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="14">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
@@ -11812,8 +11801,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A23" s="29"/>
       <c r="B23" s="4" t="s">
         <v>108</v>
       </c>
@@ -11823,7 +11812,7 @@
       <c r="D23" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="29"/>
+      <c r="E23" s="33"/>
       <c r="F23">
         <v>1</v>
       </c>
@@ -11842,8 +11831,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A24" s="29"/>
       <c r="B24" s="4" t="s">
         <v>109</v>
       </c>
@@ -11853,7 +11842,7 @@
       <c r="D24" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="29"/>
+      <c r="E24" s="33"/>
       <c r="F24">
         <v>2</v>
       </c>
@@ -11872,8 +11861,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A25" s="29"/>
       <c r="B25" s="4" t="s">
         <v>110</v>
       </c>
@@ -11883,7 +11872,7 @@
       <c r="D25" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="29"/>
+      <c r="E25" s="33"/>
       <c r="F25">
         <v>0.5</v>
       </c>
@@ -11902,8 +11891,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
+    <row r="26" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="19"/>
       <c r="B26" s="7" t="s">
         <v>111</v>
       </c>
@@ -11913,7 +11902,7 @@
       <c r="D26" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="28"/>
+      <c r="E26" s="32"/>
       <c r="F26" s="6">
         <v>2</v>
       </c>
@@ -11932,8 +11921,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A27" s="17" t="s">
         <v>166</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -11945,13 +11934,13 @@
       <c r="D27" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="30" t="s">
         <v>64</v>
       </c>
       <c r="F27">
         <v>1.5</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="14">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
@@ -11966,8 +11955,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A28" s="29"/>
       <c r="B28" s="4" t="s">
         <v>113</v>
       </c>
@@ -11977,7 +11966,7 @@
       <c r="D28" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="27"/>
+      <c r="E28" s="31"/>
       <c r="F28">
         <v>1</v>
       </c>
@@ -11996,8 +11985,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A29" s="29"/>
       <c r="B29" s="4" t="s">
         <v>114</v>
       </c>
@@ -12007,7 +11996,7 @@
       <c r="D29" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="27"/>
+      <c r="E29" s="31"/>
       <c r="F29">
         <v>1</v>
       </c>
@@ -12026,8 +12015,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A30" s="29"/>
       <c r="B30" s="4" t="s">
         <v>115</v>
       </c>
@@ -12037,7 +12026,7 @@
       <c r="D30" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="27"/>
+      <c r="E30" s="31"/>
       <c r="F30">
         <v>2</v>
       </c>
@@ -12056,8 +12045,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A31" s="29"/>
       <c r="B31" s="4" t="s">
         <v>116</v>
       </c>
@@ -12067,7 +12056,7 @@
       <c r="D31" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="27"/>
+      <c r="E31" s="31"/>
       <c r="F31">
         <v>2</v>
       </c>
@@ -12086,8 +12075,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A32" s="29"/>
       <c r="B32" s="4" t="s">
         <v>117</v>
       </c>
@@ -12097,7 +12086,7 @@
       <c r="D32" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="27"/>
+      <c r="E32" s="31"/>
       <c r="F32">
         <v>2</v>
       </c>
@@ -12116,8 +12105,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
+    <row r="33" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="19"/>
       <c r="B33" s="7" t="s">
         <v>132</v>
       </c>
@@ -12127,7 +12116,7 @@
       <c r="D33" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="28"/>
+      <c r="E33" s="32"/>
       <c r="F33" s="6">
         <v>1</v>
       </c>
@@ -12146,8 +12135,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A34" s="17" t="s">
         <v>167</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -12159,20 +12148,20 @@
       <c r="D34" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="30" t="s">
         <v>145</v>
       </c>
       <c r="F34">
         <v>1.5</v>
       </c>
-      <c r="G34" s="31">
+      <c r="G34" s="14">
         <f t="shared" si="0"/>
         <v>43.5</v>
       </c>
       <c r="H34">
         <v>2</v>
       </c>
-      <c r="I34" s="31">
+      <c r="I34" s="14">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
@@ -12180,8 +12169,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A35" s="29"/>
       <c r="B35" s="4" t="s">
         <v>134</v>
       </c>
@@ -12191,7 +12180,7 @@
       <c r="D35" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="29"/>
+      <c r="E35" s="33"/>
       <c r="F35">
         <v>2</v>
       </c>
@@ -12210,8 +12199,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A36" s="29"/>
       <c r="B36" s="4" t="s">
         <v>135</v>
       </c>
@@ -12221,7 +12210,7 @@
       <c r="D36" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="29"/>
+      <c r="E36" s="33"/>
       <c r="F36">
         <v>2</v>
       </c>
@@ -12240,8 +12229,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A37" s="29"/>
       <c r="B37" s="4" t="s">
         <v>136</v>
       </c>
@@ -12251,7 +12240,7 @@
       <c r="D37" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="29"/>
+      <c r="E37" s="33"/>
       <c r="F37">
         <v>2</v>
       </c>
@@ -12270,8 +12259,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A38" s="29"/>
       <c r="B38" s="4" t="s">
         <v>137</v>
       </c>
@@ -12281,7 +12270,7 @@
       <c r="D38" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="29"/>
+      <c r="E38" s="33"/>
       <c r="F38">
         <v>2.5</v>
       </c>
@@ -12300,8 +12289,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
+    <row r="39" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="19"/>
       <c r="B39" s="7" t="s">
         <v>138</v>
       </c>
@@ -12311,7 +12300,7 @@
       <c r="D39" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="28"/>
+      <c r="E39" s="32"/>
       <c r="F39" s="6">
         <v>1</v>
       </c>
@@ -12330,8 +12319,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A40" s="17" t="s">
         <v>180</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -12343,20 +12332,20 @@
       <c r="D40" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="20" t="s">
         <v>61</v>
       </c>
       <c r="F40">
         <v>3</v>
       </c>
-      <c r="G40" s="31">
+      <c r="G40" s="14">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="H40">
         <v>2</v>
       </c>
-      <c r="I40" s="31">
+      <c r="I40" s="14">
         <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
@@ -12364,8 +12353,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A41" s="18"/>
       <c r="B41" s="4" t="s">
         <v>140</v>
       </c>
@@ -12375,7 +12364,7 @@
       <c r="D41" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="18"/>
+      <c r="E41" s="21"/>
       <c r="F41">
         <v>2</v>
       </c>
@@ -12394,8 +12383,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A42" s="18"/>
       <c r="B42" s="4" t="s">
         <v>146</v>
       </c>
@@ -12405,7 +12394,7 @@
       <c r="D42" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="18"/>
+      <c r="E42" s="21"/>
       <c r="F42">
         <v>2</v>
       </c>
@@ -12424,8 +12413,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A43" s="18"/>
       <c r="B43" s="4" t="s">
         <v>147</v>
       </c>
@@ -12435,7 +12424,7 @@
       <c r="D43" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E43" s="18"/>
+      <c r="E43" s="21"/>
       <c r="F43">
         <v>0.5</v>
       </c>
@@ -12454,8 +12443,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A44" s="18"/>
       <c r="B44" s="4" t="s">
         <v>148</v>
       </c>
@@ -12465,7 +12454,7 @@
       <c r="D44" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="18"/>
+      <c r="E44" s="21"/>
       <c r="F44">
         <v>1</v>
       </c>
@@ -12484,8 +12473,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A45" s="18"/>
       <c r="B45" s="4" t="s">
         <v>149</v>
       </c>
@@ -12495,7 +12484,7 @@
       <c r="D45" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E45" s="18"/>
+      <c r="E45" s="21"/>
       <c r="F45">
         <v>1</v>
       </c>
@@ -12514,8 +12503,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A46" s="18"/>
       <c r="B46" s="4" t="s">
         <v>150</v>
       </c>
@@ -12525,7 +12514,7 @@
       <c r="D46" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E46" s="18"/>
+      <c r="E46" s="21"/>
       <c r="F46">
         <v>2</v>
       </c>
@@ -12544,8 +12533,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
+    <row r="47" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="19"/>
       <c r="B47" s="7" t="s">
         <v>151</v>
       </c>
@@ -12555,7 +12544,7 @@
       <c r="D47" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="17"/>
+      <c r="E47" s="22"/>
       <c r="F47" s="6">
         <v>1</v>
       </c>
@@ -12574,8 +12563,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A48" s="17" t="s">
         <v>168</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -12587,20 +12576,20 @@
       <c r="D48" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F48">
         <v>2</v>
       </c>
-      <c r="G48" s="31">
+      <c r="G48" s="14">
         <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
       <c r="H48">
         <v>2</v>
       </c>
-      <c r="I48" s="31">
+      <c r="I48" s="14">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -12608,8 +12597,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A49" s="18"/>
       <c r="B49" s="4" t="s">
         <v>153</v>
       </c>
@@ -12619,7 +12608,7 @@
       <c r="D49" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="18"/>
+      <c r="E49" s="21"/>
       <c r="F49">
         <v>2</v>
       </c>
@@ -12638,8 +12627,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A50" s="18"/>
       <c r="B50" s="4" t="s">
         <v>154</v>
       </c>
@@ -12649,7 +12638,7 @@
       <c r="D50" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E50" s="18"/>
+      <c r="E50" s="21"/>
       <c r="F50">
         <v>0.5</v>
       </c>
@@ -12668,8 +12657,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A51" s="18"/>
       <c r="B51" s="4" t="s">
         <v>155</v>
       </c>
@@ -12679,7 +12668,7 @@
       <c r="D51" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="18"/>
+      <c r="E51" s="21"/>
       <c r="F51">
         <v>2</v>
       </c>
@@ -12698,8 +12687,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A52" s="18"/>
       <c r="B52" s="4" t="s">
         <v>156</v>
       </c>
@@ -12709,7 +12698,7 @@
       <c r="D52" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="18"/>
+      <c r="E52" s="21"/>
       <c r="F52">
         <v>1</v>
       </c>
@@ -12728,8 +12717,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A53" s="18"/>
       <c r="B53" s="4" t="s">
         <v>157</v>
       </c>
@@ -12739,7 +12728,7 @@
       <c r="D53" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E53" s="18"/>
+      <c r="E53" s="21"/>
       <c r="F53">
         <v>0.5</v>
       </c>
@@ -12758,8 +12747,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="14"/>
+    <row r="54" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="19"/>
       <c r="B54" s="7" t="s">
         <v>158</v>
       </c>
@@ -12769,7 +12758,7 @@
       <c r="D54" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E54" s="17"/>
+      <c r="E54" s="22"/>
       <c r="F54" s="6">
         <v>1</v>
       </c>
@@ -12788,8 +12777,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A55" s="17" t="s">
         <v>181</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -12801,7 +12790,7 @@
       <c r="D55" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="20" t="s">
         <v>64</v>
       </c>
       <c r="F55">
@@ -12814,7 +12803,7 @@
       <c r="H55">
         <v>1.5</v>
       </c>
-      <c r="I55" s="31">
+      <c r="I55" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -12822,8 +12811,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A56" s="18"/>
       <c r="B56" s="4" t="s">
         <v>160</v>
       </c>
@@ -12833,7 +12822,7 @@
       <c r="D56" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E56" s="18"/>
+      <c r="E56" s="21"/>
       <c r="F56">
         <v>1</v>
       </c>
@@ -12852,8 +12841,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A57" s="18"/>
       <c r="B57" s="4" t="s">
         <v>161</v>
       </c>
@@ -12863,7 +12852,7 @@
       <c r="D57" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E57" s="18"/>
+      <c r="E57" s="21"/>
       <c r="F57">
         <v>0.5</v>
       </c>
@@ -12882,8 +12871,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A58" s="18"/>
       <c r="B58" s="4" t="s">
         <v>186</v>
       </c>
@@ -12893,7 +12882,7 @@
       <c r="D58" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E58" s="18"/>
+      <c r="E58" s="21"/>
       <c r="F58">
         <v>1</v>
       </c>
@@ -12912,8 +12901,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A59" s="18"/>
       <c r="B59" s="4" t="s">
         <v>187</v>
       </c>
@@ -12923,7 +12912,7 @@
       <c r="D59" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E59" s="18"/>
+      <c r="E59" s="21"/>
       <c r="F59">
         <v>0.5</v>
       </c>
@@ -12942,8 +12931,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14"/>
+    <row r="60" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="19"/>
       <c r="B60" s="7" t="s">
         <v>188</v>
       </c>
@@ -12953,7 +12942,7 @@
       <c r="D60" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E60" s="17"/>
+      <c r="E60" s="22"/>
       <c r="F60" s="6">
         <v>1</v>
       </c>
@@ -12972,8 +12961,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+    <row r="61" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="A61" s="17" t="s">
         <v>205</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -12985,13 +12974,13 @@
       <c r="D61" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="E61" s="20" t="s">
         <v>145</v>
       </c>
       <c r="F61">
         <v>2</v>
       </c>
-      <c r="G61" s="31">
+      <c r="G61" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -13006,8 +12995,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A62" s="18"/>
       <c r="B62" s="4" t="s">
         <v>190</v>
       </c>
@@ -13017,7 +13006,7 @@
       <c r="D62" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E62" s="18"/>
+      <c r="E62" s="21"/>
       <c r="F62">
         <v>1</v>
       </c>
@@ -13036,8 +13025,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A63" s="18"/>
       <c r="B63" s="4" t="s">
         <v>191</v>
       </c>
@@ -13047,7 +13036,7 @@
       <c r="D63" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E63" s="18"/>
+      <c r="E63" s="21"/>
       <c r="F63">
         <v>2</v>
       </c>
@@ -13066,8 +13055,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A64" s="18"/>
       <c r="B64" s="4" t="s">
         <v>192</v>
       </c>
@@ -13077,7 +13066,7 @@
       <c r="D64" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E64" s="18"/>
+      <c r="E64" s="21"/>
       <c r="F64">
         <v>0.5</v>
       </c>
@@ -13096,8 +13085,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="14"/>
+    <row r="65" spans="1:28" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="19"/>
       <c r="B65" s="7" t="s">
         <v>193</v>
       </c>
@@ -13107,7 +13096,7 @@
       <c r="D65" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E65" s="17"/>
+      <c r="E65" s="22"/>
       <c r="F65" s="6">
         <v>1</v>
       </c>
@@ -13126,30 +13115,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
       <c r="AB66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
       <c r="AB67">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="E48:E54"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="E55:E60"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="E61:E65"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="E2:E10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="E16:E21"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="E22:E26"/>
     <mergeCell ref="A34:A39"/>
@@ -13158,6 +13135,18 @@
     <mergeCell ref="E40:E47"/>
     <mergeCell ref="A27:A33"/>
     <mergeCell ref="E27:E33"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="E48:E54"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="E55:E60"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="E61:E65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13166,26 +13155,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W55"/>
+  <dimension ref="A1:W65"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView topLeftCell="D16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="93.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E1" s="3"/>
       <c r="F1">
         <f>SUM(F2:F117)</f>
         <v>61</v>
       </c>
-      <c r="G1">
-        <f>SUM(F2:F117)</f>
-        <v>61</v>
+      <c r="G1" s="3">
+        <f>H1</f>
+        <v>54.5</v>
       </c>
       <c r="H1">
         <f>SUM(H2:H117)</f>
@@ -13196,8 +13185,8 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
         <v>210</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -13209,29 +13198,29 @@
       <c r="D2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="20" t="s">
         <v>65</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G53" si="0">G1-F2</f>
-        <v>60</v>
+      <c r="G2" s="12">
+        <f>G1-1.31897</f>
+        <v>53.18103</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" s="31">
-        <f t="shared" ref="I2:I24" si="1">I1-H2</f>
+      <c r="I2" s="14">
+        <f t="shared" ref="I2:I24" si="0">I1-H2</f>
         <v>53.5</v>
       </c>
       <c r="W2">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="18"/>
       <c r="B3" s="4" t="s">
         <v>195</v>
       </c>
@@ -13241,27 +13230,27 @@
       <c r="D3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="34"/>
       <c r="F3">
         <v>1.5</v>
       </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
-        <v>58.5</v>
+      <c r="G3" s="12">
+        <f>G2-1.31897</f>
+        <v>51.86206</v>
       </c>
       <c r="H3">
         <v>1.5</v>
       </c>
       <c r="I3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="W3">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>196</v>
       </c>
@@ -13271,27 +13260,27 @@
       <c r="D4" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="34"/>
       <c r="F4">
         <v>0.5</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>58</v>
+      <c r="G4" s="12">
+        <f t="shared" ref="G4:G65" si="1">G3-1.31897</f>
+        <v>50.543089999999999</v>
       </c>
       <c r="H4">
         <v>0.5</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>51.5</v>
       </c>
       <c r="W4">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>197</v>
       </c>
@@ -13301,27 +13290,27 @@
       <c r="D5" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="34"/>
       <c r="F5">
         <v>0.5</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="12">
+        <f t="shared" si="1"/>
+        <v>49.224119999999999</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="0"/>
-        <v>57.5</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
         <v>50.5</v>
       </c>
       <c r="W5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
         <v>198</v>
       </c>
@@ -13331,27 +13320,27 @@
       <c r="D6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="34"/>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>56.5</v>
+      <c r="G6" s="12">
+        <f t="shared" si="1"/>
+        <v>47.905149999999999</v>
       </c>
       <c r="H6">
         <v>0.5</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="W6">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" s="18"/>
       <c r="B7" s="4" t="s">
         <v>199</v>
       </c>
@@ -13361,27 +13350,27 @@
       <c r="D7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="34"/>
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="12">
+        <f t="shared" si="1"/>
+        <v>46.586179999999999</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="0"/>
-        <v>55.5</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="W7">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="19"/>
       <c r="B8" s="7" t="s">
         <v>200</v>
       </c>
@@ -13391,27 +13380,27 @@
       <c r="D8" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="6">
         <v>0.5</v>
       </c>
-      <c r="G8" s="6">
-        <f t="shared" si="0"/>
-        <v>55</v>
+      <c r="G8" s="12">
+        <f t="shared" si="1"/>
+        <v>45.267209999999999</v>
       </c>
       <c r="H8" s="6">
         <v>0.5</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>48.5</v>
       </c>
       <c r="W8">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
         <v>216</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -13423,29 +13412,29 @@
       <c r="D9" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="20" t="s">
         <v>61</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>53</v>
+      <c r="G9" s="12">
+        <f t="shared" si="1"/>
+        <v>43.948239999999998</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
-      <c r="I9" s="31">
-        <f t="shared" si="1"/>
+      <c r="I9" s="14">
+        <f t="shared" si="0"/>
         <v>46.5</v>
       </c>
       <c r="W9">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" s="18"/>
       <c r="B10" s="4" t="s">
         <v>202</v>
       </c>
@@ -13455,27 +13444,27 @@
       <c r="D10" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="34"/>
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>51</v>
+      <c r="G10" s="12">
+        <f t="shared" si="1"/>
+        <v>42.629269999999998</v>
       </c>
       <c r="H10">
         <v>1.5</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="W10">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
         <v>203</v>
       </c>
@@ -13485,27 +13474,27 @@
       <c r="D11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="34"/>
       <c r="F11">
         <v>1.5</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="12">
+        <f t="shared" si="1"/>
+        <v>41.310299999999998</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="0"/>
-        <v>49.5</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="W11">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" s="18"/>
       <c r="B12" s="4" t="s">
         <v>204</v>
       </c>
@@ -13515,27 +13504,27 @@
       <c r="D12" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="34"/>
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>48.5</v>
+      <c r="G12" s="12">
+        <f t="shared" si="1"/>
+        <v>39.991329999999998</v>
       </c>
       <c r="H12">
         <v>0.5</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43.5</v>
       </c>
       <c r="W12">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="19"/>
       <c r="B13" s="7" t="s">
         <v>220</v>
       </c>
@@ -13545,27 +13534,27 @@
       <c r="D13" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="6">
         <v>1</v>
       </c>
-      <c r="G13" s="6">
-        <f t="shared" si="0"/>
-        <v>47.5</v>
+      <c r="G13" s="12">
+        <f t="shared" si="1"/>
+        <v>38.672359999999998</v>
       </c>
       <c r="H13" s="6">
         <v>0.5</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="W13">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" s="17" t="s">
         <v>221</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -13577,29 +13566,29 @@
       <c r="D14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="20" t="s">
         <v>145</v>
       </c>
       <c r="F14">
         <v>3</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>44.5</v>
+      <c r="G14" s="12">
+        <f t="shared" si="1"/>
+        <v>37.353389999999997</v>
       </c>
       <c r="H14">
         <v>1.5</v>
       </c>
-      <c r="I14" s="31">
-        <f t="shared" si="1"/>
+      <c r="I14" s="14">
+        <f t="shared" si="0"/>
         <v>41.5</v>
       </c>
       <c r="W14">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" s="18"/>
       <c r="B15" s="4" t="s">
         <v>226</v>
       </c>
@@ -13609,27 +13598,27 @@
       <c r="D15" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="34"/>
       <c r="F15">
         <v>1.5</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="12">
+        <f t="shared" si="1"/>
+        <v>36.034419999999997</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
         <v>40.5</v>
       </c>
       <c r="W15">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" s="18"/>
       <c r="B16" s="4" t="s">
         <v>227</v>
       </c>
@@ -13639,27 +13628,27 @@
       <c r="D16" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="34"/>
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="12">
+        <f t="shared" si="1"/>
+        <v>34.715449999999997</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
         <v>39.5</v>
       </c>
       <c r="W16">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+    <row r="17" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="19"/>
       <c r="B17" s="7" t="s">
         <v>228</v>
       </c>
@@ -13669,27 +13658,27 @@
       <c r="D17" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="6">
         <v>1</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="12">
+        <f t="shared" si="1"/>
+        <v>33.396479999999997</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6">
         <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="H17" s="6">
-        <v>1</v>
-      </c>
-      <c r="I17" s="6">
-        <f t="shared" si="1"/>
         <v>38.5</v>
       </c>
       <c r="W17">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A18" s="18" t="s">
         <v>250</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -13701,29 +13690,29 @@
       <c r="D18" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="34" t="s">
         <v>145</v>
       </c>
       <c r="F18">
         <v>3</v>
       </c>
-      <c r="G18" s="31">
-        <f t="shared" si="0"/>
-        <v>38</v>
+      <c r="G18" s="12">
+        <f t="shared" si="1"/>
+        <v>32.077509999999997</v>
       </c>
       <c r="H18">
         <v>1.5</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="W18">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A19" s="18"/>
       <c r="B19" s="4" t="s">
         <v>230</v>
       </c>
@@ -13733,27 +13722,27 @@
       <c r="D19" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="34"/>
       <c r="F19">
         <v>1.5</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="12">
+        <f t="shared" si="1"/>
+        <v>30.758539999999996</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="0"/>
-        <v>36.5</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="W19">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A20" s="18"/>
       <c r="B20" s="4" t="s">
         <v>231</v>
       </c>
@@ -13763,27 +13752,27 @@
       <c r="D20" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="34"/>
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="12">
+        <f t="shared" si="1"/>
+        <v>29.439569999999996</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="0"/>
-        <v>35.5</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="W20">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="19"/>
       <c r="B21" s="7" t="s">
         <v>232</v>
       </c>
@@ -13793,27 +13782,27 @@
       <c r="D21" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="6">
         <v>1</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="12">
+        <f t="shared" si="1"/>
+        <v>28.120599999999996</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-      <c r="H21" s="6">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="W21">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A22" s="18" t="s">
         <v>251</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -13825,29 +13814,29 @@
       <c r="D22" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="34" t="s">
         <v>62</v>
       </c>
       <c r="F22">
         <v>3</v>
       </c>
-      <c r="G22" s="31">
-        <f t="shared" si="0"/>
-        <v>31.5</v>
+      <c r="G22" s="12">
+        <f t="shared" si="1"/>
+        <v>26.801629999999996</v>
       </c>
       <c r="H22">
         <v>3</v>
       </c>
-      <c r="I22" s="31">
-        <f t="shared" si="1"/>
+      <c r="I22" s="14">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="W22">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A23" s="18"/>
       <c r="B23" s="4" t="s">
         <v>234</v>
       </c>
@@ -13857,27 +13846,27 @@
       <c r="D23" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="16"/>
+      <c r="E23" s="34"/>
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="12">
+        <f t="shared" si="1"/>
+        <v>25.482659999999996</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="0"/>
-        <v>30.5</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="W23">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A24" s="18"/>
       <c r="B24" s="4" t="s">
         <v>235</v>
       </c>
@@ -13887,27 +13876,27 @@
       <c r="D24" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="16"/>
+      <c r="E24" s="34"/>
       <c r="F24">
         <v>0.5</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>30</v>
+      <c r="G24" s="12">
+        <f t="shared" si="1"/>
+        <v>24.163689999999995</v>
       </c>
       <c r="H24">
         <v>0.5</v>
       </c>
       <c r="I24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>29.5</v>
       </c>
       <c r="W24">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A25" s="18"/>
       <c r="B25" s="4" t="s">
         <v>236</v>
       </c>
@@ -13917,13 +13906,13 @@
       <c r="D25" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="34"/>
       <c r="F25">
         <v>3</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>27</v>
+      <c r="G25" s="12">
+        <f t="shared" si="1"/>
+        <v>22.844719999999995</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -13936,8 +13925,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A26" s="18"/>
       <c r="B26" s="4" t="s">
         <v>237</v>
       </c>
@@ -13947,13 +13936,13 @@
       <c r="D26" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="34"/>
       <c r="F26">
         <v>0.5</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>26.5</v>
+      <c r="G26" s="12">
+        <f t="shared" si="1"/>
+        <v>21.525749999999995</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -13966,8 +13955,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A27" s="18"/>
       <c r="B27" s="4" t="s">
         <v>238</v>
       </c>
@@ -13977,13 +13966,13 @@
       <c r="D27" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="16"/>
+      <c r="E27" s="34"/>
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>25.5</v>
+      <c r="G27" s="12">
+        <f t="shared" si="1"/>
+        <v>20.206779999999995</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -13996,8 +13985,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
+    <row r="28" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="19"/>
       <c r="B28" s="4" t="s">
         <v>239</v>
       </c>
@@ -14007,13 +13996,13 @@
       <c r="D28" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="17"/>
+      <c r="E28" s="22"/>
       <c r="F28" s="6">
         <v>1</v>
       </c>
-      <c r="G28" s="6">
-        <f t="shared" si="0"/>
-        <v>24.5</v>
+      <c r="G28" s="12">
+        <f t="shared" si="1"/>
+        <v>18.887809999999995</v>
       </c>
       <c r="H28" s="6">
         <v>1</v>
@@ -14026,11 +14015,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A29" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C29" t="s">
@@ -14039,20 +14028,20 @@
       <c r="D29" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="20" t="s">
         <v>64</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>23.5</v>
+      <c r="G29" s="12">
+        <f t="shared" si="1"/>
+        <v>17.568839999999994</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
-      <c r="I29" s="31">
+      <c r="I29" s="14">
         <f t="shared" si="2"/>
         <v>21.5</v>
       </c>
@@ -14060,8 +14049,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A30" s="18"/>
       <c r="B30" s="4" t="s">
         <v>241</v>
       </c>
@@ -14071,10 +14060,10 @@
       <c r="D30" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>23.5</v>
+      <c r="E30" s="21"/>
+      <c r="G30" s="12">
+        <f t="shared" si="1"/>
+        <v>16.249869999999994</v>
       </c>
       <c r="I30">
         <f t="shared" si="2"/>
@@ -14084,8 +14073,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A31" s="18"/>
       <c r="B31" s="4" t="s">
         <v>242</v>
       </c>
@@ -14095,13 +14084,13 @@
       <c r="D31" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="18"/>
+      <c r="E31" s="21"/>
       <c r="F31">
         <v>1</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
+      <c r="G31" s="12">
+        <f t="shared" si="1"/>
+        <v>14.930899999999994</v>
       </c>
       <c r="H31">
         <v>0.5</v>
@@ -14114,8 +14103,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
+    <row r="32" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="19"/>
       <c r="B32" s="7" t="s">
         <v>243</v>
       </c>
@@ -14125,13 +14114,13 @@
       <c r="D32" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="17"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="6">
         <v>2</v>
       </c>
-      <c r="G32" s="6">
-        <f t="shared" si="0"/>
-        <v>20.5</v>
+      <c r="G32" s="12">
+        <f t="shared" si="1"/>
+        <v>13.611929999999994</v>
       </c>
       <c r="H32" s="6">
         <v>2.5</v>
@@ -14144,8 +14133,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A33" s="29" t="s">
         <v>292</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -14157,20 +14146,20 @@
       <c r="D33" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="20" t="s">
         <v>145</v>
       </c>
       <c r="F33">
         <v>4</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>16.5</v>
+      <c r="G33" s="12">
+        <f t="shared" si="1"/>
+        <v>12.292959999999994</v>
       </c>
       <c r="H33">
         <v>3</v>
       </c>
-      <c r="I33" s="31">
+      <c r="I33" s="14">
         <f t="shared" si="2"/>
         <v>15.5</v>
       </c>
@@ -14178,8 +14167,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A34" s="29"/>
       <c r="B34" s="4" t="s">
         <v>245</v>
       </c>
@@ -14189,13 +14178,13 @@
       <c r="D34" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="18"/>
+      <c r="E34" s="21"/>
       <c r="F34">
         <v>0.5</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="0"/>
-        <v>16</v>
+      <c r="G34" s="12">
+        <f t="shared" si="1"/>
+        <v>10.973989999999993</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -14208,8 +14197,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A35" s="29"/>
       <c r="B35" s="4" t="s">
         <v>246</v>
       </c>
@@ -14219,13 +14208,13 @@
       <c r="D35" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="18"/>
+      <c r="E35" s="21"/>
       <c r="F35">
         <v>0.5</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="0"/>
-        <v>15.5</v>
+      <c r="G35" s="12">
+        <f t="shared" si="1"/>
+        <v>9.6550199999999933</v>
       </c>
       <c r="H35">
         <v>0.5</v>
@@ -14238,8 +14227,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A36" s="29"/>
       <c r="B36" s="4" t="s">
         <v>247</v>
       </c>
@@ -14249,13 +14238,13 @@
       <c r="D36" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="18"/>
+      <c r="E36" s="21"/>
       <c r="F36">
         <v>0.5</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="0"/>
-        <v>15</v>
+      <c r="G36" s="12">
+        <f t="shared" si="1"/>
+        <v>8.3360499999999931</v>
       </c>
       <c r="H36">
         <v>0.5</v>
@@ -14268,8 +14257,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
+    <row r="37" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="19"/>
       <c r="B37" s="4" t="s">
         <v>248</v>
       </c>
@@ -14279,13 +14268,13 @@
       <c r="D37" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="17"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="6">
         <v>0.5</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="0"/>
-        <v>14.5</v>
+      <c r="G37" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0170799999999929</v>
       </c>
       <c r="H37" s="6">
         <v>0.5</v>
@@ -14298,11 +14287,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A38" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="13" t="s">
         <v>260</v>
       </c>
       <c r="C38" t="s">
@@ -14311,20 +14300,20 @@
       <c r="D38" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="20" t="s">
         <v>61</v>
       </c>
       <c r="F38">
         <v>0.5</v>
       </c>
-      <c r="G38" s="31">
-        <f t="shared" si="0"/>
-        <v>14</v>
+      <c r="G38" s="12">
+        <f t="shared" si="1"/>
+        <v>5.6981099999999927</v>
       </c>
       <c r="H38">
         <v>0.5</v>
       </c>
-      <c r="I38" s="31">
+      <c r="I38" s="14">
         <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
@@ -14332,8 +14321,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A39" s="29"/>
       <c r="B39" s="4" t="s">
         <v>261</v>
       </c>
@@ -14343,13 +14332,13 @@
       <c r="D39" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="18"/>
+      <c r="E39" s="21"/>
       <c r="F39">
         <v>0.5</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="0"/>
-        <v>13.5</v>
+      <c r="G39" s="12">
+        <f t="shared" si="1"/>
+        <v>4.3791399999999925</v>
       </c>
       <c r="H39">
         <v>0.5</v>
@@ -14362,8 +14351,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A40" s="29"/>
       <c r="B40" s="4" t="s">
         <v>262</v>
       </c>
@@ -14373,13 +14362,13 @@
       <c r="D40" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="18"/>
+      <c r="E40" s="21"/>
       <c r="F40">
         <v>0.5</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="0"/>
-        <v>13</v>
+      <c r="G40" s="12">
+        <f t="shared" si="1"/>
+        <v>3.0601699999999923</v>
       </c>
       <c r="H40">
         <v>0.5</v>
@@ -14392,8 +14381,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A41" s="29"/>
       <c r="B41" s="4" t="s">
         <v>263</v>
       </c>
@@ -14403,13 +14392,13 @@
       <c r="D41" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="18"/>
+      <c r="E41" s="21"/>
       <c r="F41">
         <v>1</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="0"/>
-        <v>12</v>
+      <c r="G41" s="12">
+        <f t="shared" si="1"/>
+        <v>1.7411999999999923</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -14422,8 +14411,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A42" s="29"/>
       <c r="B42" s="4" t="s">
         <v>264</v>
       </c>
@@ -14433,13 +14422,13 @@
       <c r="D42" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="18"/>
+      <c r="E42" s="21"/>
       <c r="F42">
         <v>0.5</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="0"/>
-        <v>11.5</v>
+      <c r="G42" s="12">
+        <f t="shared" si="1"/>
+        <v>0.42222999999999233</v>
       </c>
       <c r="H42">
         <v>0.5</v>
@@ -14452,8 +14441,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A43" s="29"/>
       <c r="B43" s="4" t="s">
         <v>265</v>
       </c>
@@ -14463,13 +14452,13 @@
       <c r="D43" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E43" s="18"/>
+      <c r="E43" s="21"/>
       <c r="F43">
         <v>1</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="0"/>
-        <v>10.5</v>
+      <c r="G43" s="12">
+        <f t="shared" si="1"/>
+        <v>-0.89674000000000764</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -14482,8 +14471,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
+    <row r="44" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="19"/>
       <c r="B44" s="7" t="s">
         <v>266</v>
       </c>
@@ -14493,13 +14482,13 @@
       <c r="D44" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="17"/>
+      <c r="E44" s="22"/>
       <c r="F44" s="6">
         <v>2</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
+      <c r="G44" s="12">
+        <f t="shared" si="1"/>
+        <v>-2.2157100000000076</v>
       </c>
       <c r="H44" s="6">
         <v>1.5</v>
@@ -14512,8 +14501,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A45" s="17" t="s">
         <v>294</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -14525,20 +14514,20 @@
       <c r="D45" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="20" t="s">
         <v>65</v>
       </c>
       <c r="F45">
         <v>0.5</v>
       </c>
-      <c r="G45" s="31">
-        <f t="shared" si="0"/>
-        <v>8</v>
+      <c r="G45" s="12">
+        <f t="shared" si="1"/>
+        <v>-3.5346800000000078</v>
       </c>
       <c r="H45">
         <v>0.5</v>
       </c>
-      <c r="I45" s="31">
+      <c r="I45" s="14">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -14546,8 +14535,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A46" s="29"/>
       <c r="B46" s="4" t="s">
         <v>268</v>
       </c>
@@ -14557,13 +14546,13 @@
       <c r="D46" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E46" s="18"/>
+      <c r="E46" s="21"/>
       <c r="F46">
         <v>0.5</v>
       </c>
-      <c r="G46">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
+      <c r="G46" s="12">
+        <f t="shared" si="1"/>
+        <v>-4.853650000000008</v>
       </c>
       <c r="H46">
         <v>0.5</v>
@@ -14576,8 +14565,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A47" s="29"/>
       <c r="B47" s="4" t="s">
         <v>269</v>
       </c>
@@ -14587,13 +14576,13 @@
       <c r="D47" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="18"/>
+      <c r="E47" s="21"/>
       <c r="F47">
         <v>1</v>
       </c>
-      <c r="G47">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
+      <c r="G47" s="12">
+        <f t="shared" si="1"/>
+        <v>-6.1726200000000082</v>
       </c>
       <c r="H47">
         <v>0.5</v>
@@ -14606,8 +14595,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14"/>
+    <row r="48" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="19"/>
       <c r="B48" s="4" t="s">
         <v>270</v>
       </c>
@@ -14617,13 +14606,13 @@
       <c r="D48" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E48" s="17"/>
+      <c r="E48" s="22"/>
       <c r="F48" s="6">
         <v>1</v>
       </c>
-      <c r="G48" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
+      <c r="G48" s="12">
+        <f t="shared" si="1"/>
+        <v>-7.4915900000000084</v>
       </c>
       <c r="H48" s="6">
         <v>1</v>
@@ -14636,11 +14625,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+    <row r="49" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="13" t="s">
         <v>271</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -14649,20 +14638,20 @@
       <c r="D49" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="20" t="s">
         <v>65</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
-      <c r="G49">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
+      <c r="G49" s="12">
+        <f t="shared" si="1"/>
+        <v>-8.8105600000000077</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
-      <c r="I49" s="31">
+      <c r="I49" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -14670,8 +14659,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A50" s="29"/>
       <c r="B50" s="4" t="s">
         <v>272</v>
       </c>
@@ -14681,13 +14670,13 @@
       <c r="D50" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E50" s="18"/>
+      <c r="E50" s="21"/>
       <c r="F50">
         <v>1</v>
       </c>
-      <c r="G50">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
+      <c r="G50" s="12">
+        <f t="shared" si="1"/>
+        <v>-10.129530000000008</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -14700,8 +14689,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A51" s="29"/>
       <c r="B51" s="4" t="s">
         <v>284</v>
       </c>
@@ -14711,13 +14700,13 @@
       <c r="D51" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="18"/>
+      <c r="E51" s="21"/>
       <c r="F51">
         <v>1</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
+      <c r="G51" s="12">
+        <f t="shared" si="1"/>
+        <v>-11.448500000000008</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -14730,8 +14719,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A52" s="29"/>
       <c r="B52" s="4" t="s">
         <v>285</v>
       </c>
@@ -14741,13 +14730,13 @@
       <c r="D52" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="18"/>
+      <c r="E52" s="21"/>
       <c r="F52">
         <v>2</v>
       </c>
-      <c r="G52">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+      <c r="G52" s="12">
+        <f t="shared" si="1"/>
+        <v>-12.767470000000008</v>
       </c>
       <c r="H52">
         <v>1.5</v>
@@ -14760,8 +14749,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
+    <row r="53" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="19"/>
       <c r="B53" s="4" t="s">
         <v>286</v>
       </c>
@@ -14771,13 +14760,13 @@
       <c r="D53" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E53" s="17"/>
+      <c r="E53" s="22"/>
       <c r="F53" s="6">
         <v>0.5</v>
       </c>
-      <c r="G53" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G53" s="12">
+        <f t="shared" si="1"/>
+        <v>-14.086440000000009</v>
       </c>
       <c r="H53" s="6">
         <v>0.5</v>
@@ -14790,18 +14779,98 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="G54" s="12">
+        <f t="shared" si="1"/>
+        <v>-15.405410000000009</v>
+      </c>
       <c r="W54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="G55" s="12">
+        <f t="shared" si="1"/>
+        <v>-16.724380000000007</v>
+      </c>
       <c r="W55">
         <v>0</v>
       </c>
     </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="G56" s="12">
+        <f t="shared" si="1"/>
+        <v>-18.043350000000007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="G57" s="12">
+        <f t="shared" si="1"/>
+        <v>-19.362320000000008</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="G58" s="12">
+        <f t="shared" si="1"/>
+        <v>-20.681290000000008</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="G59" s="12">
+        <f t="shared" si="1"/>
+        <v>-22.000260000000008</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="G60" s="12">
+        <f t="shared" si="1"/>
+        <v>-23.319230000000008</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="G61" s="12">
+        <f t="shared" si="1"/>
+        <v>-24.638200000000008</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="G62" s="12">
+        <f t="shared" si="1"/>
+        <v>-25.957170000000009</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="G63" s="12">
+        <f t="shared" si="1"/>
+        <v>-27.276140000000009</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="G64" s="12">
+        <f t="shared" si="1"/>
+        <v>-28.595110000000009</v>
+      </c>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G65" s="12">
+        <f t="shared" si="1"/>
+        <v>-29.914080000000009</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="E22:E28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="E29:E32"/>
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="E49:E53"/>
     <mergeCell ref="A33:A37"/>
@@ -14810,18 +14879,6 @@
     <mergeCell ref="E38:E44"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="E45:E48"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="E22:E28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="E14:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14830,73 +14887,84 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N120"/>
+  <dimension ref="A2:O120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L148" sqref="L148"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="78" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115:A119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="82.625" customWidth="1"/>
-    <col min="4" max="4" width="6.125" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="21.625" customWidth="1"/>
-    <col min="8" max="9" width="16" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" customWidth="1"/>
+    <col min="3" max="3" width="82.6328125" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.36328125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="21.6328125" customWidth="1"/>
+    <col min="9" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="H2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="I2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="J2" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E3" s="3"/>
-      <c r="F3">
-        <f>SUM(F4:F119)</f>
+      <c r="F3" s="3">
+        <f>G3</f>
         <v>153</v>
       </c>
       <c r="G3">
-        <f>SUM(F4:F119)</f>
+        <f>SUM(G4:G119)</f>
         <v>153</v>
       </c>
       <c r="H3">
-        <f>SUM(H4:H119)</f>
+        <f>SUM(G4:G119)</f>
+        <v>153</v>
+      </c>
+      <c r="I3">
+        <f>SUM(I4:I119)</f>
         <v>131.5</v>
       </c>
-      <c r="I3">
-        <f>H3</f>
+      <c r="J3">
+        <f>I3</f>
         <v>131.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="K3">
+        <f>F3/116</f>
+        <v>1.3189655172413792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
         <v>162</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -14908,29 +14976,33 @@
       <c r="D4" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="12">
+        <f>F3-1.31897</f>
+        <v>151.68102999999999</v>
+      </c>
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="G4">
-        <f>F3-F4</f>
+      <c r="H4">
+        <f>G3-G4</f>
         <v>151</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.5</v>
       </c>
-      <c r="I4">
-        <f>H3-H4</f>
+      <c r="J4">
+        <f>I3-I4</f>
         <v>130</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>83</v>
       </c>
@@ -14940,27 +15012,31 @@
       <c r="D5" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5">
+      <c r="E5" s="23"/>
+      <c r="F5" s="12">
+        <f>F4-1.31897</f>
+        <v>150.36205999999999</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="G5">
-        <f>G4-F5</f>
+      <c r="H5">
+        <f>H4-G5</f>
         <v>149</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
       <c r="I5">
-        <f>I4-H5</f>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f>J4-I5</f>
         <v>129</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
         <v>84</v>
       </c>
@@ -14970,27 +15046,31 @@
       <c r="D6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6">
+      <c r="E6" s="23"/>
+      <c r="F6" s="12">
+        <f t="shared" ref="F6:F69" si="0">F5-1.31897</f>
+        <v>149.04308999999998</v>
+      </c>
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="G6">
-        <f>G5-F6</f>
+      <c r="H6">
+        <f>H5-G6</f>
         <v>146</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3</v>
       </c>
-      <c r="I6">
-        <f>I5-H6</f>
+      <c r="J6">
+        <f>J5-I6</f>
         <v>126</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="18"/>
       <c r="B7" s="4" t="s">
         <v>85</v>
       </c>
@@ -15000,27 +15080,31 @@
       <c r="D7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7">
+      <c r="E7" s="23"/>
+      <c r="F7" s="12">
+        <f t="shared" si="0"/>
+        <v>147.72411999999997</v>
+      </c>
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="G7">
-        <f t="shared" ref="G7:G70" si="0">G6-F7</f>
+      <c r="H7">
+        <f>H6-G7</f>
         <v>144</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
       <c r="I7">
-        <f t="shared" ref="I7:I58" si="1">I6-H7</f>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J58" si="1">J6-I7</f>
         <v>125</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="18"/>
       <c r="B8" s="4" t="s">
         <v>86</v>
       </c>
@@ -15030,27 +15114,31 @@
       <c r="D8" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8">
+      <c r="E8" s="23"/>
+      <c r="F8" s="12">
+        <f t="shared" si="0"/>
+        <v>146.40514999999996</v>
+      </c>
+      <c r="G8">
         <v>0.5</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
+      <c r="H8">
+        <f>H7-G8</f>
         <v>143.5</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.5</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="1"/>
         <v>124.5</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="18"/>
       <c r="B9" s="4" t="s">
         <v>87</v>
       </c>
@@ -15060,27 +15148,31 @@
       <c r="D9" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9">
+      <c r="E9" s="23"/>
+      <c r="F9" s="12">
+        <f t="shared" si="0"/>
+        <v>145.08617999999996</v>
+      </c>
+      <c r="G9">
         <v>1.5</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
+      <c r="H9">
+        <f>H8-G9</f>
         <v>142</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
       <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="1"/>
         <v>123.5</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="18"/>
       <c r="B10" s="4" t="s">
         <v>88</v>
       </c>
@@ -15090,27 +15182,31 @@
       <c r="D10" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10">
-        <v>1</v>
+      <c r="E10" s="23"/>
+      <c r="F10" s="12">
+        <f t="shared" si="0"/>
+        <v>143.76720999999995</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f>H9-G10</f>
         <v>141</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
       <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="1"/>
         <v>122.5</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
         <v>89</v>
       </c>
@@ -15120,27 +15216,31 @@
       <c r="D11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11">
+      <c r="E11" s="23"/>
+      <c r="F11" s="12">
+        <f t="shared" si="0"/>
+        <v>142.44823999999994</v>
+      </c>
+      <c r="G11">
         <v>1.5</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
+      <c r="H11">
+        <f>H10-G11</f>
         <v>139.5</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
       <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="1"/>
         <v>121.5</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="19"/>
       <c r="B12" s="7" t="s">
         <v>90</v>
       </c>
@@ -15150,27 +15250,31 @@
       <c r="D12" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="6">
-        <v>1</v>
+      <c r="E12" s="24"/>
+      <c r="F12" s="12">
+        <f t="shared" si="0"/>
+        <v>141.12926999999993</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <f>H11-G12</f>
         <v>138.5</v>
       </c>
-      <c r="H12" s="6">
-        <v>1</v>
-      </c>
       <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
         <f t="shared" si="1"/>
         <v>120.5</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="25" t="s">
         <v>163</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -15182,29 +15286,33 @@
       <c r="D13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F13">
-        <v>1</v>
+      <c r="F13" s="12">
+        <f t="shared" si="0"/>
+        <v>139.81029999999993</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f>H12-G13</f>
         <v>137.5</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
       <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="1"/>
         <v>119.5</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="25"/>
       <c r="B14" s="4" t="s">
         <v>97</v>
       </c>
@@ -15214,27 +15322,31 @@
       <c r="D14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14">
+      <c r="E14" s="27"/>
+      <c r="F14" s="12">
+        <f t="shared" si="0"/>
+        <v>138.49132999999992</v>
+      </c>
+      <c r="G14">
         <v>2</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
+      <c r="H14">
+        <f>H13-G14</f>
         <v>135.5</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.5</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="O14" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="25"/>
       <c r="B15" s="4" t="s">
         <v>98</v>
       </c>
@@ -15244,27 +15356,31 @@
       <c r="D15" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15">
-        <v>1</v>
+      <c r="E15" s="27"/>
+      <c r="F15" s="12">
+        <f t="shared" si="0"/>
+        <v>137.17235999999991</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f>H14-G15</f>
         <v>134.5</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
       <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="25"/>
       <c r="B16" s="4" t="s">
         <v>99</v>
       </c>
@@ -15274,27 +15390,31 @@
       <c r="D16" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16">
+      <c r="E16" s="27"/>
+      <c r="F16" s="12">
+        <f t="shared" si="0"/>
+        <v>135.85338999999991</v>
+      </c>
+      <c r="G16">
         <v>2</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
+      <c r="H16">
+        <f>H15-G16</f>
         <v>132.5</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>3</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="26"/>
       <c r="B17" s="7" t="s">
         <v>100</v>
       </c>
@@ -15304,27 +15424,31 @@
       <c r="D17" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="6">
-        <v>1</v>
+      <c r="E17" s="28"/>
+      <c r="F17" s="12">
+        <f t="shared" si="0"/>
+        <v>134.5344199999999</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
+        <f>H16-G17</f>
         <v>131.5</v>
       </c>
-      <c r="H17" s="6">
-        <v>1</v>
-      </c>
       <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="17" t="s">
         <v>164</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -15336,29 +15460,33 @@
       <c r="D18" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="12">
+        <f t="shared" si="0"/>
+        <v>133.21544999999989</v>
+      </c>
+      <c r="G18">
         <v>1.5</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
+      <c r="H18">
+        <f>H17-G18</f>
         <v>130</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="O18" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="29"/>
       <c r="B19" s="4" t="s">
         <v>102</v>
       </c>
@@ -15368,27 +15496,31 @@
       <c r="D19" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19">
-        <v>1</v>
+      <c r="E19" s="31"/>
+      <c r="F19" s="12">
+        <f t="shared" si="0"/>
+        <v>131.89647999999988</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f>H18-G19</f>
         <v>129</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.5</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f t="shared" si="1"/>
         <v>110.5</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="O19" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="29"/>
       <c r="B20" s="4" t="s">
         <v>103</v>
       </c>
@@ -15398,27 +15530,31 @@
       <c r="D20" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20">
-        <v>1</v>
+      <c r="E20" s="31"/>
+      <c r="F20" s="12">
+        <f t="shared" si="0"/>
+        <v>130.57750999999988</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f>H19-G20</f>
         <v>128</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
       <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="1"/>
         <v>109.5</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="O20" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="29"/>
       <c r="B21" s="4" t="s">
         <v>104</v>
       </c>
@@ -15428,27 +15564,31 @@
       <c r="D21" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21">
+      <c r="E21" s="31"/>
+      <c r="F21" s="12">
+        <f t="shared" si="0"/>
+        <v>129.25853999999987</v>
+      </c>
+      <c r="G21">
         <v>2</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
+      <c r="H21">
+        <f>H20-G21</f>
         <v>126</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
       <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="1"/>
         <v>108.5</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="O21" s="4" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="29"/>
       <c r="B22" s="4" t="s">
         <v>105</v>
       </c>
@@ -15458,27 +15598,31 @@
       <c r="D22" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22">
+      <c r="E22" s="31"/>
+      <c r="F22" s="12">
+        <f t="shared" si="0"/>
+        <v>127.93956999999988</v>
+      </c>
+      <c r="G22">
         <v>2</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
+      <c r="H22">
+        <f>H21-G22</f>
         <v>124</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
       <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
         <f t="shared" si="1"/>
         <v>107.5</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="O22" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="19"/>
       <c r="B23" s="7" t="s">
         <v>106</v>
       </c>
@@ -15488,27 +15632,31 @@
       <c r="D23" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="6">
-        <v>1</v>
+      <c r="E23" s="32"/>
+      <c r="F23" s="12">
+        <f t="shared" si="0"/>
+        <v>126.62059999999988</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="6">
+        <f>H22-G23</f>
         <v>123</v>
       </c>
-      <c r="H23" s="6">
-        <v>1</v>
-      </c>
-      <c r="I23">
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="1"/>
         <v>106.5</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="O23" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" s="17" t="s">
         <v>165</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -15520,29 +15668,33 @@
       <c r="D24" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F24">
-        <v>1</v>
+      <c r="F24" s="12">
+        <f t="shared" si="0"/>
+        <v>125.30162999999989</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f>H23-G24</f>
         <v>122</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" s="31">
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="14">
         <f t="shared" si="1"/>
         <v>105.5</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="O24" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" s="29"/>
       <c r="B25" s="4" t="s">
         <v>108</v>
       </c>
@@ -15552,27 +15704,31 @@
       <c r="D25" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25">
-        <v>1</v>
+      <c r="E25" s="33"/>
+      <c r="F25" s="12">
+        <f t="shared" si="0"/>
+        <v>123.9826599999999</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f>H24-G25</f>
         <v>121</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
       <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
         <f t="shared" si="1"/>
         <v>104.5</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="O25" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" s="29"/>
       <c r="B26" s="4" t="s">
         <v>109</v>
       </c>
@@ -15582,27 +15738,31 @@
       <c r="D26" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26">
+      <c r="E26" s="33"/>
+      <c r="F26" s="12">
+        <f t="shared" si="0"/>
+        <v>122.6636899999999</v>
+      </c>
+      <c r="G26">
         <v>2</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
+      <c r="H26">
+        <f>H25-G26</f>
         <v>119</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2.5</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="O26" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" s="29"/>
       <c r="B27" s="4" t="s">
         <v>110</v>
       </c>
@@ -15612,27 +15772,31 @@
       <c r="D27" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="29"/>
-      <c r="F27">
+      <c r="E27" s="33"/>
+      <c r="F27" s="12">
+        <f t="shared" si="0"/>
+        <v>121.34471999999991</v>
+      </c>
+      <c r="G27">
         <v>0.5</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
+      <c r="H27">
+        <f>H26-G27</f>
         <v>118.5</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.5</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <f t="shared" si="1"/>
         <v>101.5</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="O27" s="4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
+    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="19"/>
       <c r="B28" s="7" t="s">
         <v>111</v>
       </c>
@@ -15642,27 +15806,31 @@
       <c r="D28" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="28"/>
-      <c r="F28" s="6">
+      <c r="E28" s="32"/>
+      <c r="F28" s="12">
+        <f t="shared" si="0"/>
+        <v>120.02574999999992</v>
+      </c>
+      <c r="G28" s="6">
         <v>2</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
+      <c r="H28">
+        <f>H27-G28</f>
         <v>116.5</v>
       </c>
-      <c r="H28" s="6">
+      <c r="I28" s="6">
         <v>1.5</v>
       </c>
-      <c r="I28" s="6">
+      <c r="J28" s="6">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="O28" s="4" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" s="17" t="s">
         <v>166</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -15674,29 +15842,33 @@
       <c r="D29" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="12">
+        <f t="shared" si="0"/>
+        <v>118.70677999999992</v>
+      </c>
+      <c r="G29">
         <v>1.5</v>
       </c>
-      <c r="G29" s="31">
-        <f t="shared" si="0"/>
+      <c r="H29" s="14">
+        <f>H28-G29</f>
         <v>115</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>2</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="O29" s="4" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" s="29"/>
       <c r="B30" s="4" t="s">
         <v>113</v>
       </c>
@@ -15706,27 +15878,31 @@
       <c r="D30" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30">
-        <v>1</v>
+      <c r="E30" s="31"/>
+      <c r="F30" s="12">
+        <f t="shared" si="0"/>
+        <v>117.38780999999993</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f>H29-G30</f>
         <v>114</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.5</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="O30" s="4" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" s="29"/>
       <c r="B31" s="4" t="s">
         <v>114</v>
       </c>
@@ -15736,27 +15912,31 @@
       <c r="D31" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31">
-        <v>1</v>
+      <c r="E31" s="31"/>
+      <c r="F31" s="12">
+        <f t="shared" si="0"/>
+        <v>116.06883999999994</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <f>H30-G31</f>
         <v>113</v>
       </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
       <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
         <f t="shared" si="1"/>
         <v>96.5</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="O31" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" s="29"/>
       <c r="B32" s="4" t="s">
         <v>115</v>
       </c>
@@ -15766,27 +15946,31 @@
       <c r="D32" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32">
+      <c r="E32" s="31"/>
+      <c r="F32" s="12">
+        <f t="shared" si="0"/>
+        <v>114.74986999999994</v>
+      </c>
+      <c r="G32">
         <v>2</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
+      <c r="H32">
+        <f>H31-G32</f>
         <v>111</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>0</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <f t="shared" si="1"/>
         <v>96.5</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="O32" s="4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" s="29"/>
       <c r="B33" s="4" t="s">
         <v>116</v>
       </c>
@@ -15796,27 +15980,31 @@
       <c r="D33" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33">
+      <c r="E33" s="31"/>
+      <c r="F33" s="12">
+        <f t="shared" si="0"/>
+        <v>113.43089999999995</v>
+      </c>
+      <c r="G33">
         <v>2</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
+      <c r="H33">
+        <f>H32-G33</f>
         <v>109</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>2</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <f t="shared" si="1"/>
         <v>94.5</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="O33" s="4" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" s="29"/>
       <c r="B34" s="4" t="s">
         <v>117</v>
       </c>
@@ -15826,27 +16014,31 @@
       <c r="D34" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="27"/>
-      <c r="F34">
+      <c r="E34" s="31"/>
+      <c r="F34" s="12">
+        <f t="shared" si="0"/>
+        <v>112.11192999999996</v>
+      </c>
+      <c r="G34">
         <v>2</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="0"/>
+      <c r="H34">
+        <f>H33-G34</f>
         <v>107</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.5</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="O34" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
+    <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="19"/>
       <c r="B35" s="7" t="s">
         <v>132</v>
       </c>
@@ -15856,27 +16048,31 @@
       <c r="D35" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="6">
-        <v>1</v>
-      </c>
-      <c r="G35">
+      <c r="E35" s="32"/>
+      <c r="F35" s="12">
         <f t="shared" si="0"/>
+        <v>110.79295999999997</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f>H34-G35</f>
         <v>106</v>
       </c>
-      <c r="H35" s="6">
-        <v>1</v>
-      </c>
-      <c r="I35">
+      <c r="I35" s="6">
+        <v>1</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="N35" s="4" t="s">
+      <c r="O35" s="4" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" s="17" t="s">
         <v>167</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -15888,29 +16084,33 @@
       <c r="D36" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="12">
+        <f t="shared" si="0"/>
+        <v>109.47398999999997</v>
+      </c>
+      <c r="G36">
         <v>1.5</v>
       </c>
-      <c r="G36" s="31">
-        <f t="shared" si="0"/>
+      <c r="H36" s="14">
+        <f>H35-G36</f>
         <v>104.5</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>2</v>
       </c>
-      <c r="I36" s="31">
+      <c r="J36" s="14">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="N36" s="4" t="s">
+      <c r="O36" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" s="29"/>
       <c r="B37" s="4" t="s">
         <v>134</v>
       </c>
@@ -15920,27 +16120,31 @@
       <c r="D37" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37">
+      <c r="E37" s="33"/>
+      <c r="F37" s="12">
+        <f t="shared" si="0"/>
+        <v>108.15501999999998</v>
+      </c>
+      <c r="G37">
         <v>2</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="0"/>
+      <c r="H37">
+        <f>H36-G37</f>
         <v>102.5</v>
       </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
       <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="N37" s="4" t="s">
+      <c r="O37" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" s="29"/>
       <c r="B38" s="4" t="s">
         <v>135</v>
       </c>
@@ -15950,27 +16154,31 @@
       <c r="D38" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38">
+      <c r="E38" s="33"/>
+      <c r="F38" s="12">
+        <f t="shared" si="0"/>
+        <v>106.83604999999999</v>
+      </c>
+      <c r="G38">
         <v>2</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="0"/>
+      <c r="H38">
+        <f>H37-G38</f>
         <v>100.5</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>1.5</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <f t="shared" si="1"/>
         <v>88.5</v>
       </c>
-      <c r="N38" s="4" t="s">
+      <c r="O38" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" s="29"/>
       <c r="B39" s="4" t="s">
         <v>136</v>
       </c>
@@ -15980,27 +16188,31 @@
       <c r="D39" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="29"/>
-      <c r="F39">
+      <c r="E39" s="33"/>
+      <c r="F39" s="12">
+        <f t="shared" si="0"/>
+        <v>105.51707999999999</v>
+      </c>
+      <c r="G39">
         <v>2</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="0"/>
+      <c r="H39">
+        <f>H38-G39</f>
         <v>98.5</v>
       </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
       <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
-      <c r="N39" s="4" t="s">
+      <c r="O39" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" s="29"/>
       <c r="B40" s="4" t="s">
         <v>137</v>
       </c>
@@ -16010,27 +16222,31 @@
       <c r="D40" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40">
+      <c r="E40" s="33"/>
+      <c r="F40" s="12">
+        <f t="shared" si="0"/>
+        <v>104.19811</v>
+      </c>
+      <c r="G40">
         <v>2.5</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="0"/>
+      <c r="H40">
+        <f>H39-G40</f>
         <v>96</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>2.5</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="N40" s="4" t="s">
+      <c r="O40" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
+    <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="19"/>
       <c r="B41" s="7" t="s">
         <v>138</v>
       </c>
@@ -16040,27 +16256,31 @@
       <c r="D41" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="6">
-        <v>1</v>
-      </c>
-      <c r="G41">
+      <c r="E41" s="32"/>
+      <c r="F41" s="12">
         <f t="shared" si="0"/>
+        <v>102.87914000000001</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <f>H40-G41</f>
         <v>95</v>
       </c>
-      <c r="H41" s="6">
-        <v>1</v>
-      </c>
-      <c r="I41">
+      <c r="I41" s="6">
+        <v>1</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="N41" s="4" t="s">
+      <c r="O41" s="4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="17" t="s">
         <v>180</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -16072,29 +16292,33 @@
       <c r="D42" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="12">
+        <f t="shared" si="0"/>
+        <v>101.56017000000001</v>
+      </c>
+      <c r="G42">
         <v>3</v>
       </c>
-      <c r="G42" s="31">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="H42">
+      <c r="H42" s="14">
+        <f>H41-G42</f>
+        <v>92</v>
+      </c>
+      <c r="I42">
         <v>2</v>
       </c>
-      <c r="I42" s="31">
+      <c r="J42" s="14">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="N42" s="4" t="s">
+      <c r="O42" s="4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" s="18"/>
       <c r="B43" s="4" t="s">
         <v>140</v>
       </c>
@@ -16104,27 +16328,31 @@
       <c r="D43" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E43" s="18"/>
-      <c r="F43">
+      <c r="E43" s="21"/>
+      <c r="F43" s="12">
+        <f t="shared" si="0"/>
+        <v>100.24120000000002</v>
+      </c>
+      <c r="G43">
         <v>2</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="0"/>
+      <c r="H43">
+        <f>H42-G43</f>
         <v>90</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>0.5</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <f t="shared" si="1"/>
         <v>81.5</v>
       </c>
-      <c r="N43" s="4" t="s">
+      <c r="O43" s="4" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" s="18"/>
       <c r="B44" s="4" t="s">
         <v>146</v>
       </c>
@@ -16134,27 +16362,31 @@
       <c r="D44" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44">
+      <c r="E44" s="21"/>
+      <c r="F44" s="12">
+        <f t="shared" si="0"/>
+        <v>98.922230000000027</v>
+      </c>
+      <c r="G44">
         <v>2</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="0"/>
+      <c r="H44">
+        <f>H43-G44</f>
         <v>88</v>
       </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
       <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="1"/>
         <v>80.5</v>
       </c>
-      <c r="N44" s="4" t="s">
+      <c r="O44" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45" s="18"/>
       <c r="B45" s="4" t="s">
         <v>147</v>
       </c>
@@ -16164,27 +16396,31 @@
       <c r="D45" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E45" s="18"/>
-      <c r="F45">
+      <c r="E45" s="21"/>
+      <c r="F45" s="12">
+        <f t="shared" si="0"/>
+        <v>97.603260000000034</v>
+      </c>
+      <c r="G45">
         <v>0.5</v>
       </c>
-      <c r="G45">
-        <f t="shared" si="0"/>
+      <c r="H45">
+        <f>H44-G45</f>
         <v>87.5</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>0.5</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="N45" s="4" t="s">
+      <c r="O45" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46" s="18"/>
       <c r="B46" s="4" t="s">
         <v>148</v>
       </c>
@@ -16194,27 +16430,31 @@
       <c r="D46" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E46" s="18"/>
-      <c r="F46">
-        <v>1</v>
+      <c r="E46" s="21"/>
+      <c r="F46" s="12">
+        <f t="shared" si="0"/>
+        <v>96.284290000000041</v>
       </c>
       <c r="G46">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <f>H45-G46</f>
         <v>86.5</v>
       </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
       <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="N46" s="4" t="s">
+      <c r="O46" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A47" s="18"/>
       <c r="B47" s="4" t="s">
         <v>149</v>
       </c>
@@ -16224,27 +16464,31 @@
       <c r="D47" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="18"/>
-      <c r="F47">
-        <v>1</v>
+      <c r="E47" s="21"/>
+      <c r="F47" s="12">
+        <f t="shared" si="0"/>
+        <v>94.965320000000048</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <f>H46-G47</f>
         <v>85.5</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>0.5</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <f t="shared" si="1"/>
         <v>78.5</v>
       </c>
-      <c r="N47" s="4" t="s">
+      <c r="O47" s="4" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A48" s="18"/>
       <c r="B48" s="4" t="s">
         <v>150</v>
       </c>
@@ -16254,27 +16498,31 @@
       <c r="D48" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E48" s="18"/>
-      <c r="F48">
+      <c r="E48" s="21"/>
+      <c r="F48" s="12">
+        <f t="shared" si="0"/>
+        <v>93.646350000000055</v>
+      </c>
+      <c r="G48">
         <v>2</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="0"/>
+      <c r="H48">
+        <f>H47-G48</f>
         <v>83.5</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>1.5</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="N48" s="4" t="s">
+      <c r="O48" s="4" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
+    <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="19"/>
       <c r="B49" s="7" t="s">
         <v>151</v>
       </c>
@@ -16284,27 +16532,31 @@
       <c r="D49" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="6">
-        <v>1</v>
-      </c>
-      <c r="G49">
+      <c r="E49" s="22"/>
+      <c r="F49" s="12">
         <f t="shared" si="0"/>
+        <v>92.327380000000062</v>
+      </c>
+      <c r="G49" s="6">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <f>H48-G49</f>
         <v>82.5</v>
       </c>
-      <c r="H49" s="6">
+      <c r="I49" s="6">
         <v>0.5</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <f t="shared" si="1"/>
         <v>76.5</v>
       </c>
-      <c r="N49" s="4" t="s">
+      <c r="O49" s="4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+    <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="17" t="s">
         <v>168</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -16316,29 +16568,33 @@
       <c r="D50" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="12">
+        <f t="shared" si="0"/>
+        <v>91.008410000000069</v>
+      </c>
+      <c r="G50">
         <v>2</v>
       </c>
-      <c r="G50" s="31">
-        <f t="shared" si="0"/>
+      <c r="H50" s="14">
+        <f>H49-G50</f>
         <v>80.5</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>2</v>
       </c>
-      <c r="I50" s="31">
+      <c r="J50" s="14">
         <f t="shared" si="1"/>
         <v>74.5</v>
       </c>
-      <c r="N50" s="4" t="s">
+      <c r="O50" s="4" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A51" s="18"/>
       <c r="B51" s="4" t="s">
         <v>153</v>
       </c>
@@ -16348,27 +16604,31 @@
       <c r="D51" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="18"/>
-      <c r="F51">
+      <c r="E51" s="21"/>
+      <c r="F51" s="12">
+        <f t="shared" si="0"/>
+        <v>89.689440000000076</v>
+      </c>
+      <c r="G51">
         <v>2</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="0"/>
+      <c r="H51">
+        <f>H50-G51</f>
         <v>78.5</v>
       </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
       <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
         <f t="shared" si="1"/>
         <v>73.5</v>
       </c>
-      <c r="N51" s="4" t="s">
+      <c r="O51" s="4" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A52" s="18"/>
       <c r="B52" s="4" t="s">
         <v>154</v>
       </c>
@@ -16378,27 +16638,31 @@
       <c r="D52" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="18"/>
-      <c r="F52">
+      <c r="E52" s="21"/>
+      <c r="F52" s="12">
+        <f t="shared" si="0"/>
+        <v>88.370470000000083</v>
+      </c>
+      <c r="G52">
         <v>0.5</v>
       </c>
-      <c r="G52">
-        <f t="shared" si="0"/>
+      <c r="H52">
+        <f>H51-G52</f>
         <v>78</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>0.5</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="N52" s="4" t="s">
+      <c r="O52" s="4" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A53" s="18"/>
       <c r="B53" s="4" t="s">
         <v>155</v>
       </c>
@@ -16408,27 +16672,31 @@
       <c r="D53" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E53" s="18"/>
-      <c r="F53">
+      <c r="E53" s="21"/>
+      <c r="F53" s="12">
+        <f t="shared" si="0"/>
+        <v>87.05150000000009</v>
+      </c>
+      <c r="G53">
         <v>2</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="0"/>
+      <c r="H53">
+        <f>H52-G53</f>
         <v>76</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>2</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="N53" s="4" t="s">
+      <c r="O53" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A54" s="18"/>
       <c r="B54" s="4" t="s">
         <v>156</v>
       </c>
@@ -16438,27 +16706,31 @@
       <c r="D54" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E54" s="18"/>
-      <c r="F54">
-        <v>1</v>
+      <c r="E54" s="21"/>
+      <c r="F54" s="12">
+        <f t="shared" si="0"/>
+        <v>85.732530000000096</v>
       </c>
       <c r="G54">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <f>H53-G54</f>
         <v>75</v>
       </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
       <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="N54" s="4" t="s">
+      <c r="O54" s="4" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A55" s="18"/>
       <c r="B55" s="4" t="s">
         <v>157</v>
       </c>
@@ -16468,27 +16740,31 @@
       <c r="D55" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E55" s="18"/>
-      <c r="F55">
+      <c r="E55" s="21"/>
+      <c r="F55" s="12">
+        <f t="shared" si="0"/>
+        <v>84.413560000000103</v>
+      </c>
+      <c r="G55">
         <v>0.5</v>
       </c>
-      <c r="G55">
-        <f t="shared" si="0"/>
+      <c r="H55">
+        <f>H54-G55</f>
         <v>74.5</v>
       </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
       <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="N55" s="4" t="s">
+      <c r="O55" s="4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
+    <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="19"/>
       <c r="B56" s="7" t="s">
         <v>158</v>
       </c>
@@ -16498,27 +16774,31 @@
       <c r="D56" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E56" s="17"/>
-      <c r="F56" s="6">
-        <v>1</v>
+      <c r="E56" s="22"/>
+      <c r="F56" s="12">
+        <f t="shared" si="0"/>
+        <v>83.09459000000011</v>
       </c>
       <c r="G56" s="6">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H56" s="6">
+        <f>H55-G56</f>
         <v>73.5</v>
       </c>
-      <c r="H56" s="6">
-        <v>1</v>
-      </c>
-      <c r="I56">
+      <c r="I56" s="6">
+        <v>1</v>
+      </c>
+      <c r="J56">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="N56" s="4" t="s">
+      <c r="O56" s="4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A57" s="17" t="s">
         <v>181</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -16530,29 +16810,33 @@
       <c r="D57" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="12">
+        <f t="shared" si="0"/>
+        <v>81.775620000000117</v>
+      </c>
+      <c r="G57">
         <v>2</v>
       </c>
-      <c r="G57">
-        <f t="shared" si="0"/>
+      <c r="H57">
+        <f>H56-G57</f>
         <v>71.5</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>1.5</v>
       </c>
-      <c r="I57" s="31">
+      <c r="J57" s="14">
         <f t="shared" si="1"/>
         <v>66.5</v>
       </c>
-      <c r="N57" s="4" t="s">
+      <c r="O57" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A58" s="18"/>
       <c r="B58" s="4" t="s">
         <v>160</v>
       </c>
@@ -16562,27 +16846,31 @@
       <c r="D58" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E58" s="18"/>
-      <c r="F58">
-        <v>1</v>
+      <c r="E58" s="21"/>
+      <c r="F58" s="12">
+        <f t="shared" si="0"/>
+        <v>80.456650000000124</v>
       </c>
       <c r="G58">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <f>H57-G58</f>
         <v>70.5</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>0.5</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="N58" s="4" t="s">
+      <c r="O58" s="4" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A59" s="18"/>
       <c r="B59" s="4" t="s">
         <v>161</v>
       </c>
@@ -16592,27 +16880,31 @@
       <c r="D59" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E59" s="18"/>
-      <c r="F59">
+      <c r="E59" s="21"/>
+      <c r="F59" s="12">
+        <f t="shared" si="0"/>
+        <v>79.137680000000131</v>
+      </c>
+      <c r="G59">
         <v>0.5</v>
       </c>
-      <c r="G59">
-        <f t="shared" si="0"/>
+      <c r="H59">
+        <f>H58-G59</f>
         <v>70</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>0.5</v>
       </c>
-      <c r="I59">
-        <f>I58-H59</f>
+      <c r="J59">
+        <f>J58-I59</f>
         <v>65.5</v>
       </c>
-      <c r="N59" s="4" t="s">
+      <c r="O59" s="4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A60" s="18"/>
       <c r="B60" s="4" t="s">
         <v>186</v>
       </c>
@@ -16622,27 +16914,31 @@
       <c r="D60" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E60" s="18"/>
-      <c r="F60">
-        <v>1</v>
+      <c r="E60" s="21"/>
+      <c r="F60" s="12">
+        <f t="shared" si="0"/>
+        <v>77.818710000000138</v>
       </c>
       <c r="G60">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <f>H59-G60</f>
         <v>69</v>
       </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
       <c r="I60">
-        <f>I59-H60</f>
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <f>J59-I60</f>
         <v>64.5</v>
       </c>
-      <c r="N60" s="4" t="s">
+      <c r="O60" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A61" s="18"/>
       <c r="B61" s="4" t="s">
         <v>187</v>
       </c>
@@ -16652,27 +16948,31 @@
       <c r="D61" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E61" s="18"/>
-      <c r="F61">
+      <c r="E61" s="21"/>
+      <c r="F61" s="12">
+        <f t="shared" si="0"/>
+        <v>76.499740000000145</v>
+      </c>
+      <c r="G61">
         <v>0.5</v>
       </c>
-      <c r="G61">
-        <f t="shared" si="0"/>
+      <c r="H61">
+        <f>H60-G61</f>
         <v>68.5</v>
       </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
       <c r="I61">
-        <f t="shared" ref="I61:I90" si="2">I60-H61</f>
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <f t="shared" ref="J61:J90" si="2">J60-I61</f>
         <v>63.5</v>
       </c>
-      <c r="N61" s="4" t="s">
+      <c r="O61" s="4" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="14"/>
+    <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="19"/>
       <c r="B62" s="7" t="s">
         <v>188</v>
       </c>
@@ -16682,27 +16982,31 @@
       <c r="D62" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E62" s="17"/>
-      <c r="F62" s="6">
-        <v>1</v>
-      </c>
-      <c r="G62">
+      <c r="E62" s="22"/>
+      <c r="F62" s="12">
         <f t="shared" si="0"/>
+        <v>75.180770000000152</v>
+      </c>
+      <c r="G62" s="6">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <f>H61-G62</f>
         <v>67.5</v>
       </c>
-      <c r="H62" s="6">
-        <v>1</v>
-      </c>
       <c r="I62" s="6">
+        <v>1</v>
+      </c>
+      <c r="J62" s="6">
         <f t="shared" si="2"/>
         <v>62.5</v>
       </c>
-      <c r="N62" s="4" t="s">
+      <c r="O62" s="4" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
+    <row r="63" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="17" t="s">
         <v>205</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -16714,29 +17018,33 @@
       <c r="D63" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E63" s="15" t="s">
+      <c r="E63" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="12">
+        <f t="shared" si="0"/>
+        <v>73.861800000000159</v>
+      </c>
+      <c r="G63">
         <v>2</v>
       </c>
-      <c r="G63" s="31">
-        <f t="shared" si="0"/>
+      <c r="H63" s="14">
+        <f>H62-G63</f>
         <v>65.5</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>0.5</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="N63" s="4" t="s">
+      <c r="O63" s="4" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A64" s="18"/>
       <c r="B64" s="4" t="s">
         <v>190</v>
       </c>
@@ -16746,27 +17054,31 @@
       <c r="D64" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E64" s="18"/>
-      <c r="F64">
-        <v>1</v>
+      <c r="E64" s="21"/>
+      <c r="F64" s="12">
+        <f t="shared" si="0"/>
+        <v>72.542830000000166</v>
       </c>
       <c r="G64">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <f>H63-G64</f>
         <v>64.5</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>0.5</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <f t="shared" si="2"/>
         <v>61.5</v>
       </c>
-      <c r="N64" s="4" t="s">
+      <c r="O64" s="4" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A65" s="18"/>
       <c r="B65" s="4" t="s">
         <v>191</v>
       </c>
@@ -16776,27 +17088,31 @@
       <c r="D65" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E65" s="18"/>
-      <c r="F65">
+      <c r="E65" s="21"/>
+      <c r="F65" s="12">
+        <f t="shared" si="0"/>
+        <v>71.223860000000172</v>
+      </c>
+      <c r="G65">
         <v>2</v>
       </c>
-      <c r="G65">
-        <f t="shared" si="0"/>
+      <c r="H65">
+        <f>H64-G65</f>
         <v>62.5</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>6</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <f t="shared" si="2"/>
         <v>55.5</v>
       </c>
-      <c r="N65" s="4" t="s">
+      <c r="O65" s="4" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A66" s="18"/>
       <c r="B66" s="4" t="s">
         <v>192</v>
       </c>
@@ -16806,27 +17122,31 @@
       <c r="D66" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E66" s="18"/>
-      <c r="F66">
+      <c r="E66" s="21"/>
+      <c r="F66" s="12">
+        <f t="shared" si="0"/>
+        <v>69.904890000000179</v>
+      </c>
+      <c r="G66">
         <v>0.5</v>
       </c>
-      <c r="G66">
-        <f t="shared" si="0"/>
+      <c r="H66">
+        <f>H65-G66</f>
         <v>62</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>0.5</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="N66" s="4" t="s">
+      <c r="O66" s="4" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="14"/>
+    <row r="67" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="19"/>
       <c r="B67" s="7" t="s">
         <v>193</v>
       </c>
@@ -16836,27 +17156,31 @@
       <c r="D67" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E67" s="17"/>
-      <c r="F67" s="6">
-        <v>1</v>
+      <c r="E67" s="22"/>
+      <c r="F67" s="12">
+        <f t="shared" si="0"/>
+        <v>68.585920000000186</v>
       </c>
       <c r="G67" s="6">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H67" s="6">
+        <f>H66-G67</f>
         <v>61</v>
       </c>
-      <c r="H67" s="6">
+      <c r="I67" s="6">
         <v>0.5</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <f t="shared" si="2"/>
         <v>54.5</v>
       </c>
-      <c r="N67" s="4" t="s">
+      <c r="O67" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A68" s="17" t="s">
         <v>210</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -16868,29 +17192,33 @@
       <c r="D68" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E68" s="15" t="s">
+      <c r="E68" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F68">
-        <v>1</v>
+      <c r="F68" s="12">
+        <f t="shared" si="0"/>
+        <v>67.266950000000193</v>
       </c>
       <c r="G68">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <f>H67-G68</f>
         <v>60</v>
       </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-      <c r="I68" s="31">
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68" s="14">
         <f t="shared" si="2"/>
         <v>53.5</v>
       </c>
-      <c r="N68" s="4" t="s">
+      <c r="O68" s="4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A69" s="18"/>
       <c r="B69" s="4" t="s">
         <v>195</v>
       </c>
@@ -16900,27 +17228,31 @@
       <c r="D69" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E69" s="16"/>
-      <c r="F69">
+      <c r="E69" s="34"/>
+      <c r="F69" s="12">
+        <f t="shared" si="0"/>
+        <v>65.9479800000002</v>
+      </c>
+      <c r="G69">
         <v>1.5</v>
       </c>
-      <c r="G69">
-        <f t="shared" si="0"/>
+      <c r="H69">
+        <f>H68-G69</f>
         <v>58.5</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>1.5</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="N69" s="4" t="s">
+      <c r="O69" s="4" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A70" s="18"/>
       <c r="B70" s="4" t="s">
         <v>196</v>
       </c>
@@ -16930,27 +17262,31 @@
       <c r="D70" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E70" s="16"/>
-      <c r="F70">
+      <c r="E70" s="34"/>
+      <c r="F70" s="12">
+        <f t="shared" ref="F70:F119" si="3">F69-1.31897</f>
+        <v>64.629010000000207</v>
+      </c>
+      <c r="G70">
         <v>0.5</v>
       </c>
-      <c r="G70">
-        <f t="shared" si="0"/>
+      <c r="H70">
+        <f>H69-G70</f>
         <v>58</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>0.5</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <f t="shared" si="2"/>
         <v>51.5</v>
       </c>
-      <c r="N70" s="4" t="s">
+      <c r="O70" s="4" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A71" s="18"/>
       <c r="B71" s="4" t="s">
         <v>197</v>
       </c>
@@ -16960,27 +17296,31 @@
       <c r="D71" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="16"/>
-      <c r="F71">
+      <c r="E71" s="34"/>
+      <c r="F71" s="12">
+        <f t="shared" si="3"/>
+        <v>63.310040000000207</v>
+      </c>
+      <c r="G71">
         <v>0.5</v>
       </c>
-      <c r="G71">
-        <f t="shared" ref="G71:G119" si="3">G70-F71</f>
+      <c r="H71">
+        <f>H70-G71</f>
         <v>57.5</v>
       </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
       <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
         <f t="shared" si="2"/>
         <v>50.5</v>
       </c>
-      <c r="N71" s="4" t="s">
+      <c r="O71" s="4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A72" s="18"/>
       <c r="B72" s="4" t="s">
         <v>198</v>
       </c>
@@ -16990,27 +17330,31 @@
       <c r="D72" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E72" s="16"/>
-      <c r="F72">
-        <v>1</v>
+      <c r="E72" s="34"/>
+      <c r="F72" s="12">
+        <f t="shared" si="3"/>
+        <v>61.991070000000207</v>
       </c>
       <c r="G72">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <f>H71-G72</f>
         <v>56.5</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>0.5</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="N72" s="4" t="s">
+      <c r="O72" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A73" s="18"/>
       <c r="B73" s="4" t="s">
         <v>199</v>
       </c>
@@ -17020,27 +17364,31 @@
       <c r="D73" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E73" s="16"/>
-      <c r="F73">
-        <v>1</v>
+      <c r="E73" s="34"/>
+      <c r="F73" s="12">
+        <f t="shared" si="3"/>
+        <v>60.672100000000206</v>
       </c>
       <c r="G73">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <f>H72-G73</f>
         <v>55.5</v>
       </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
       <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="N73" s="4" t="s">
+      <c r="O73" s="4" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="14"/>
+    <row r="74" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="19"/>
       <c r="B74" s="7" t="s">
         <v>200</v>
       </c>
@@ -17050,27 +17398,31 @@
       <c r="D74" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E74" s="17"/>
-      <c r="F74" s="6">
+      <c r="E74" s="22"/>
+      <c r="F74" s="12">
+        <f t="shared" si="3"/>
+        <v>59.353130000000206</v>
+      </c>
+      <c r="G74" s="6">
         <v>0.5</v>
       </c>
-      <c r="G74" s="6">
-        <f t="shared" si="3"/>
+      <c r="H74" s="6">
+        <f>H73-G74</f>
         <v>55</v>
       </c>
-      <c r="H74" s="6">
+      <c r="I74" s="6">
         <v>0.5</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <f t="shared" si="2"/>
         <v>48.5</v>
       </c>
-      <c r="N74" s="4" t="s">
+      <c r="O74" s="4" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A75" s="17" t="s">
         <v>216</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -17082,29 +17434,33 @@
       <c r="D75" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E75" s="15" t="s">
+      <c r="E75" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="12">
+        <f t="shared" si="3"/>
+        <v>58.034160000000206</v>
+      </c>
+      <c r="G75">
         <v>2</v>
       </c>
-      <c r="G75">
-        <f t="shared" si="3"/>
+      <c r="H75">
+        <f>H74-G75</f>
         <v>53</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>2</v>
       </c>
-      <c r="I75" s="31">
+      <c r="J75" s="14">
         <f t="shared" si="2"/>
         <v>46.5</v>
       </c>
-      <c r="N75" s="4" t="s">
+      <c r="O75" s="4" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A76" s="18"/>
       <c r="B76" s="4" t="s">
         <v>202</v>
       </c>
@@ -17114,27 +17470,31 @@
       <c r="D76" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E76" s="16"/>
-      <c r="F76">
+      <c r="E76" s="34"/>
+      <c r="F76" s="12">
+        <f t="shared" si="3"/>
+        <v>56.715190000000206</v>
+      </c>
+      <c r="G76">
         <v>2</v>
       </c>
-      <c r="G76">
-        <f t="shared" si="3"/>
+      <c r="H76">
+        <f>H75-G76</f>
         <v>51</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>1.5</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="N76" s="4" t="s">
+      <c r="O76" s="4" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A77" s="18"/>
       <c r="B77" s="4" t="s">
         <v>203</v>
       </c>
@@ -17144,27 +17504,31 @@
       <c r="D77" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E77" s="16"/>
-      <c r="F77">
+      <c r="E77" s="34"/>
+      <c r="F77" s="12">
+        <f t="shared" si="3"/>
+        <v>55.396220000000206</v>
+      </c>
+      <c r="G77">
         <v>1.5</v>
       </c>
-      <c r="G77">
-        <f t="shared" si="3"/>
+      <c r="H77">
+        <f>H76-G77</f>
         <v>49.5</v>
       </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
       <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="N77" s="4" t="s">
+      <c r="O77" s="4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A78" s="18"/>
       <c r="B78" s="4" t="s">
         <v>204</v>
       </c>
@@ -17174,27 +17538,31 @@
       <c r="D78" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E78" s="16"/>
-      <c r="F78">
-        <v>1</v>
+      <c r="E78" s="34"/>
+      <c r="F78" s="12">
+        <f t="shared" si="3"/>
+        <v>54.077250000000205</v>
       </c>
       <c r="G78">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <f>H77-G78</f>
         <v>48.5</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>0.5</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <f t="shared" si="2"/>
         <v>43.5</v>
       </c>
-      <c r="N78" s="4" t="s">
+      <c r="O78" s="4" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="14"/>
+    <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="19"/>
       <c r="B79" s="7" t="s">
         <v>220</v>
       </c>
@@ -17204,27 +17572,31 @@
       <c r="D79" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E79" s="17"/>
-      <c r="F79" s="6">
-        <v>1</v>
+      <c r="E79" s="22"/>
+      <c r="F79" s="12">
+        <f t="shared" si="3"/>
+        <v>52.758280000000205</v>
       </c>
       <c r="G79" s="6">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H79" s="6">
+        <f>H78-G79</f>
         <v>47.5</v>
       </c>
-      <c r="H79" s="6">
+      <c r="I79" s="6">
         <v>0.5</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="N79" s="4" t="s">
+      <c r="O79" s="4" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A80" s="17" t="s">
         <v>221</v>
       </c>
       <c r="B80" s="4" t="s">
@@ -17236,29 +17608,33 @@
       <c r="D80" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E80" s="15" t="s">
+      <c r="E80" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="12">
+        <f t="shared" si="3"/>
+        <v>51.439310000000205</v>
+      </c>
+      <c r="G80">
         <v>3</v>
       </c>
-      <c r="G80">
-        <f t="shared" si="3"/>
+      <c r="H80">
+        <f>H79-G80</f>
         <v>44.5</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>1.5</v>
       </c>
-      <c r="I80" s="31">
+      <c r="J80" s="14">
         <f t="shared" si="2"/>
         <v>41.5</v>
       </c>
-      <c r="N80" s="4" t="s">
+      <c r="O80" s="4" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A81" s="18"/>
       <c r="B81" s="4" t="s">
         <v>226</v>
       </c>
@@ -17268,27 +17644,31 @@
       <c r="D81" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E81" s="16"/>
-      <c r="F81">
+      <c r="E81" s="34"/>
+      <c r="F81" s="12">
+        <f t="shared" si="3"/>
+        <v>50.120340000000205</v>
+      </c>
+      <c r="G81">
         <v>1.5</v>
       </c>
-      <c r="G81">
-        <f t="shared" si="3"/>
+      <c r="H81">
+        <f>H80-G81</f>
         <v>43</v>
       </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
       <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
         <f t="shared" si="2"/>
         <v>40.5</v>
       </c>
-      <c r="N81" s="4" t="s">
+      <c r="O81" s="4" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A82" s="18"/>
       <c r="B82" s="4" t="s">
         <v>227</v>
       </c>
@@ -17298,27 +17678,31 @@
       <c r="D82" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E82" s="16"/>
-      <c r="F82">
-        <v>1</v>
+      <c r="E82" s="34"/>
+      <c r="F82" s="12">
+        <f t="shared" si="3"/>
+        <v>48.801370000000205</v>
       </c>
       <c r="G82">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <f>H81-G82</f>
         <v>42</v>
       </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
       <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
         <f t="shared" si="2"/>
         <v>39.5</v>
       </c>
-      <c r="N82" s="4" t="s">
+      <c r="O82" s="4" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="14"/>
+    <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="19"/>
       <c r="B83" s="7" t="s">
         <v>228</v>
       </c>
@@ -17328,27 +17712,31 @@
       <c r="D83" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E83" s="17"/>
-      <c r="F83" s="6">
-        <v>1</v>
-      </c>
-      <c r="G83">
+      <c r="E83" s="22"/>
+      <c r="F83" s="12">
         <f t="shared" si="3"/>
+        <v>47.482400000000204</v>
+      </c>
+      <c r="G83" s="6">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <f>H82-G83</f>
         <v>41</v>
       </c>
-      <c r="H83" s="6">
-        <v>1</v>
-      </c>
       <c r="I83" s="6">
+        <v>1</v>
+      </c>
+      <c r="J83" s="6">
         <f t="shared" si="2"/>
         <v>38.5</v>
       </c>
-      <c r="N83" s="4" t="s">
+      <c r="O83" s="4" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A84" s="18" t="s">
         <v>250</v>
       </c>
       <c r="B84" s="4" t="s">
@@ -17360,29 +17748,33 @@
       <c r="D84" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="12">
+        <f t="shared" si="3"/>
+        <v>46.163430000000204</v>
+      </c>
+      <c r="G84">
         <v>3</v>
       </c>
-      <c r="G84" s="31">
-        <f t="shared" si="3"/>
+      <c r="H84" s="14">
+        <f>H83-G84</f>
         <v>38</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>1.5</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="N84" s="4" t="s">
+      <c r="O84" s="4" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="13"/>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A85" s="18"/>
       <c r="B85" s="4" t="s">
         <v>230</v>
       </c>
@@ -17392,27 +17784,31 @@
       <c r="D85" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E85" s="16"/>
-      <c r="F85">
+      <c r="E85" s="34"/>
+      <c r="F85" s="12">
+        <f t="shared" si="3"/>
+        <v>44.844460000000204</v>
+      </c>
+      <c r="G85">
         <v>1.5</v>
       </c>
-      <c r="G85">
-        <f t="shared" si="3"/>
+      <c r="H85">
+        <f>H84-G85</f>
         <v>36.5</v>
       </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
       <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="N85" s="4" t="s">
+      <c r="O85" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="13"/>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A86" s="18"/>
       <c r="B86" s="4" t="s">
         <v>231</v>
       </c>
@@ -17422,27 +17818,31 @@
       <c r="D86" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E86" s="16"/>
-      <c r="F86">
-        <v>1</v>
+      <c r="E86" s="34"/>
+      <c r="F86" s="12">
+        <f t="shared" si="3"/>
+        <v>43.525490000000204</v>
       </c>
       <c r="G86">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <f>H85-G86</f>
         <v>35.5</v>
       </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
       <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="N86" s="4" t="s">
+      <c r="O86" s="4" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="14"/>
+    <row r="87" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="19"/>
       <c r="B87" s="7" t="s">
         <v>232</v>
       </c>
@@ -17452,28 +17852,32 @@
       <c r="D87" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E87" s="17"/>
-      <c r="F87" s="6">
-        <v>1</v>
-      </c>
-      <c r="G87">
+      <c r="E87" s="22"/>
+      <c r="F87" s="12">
         <f t="shared" si="3"/>
+        <v>42.206520000000204</v>
+      </c>
+      <c r="G87" s="6">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <f>H86-G87</f>
         <v>34.5</v>
       </c>
-      <c r="H87" s="6">
-        <v>1</v>
-      </c>
-      <c r="I87">
+      <c r="I87" s="6">
+        <v>1</v>
+      </c>
+      <c r="J87">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="N87" s="4" t="s">
+      <c r="O87" s="4" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
-        <v>251</v>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A88" s="18" t="s">
+        <v>398</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>233</v>
@@ -17484,29 +17888,33 @@
       <c r="D88" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="12">
+        <f t="shared" si="3"/>
+        <v>40.887550000000203</v>
+      </c>
+      <c r="G88">
         <v>3</v>
       </c>
-      <c r="G88" s="31">
-        <f t="shared" si="3"/>
+      <c r="H88" s="14">
+        <f>H87-G88</f>
         <v>31.5</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>3</v>
       </c>
-      <c r="I88" s="31">
+      <c r="J88" s="14">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="N88" s="4" t="s">
+      <c r="O88" s="4" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A89" s="18"/>
       <c r="B89" s="4" t="s">
         <v>234</v>
       </c>
@@ -17516,27 +17924,31 @@
       <c r="D89" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E89" s="16"/>
-      <c r="F89">
-        <v>1</v>
+      <c r="E89" s="34"/>
+      <c r="F89" s="12">
+        <f t="shared" si="3"/>
+        <v>39.568580000000203</v>
       </c>
       <c r="G89">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <f>H88-G89</f>
         <v>30.5</v>
       </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
       <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="N89" s="4" t="s">
+      <c r="O89" s="4" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="13"/>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A90" s="18"/>
       <c r="B90" s="4" t="s">
         <v>235</v>
       </c>
@@ -17546,150 +17958,170 @@
       <c r="D90" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E90" s="16"/>
-      <c r="F90">
+      <c r="E90" s="34"/>
+      <c r="F90" s="12">
+        <f t="shared" si="3"/>
+        <v>38.249610000000203</v>
+      </c>
+      <c r="G90">
         <v>0.5</v>
       </c>
-      <c r="G90">
-        <f t="shared" si="3"/>
+      <c r="H90">
+        <f>H89-G90</f>
         <v>30</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>0.5</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <f t="shared" si="2"/>
         <v>29.5</v>
       </c>
-      <c r="N90" s="4" t="s">
+      <c r="O90" s="4" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="13"/>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A91" s="18"/>
       <c r="B91" s="4" t="s">
         <v>236</v>
       </c>
       <c r="C91" t="s">
         <v>254</v>
       </c>
-      <c r="D91" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E91" s="16"/>
-      <c r="F91">
+      <c r="D91" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="E91" s="34"/>
+      <c r="F91" s="12">
+        <f t="shared" si="3"/>
+        <v>36.930640000000203</v>
+      </c>
+      <c r="G91">
         <v>3</v>
       </c>
-      <c r="G91">
-        <f t="shared" si="3"/>
+      <c r="H91">
+        <f>H90-G91</f>
         <v>27</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>4</v>
       </c>
-      <c r="I91">
-        <f>I90-H91</f>
+      <c r="J91">
+        <f>J90-I91</f>
         <v>25.5</v>
       </c>
-      <c r="N91" s="4" t="s">
+      <c r="O91" s="4" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="13"/>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A92" s="18"/>
       <c r="B92" s="4" t="s">
         <v>237</v>
       </c>
       <c r="C92" t="s">
         <v>255</v>
       </c>
-      <c r="D92" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E92" s="16"/>
-      <c r="F92">
+      <c r="D92" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="E92" s="34"/>
+      <c r="F92" s="12">
+        <f t="shared" si="3"/>
+        <v>35.611670000000203</v>
+      </c>
+      <c r="G92">
         <v>0.5</v>
       </c>
-      <c r="G92">
-        <f t="shared" si="3"/>
+      <c r="H92">
+        <f>H91-G92</f>
         <v>26.5</v>
       </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
       <c r="I92">
-        <f>I91-H92</f>
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <f>J91-I92</f>
         <v>24.5</v>
       </c>
-      <c r="N92" s="4" t="s">
+      <c r="O92" s="4" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="13"/>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A93" s="18"/>
       <c r="B93" s="4" t="s">
         <v>238</v>
       </c>
       <c r="C93" t="s">
         <v>256</v>
       </c>
-      <c r="D93" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E93" s="16"/>
-      <c r="F93">
-        <v>1</v>
+      <c r="D93" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="E93" s="34"/>
+      <c r="F93" s="12">
+        <f t="shared" si="3"/>
+        <v>34.292700000000202</v>
       </c>
       <c r="G93">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <f>H92-G93</f>
         <v>25.5</v>
       </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
       <c r="I93">
-        <f t="shared" ref="I93:I119" si="4">I92-H93</f>
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <f t="shared" ref="J93:J119" si="4">J92-I93</f>
         <v>23.5</v>
       </c>
-      <c r="N93" s="4" t="s">
+      <c r="O93" s="4" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="14"/>
+    <row r="94" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="19"/>
       <c r="B94" s="4" t="s">
         <v>239</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D94" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E94" s="17"/>
-      <c r="F94" s="6">
-        <v>1</v>
+      <c r="D94" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="E94" s="22"/>
+      <c r="F94" s="12">
+        <f t="shared" si="3"/>
+        <v>32.973730000000202</v>
       </c>
       <c r="G94" s="6">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H94" s="6">
+        <f>H93-G94</f>
         <v>24.5</v>
       </c>
-      <c r="H94" s="6">
-        <v>1</v>
-      </c>
-      <c r="I94">
+      <c r="I94" s="6">
+        <v>1</v>
+      </c>
+      <c r="J94">
         <f t="shared" si="4"/>
         <v>22.5</v>
       </c>
-      <c r="N94" s="4" t="s">
+      <c r="O94" s="4" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A95" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="B95" s="30" t="s">
+      <c r="B95" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C95" t="s">
@@ -17698,29 +18130,33 @@
       <c r="D95" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E95" s="15" t="s">
+      <c r="E95" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F95">
-        <v>1</v>
+      <c r="F95" s="12">
+        <f t="shared" si="3"/>
+        <v>31.654760000000202</v>
       </c>
       <c r="G95">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <f>H94-G95</f>
         <v>23.5</v>
       </c>
-      <c r="H95">
-        <v>1</v>
-      </c>
-      <c r="I95" s="31">
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95" s="14">
         <f t="shared" si="4"/>
         <v>21.5</v>
       </c>
-      <c r="N95" s="4" t="s">
+      <c r="O95" s="4" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="13"/>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A96" s="18"/>
       <c r="B96" s="4" t="s">
         <v>241</v>
       </c>
@@ -17730,21 +18166,25 @@
       <c r="D96" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E96" s="18"/>
-      <c r="G96">
+      <c r="E96" s="21"/>
+      <c r="F96" s="12">
         <f t="shared" si="3"/>
+        <v>30.335790000000202</v>
+      </c>
+      <c r="H96">
+        <f>H95-G96</f>
         <v>23.5</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <f t="shared" si="4"/>
         <v>21.5</v>
       </c>
-      <c r="N96" s="4" t="s">
+      <c r="O96" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="13"/>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A97" s="18"/>
       <c r="B97" s="4" t="s">
         <v>242</v>
       </c>
@@ -17754,27 +18194,31 @@
       <c r="D97" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E97" s="18"/>
-      <c r="F97">
-        <v>1</v>
+      <c r="E97" s="21"/>
+      <c r="F97" s="12">
+        <f t="shared" si="3"/>
+        <v>29.016820000000202</v>
       </c>
       <c r="G97">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <f>H96-G97</f>
         <v>22.5</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>0.5</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="N97" s="4" t="s">
+      <c r="O97" s="4" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="14"/>
+    <row r="98" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="19"/>
       <c r="B98" s="7" t="s">
         <v>243</v>
       </c>
@@ -17784,27 +18228,31 @@
       <c r="D98" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E98" s="17"/>
-      <c r="F98" s="6">
+      <c r="E98" s="22"/>
+      <c r="F98" s="12">
+        <f t="shared" si="3"/>
+        <v>27.697850000000201</v>
+      </c>
+      <c r="G98" s="6">
         <v>2</v>
       </c>
-      <c r="G98" s="6">
-        <f t="shared" si="3"/>
+      <c r="H98" s="6">
+        <f>H97-G98</f>
         <v>20.5</v>
       </c>
-      <c r="H98" s="6">
+      <c r="I98" s="6">
         <v>2.5</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <f t="shared" si="4"/>
         <v>18.5</v>
       </c>
-      <c r="N98" s="4" t="s">
+      <c r="O98" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="19" t="s">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A99" s="29" t="s">
         <v>292</v>
       </c>
       <c r="B99" s="4" t="s">
@@ -17816,29 +18264,33 @@
       <c r="D99" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E99" s="15" t="s">
+      <c r="E99" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="12">
+        <f t="shared" si="3"/>
+        <v>26.378880000000201</v>
+      </c>
+      <c r="G99">
         <v>4</v>
       </c>
-      <c r="G99">
-        <f t="shared" si="3"/>
+      <c r="H99">
+        <f>H98-G99</f>
         <v>16.5</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>3</v>
       </c>
-      <c r="I99" s="31">
+      <c r="J99" s="14">
         <f t="shared" si="4"/>
         <v>15.5</v>
       </c>
-      <c r="N99" s="4" t="s">
+      <c r="O99" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="19"/>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A100" s="29"/>
       <c r="B100" s="4" t="s">
         <v>245</v>
       </c>
@@ -17848,27 +18300,31 @@
       <c r="D100" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E100" s="18"/>
-      <c r="F100">
+      <c r="E100" s="21"/>
+      <c r="F100" s="12">
+        <f t="shared" si="3"/>
+        <v>25.059910000000201</v>
+      </c>
+      <c r="G100">
         <v>0.5</v>
       </c>
-      <c r="G100">
-        <f t="shared" si="3"/>
+      <c r="H100">
+        <f>H99-G100</f>
         <v>16</v>
       </c>
-      <c r="H100">
-        <v>1</v>
-      </c>
       <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
         <f t="shared" si="4"/>
         <v>14.5</v>
       </c>
-      <c r="N100" s="4" t="s">
+      <c r="O100" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="19"/>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A101" s="29"/>
       <c r="B101" s="4" t="s">
         <v>246</v>
       </c>
@@ -17878,27 +18334,31 @@
       <c r="D101" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E101" s="18"/>
-      <c r="F101">
+      <c r="E101" s="21"/>
+      <c r="F101" s="12">
+        <f t="shared" si="3"/>
+        <v>23.740940000000201</v>
+      </c>
+      <c r="G101">
         <v>0.5</v>
       </c>
-      <c r="G101">
-        <f t="shared" si="3"/>
+      <c r="H101">
+        <f>H100-G101</f>
         <v>15.5</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>0.5</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="N101" s="4" t="s">
+      <c r="O101" s="4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="19"/>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A102" s="29"/>
       <c r="B102" s="4" t="s">
         <v>247</v>
       </c>
@@ -17908,27 +18368,31 @@
       <c r="D102" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E102" s="18"/>
-      <c r="F102">
+      <c r="E102" s="21"/>
+      <c r="F102" s="12">
+        <f t="shared" si="3"/>
+        <v>22.421970000000201</v>
+      </c>
+      <c r="G102">
         <v>0.5</v>
       </c>
-      <c r="G102">
-        <f t="shared" si="3"/>
+      <c r="H102">
+        <f>H101-G102</f>
         <v>15</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>0.5</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <f t="shared" si="4"/>
         <v>13.5</v>
       </c>
-      <c r="N102" s="4" t="s">
+      <c r="O102" s="4" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="14"/>
+    <row r="103" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="19"/>
       <c r="B103" s="4" t="s">
         <v>248</v>
       </c>
@@ -17938,30 +18402,34 @@
       <c r="D103" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E103" s="17"/>
-      <c r="F103" s="6">
+      <c r="E103" s="22"/>
+      <c r="F103" s="12">
+        <f t="shared" si="3"/>
+        <v>21.1030000000002</v>
+      </c>
+      <c r="G103" s="6">
         <v>0.5</v>
       </c>
-      <c r="G103">
-        <f t="shared" si="3"/>
+      <c r="H103">
+        <f>H102-G103</f>
         <v>14.5</v>
       </c>
-      <c r="H103" s="6">
+      <c r="I103" s="6">
         <v>0.5</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="N103" s="4" t="s">
+      <c r="O103" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A104" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="B104" s="30" t="s">
+      <c r="B104" s="13" t="s">
         <v>260</v>
       </c>
       <c r="C104" t="s">
@@ -17970,29 +18438,33 @@
       <c r="D104" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E104" s="15" t="s">
+      <c r="E104" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="12">
+        <f t="shared" si="3"/>
+        <v>19.7840300000002</v>
+      </c>
+      <c r="G104">
         <v>0.5</v>
       </c>
-      <c r="G104" s="31">
-        <f t="shared" si="3"/>
+      <c r="H104" s="14">
+        <f>H103-G104</f>
         <v>14</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>0.5</v>
       </c>
-      <c r="I104" s="31">
+      <c r="J104" s="14">
         <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
-      <c r="N104" s="4" t="s">
+      <c r="O104" s="4" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="19"/>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A105" s="29"/>
       <c r="B105" s="4" t="s">
         <v>261</v>
       </c>
@@ -18002,27 +18474,31 @@
       <c r="D105" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E105" s="18"/>
-      <c r="F105">
+      <c r="E105" s="21"/>
+      <c r="F105" s="12">
+        <f t="shared" si="3"/>
+        <v>18.4650600000002</v>
+      </c>
+      <c r="G105">
         <v>0.5</v>
       </c>
-      <c r="G105">
-        <f t="shared" si="3"/>
+      <c r="H105">
+        <f>H104-G105</f>
         <v>13.5</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>0.5</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="N105" s="4" t="s">
+      <c r="O105" s="4" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="19"/>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A106" s="29"/>
       <c r="B106" s="4" t="s">
         <v>262</v>
       </c>
@@ -18032,27 +18508,31 @@
       <c r="D106" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E106" s="18"/>
-      <c r="F106">
+      <c r="E106" s="21"/>
+      <c r="F106" s="12">
+        <f t="shared" si="3"/>
+        <v>17.1460900000002</v>
+      </c>
+      <c r="G106">
         <v>0.5</v>
       </c>
-      <c r="G106">
-        <f t="shared" si="3"/>
+      <c r="H106">
+        <f>H105-G106</f>
         <v>13</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>0.5</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <f t="shared" si="4"/>
         <v>11.5</v>
       </c>
-      <c r="N106" s="4" t="s">
+      <c r="O106" s="4" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="19"/>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A107" s="29"/>
       <c r="B107" s="4" t="s">
         <v>263</v>
       </c>
@@ -18062,27 +18542,31 @@
       <c r="D107" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E107" s="18"/>
-      <c r="F107">
-        <v>1</v>
+      <c r="E107" s="21"/>
+      <c r="F107" s="12">
+        <f t="shared" si="3"/>
+        <v>15.8271200000002</v>
       </c>
       <c r="G107">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <f>H106-G107</f>
         <v>12</v>
       </c>
-      <c r="H107">
-        <v>1</v>
-      </c>
       <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
         <f t="shared" si="4"/>
         <v>10.5</v>
       </c>
-      <c r="N107" s="4" t="s">
+      <c r="O107" s="4" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="19"/>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A108" s="29"/>
       <c r="B108" s="4" t="s">
         <v>264</v>
       </c>
@@ -18092,27 +18576,31 @@
       <c r="D108" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E108" s="18"/>
-      <c r="F108">
+      <c r="E108" s="21"/>
+      <c r="F108" s="12">
+        <f t="shared" si="3"/>
+        <v>14.508150000000199</v>
+      </c>
+      <c r="G108">
         <v>0.5</v>
       </c>
-      <c r="G108">
-        <f t="shared" si="3"/>
+      <c r="H108">
+        <f>H107-G108</f>
         <v>11.5</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>0.5</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="N108" s="4" t="s">
+      <c r="O108" s="4" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="19"/>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A109" s="29"/>
       <c r="B109" s="4" t="s">
         <v>265</v>
       </c>
@@ -18122,27 +18610,31 @@
       <c r="D109" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E109" s="18"/>
-      <c r="F109">
-        <v>1</v>
+      <c r="E109" s="21"/>
+      <c r="F109" s="12">
+        <f t="shared" si="3"/>
+        <v>13.189180000000199</v>
       </c>
       <c r="G109">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <f>H108-G109</f>
         <v>10.5</v>
       </c>
-      <c r="H109">
-        <v>1</v>
-      </c>
       <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="N109" s="4" t="s">
+      <c r="O109" s="4" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="14"/>
+    <row r="110" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="19"/>
       <c r="B110" s="7" t="s">
         <v>266</v>
       </c>
@@ -18152,27 +18644,31 @@
       <c r="D110" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E110" s="17"/>
-      <c r="F110" s="6">
+      <c r="E110" s="22"/>
+      <c r="F110" s="12">
+        <f t="shared" si="3"/>
+        <v>11.870210000000199</v>
+      </c>
+      <c r="G110" s="6">
         <v>2</v>
       </c>
-      <c r="G110">
-        <f t="shared" si="3"/>
+      <c r="H110">
+        <f>H109-G110</f>
         <v>8.5</v>
       </c>
-      <c r="H110" s="6">
+      <c r="I110" s="6">
         <v>1.5</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
-      <c r="N110" s="4" t="s">
+      <c r="O110" s="4" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="12" t="s">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A111" s="17" t="s">
         <v>294</v>
       </c>
       <c r="B111" s="4" t="s">
@@ -18184,29 +18680,33 @@
       <c r="D111" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E111" s="15" t="s">
+      <c r="E111" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="12">
+        <f t="shared" si="3"/>
+        <v>10.551240000000199</v>
+      </c>
+      <c r="G111">
         <v>0.5</v>
       </c>
-      <c r="G111" s="31">
-        <f t="shared" si="3"/>
+      <c r="H111" s="14">
+        <f>H110-G111</f>
         <v>8</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>0.5</v>
       </c>
-      <c r="I111" s="31">
+      <c r="J111" s="14">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N111" s="4" t="s">
+      <c r="O111" s="4" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="19"/>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A112" s="29"/>
       <c r="B112" s="4" t="s">
         <v>268</v>
       </c>
@@ -18216,27 +18716,31 @@
       <c r="D112" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E112" s="18"/>
-      <c r="F112">
+      <c r="E112" s="21"/>
+      <c r="F112" s="12">
+        <f t="shared" si="3"/>
+        <v>9.2322700000001987</v>
+      </c>
+      <c r="G112">
         <v>0.5</v>
       </c>
-      <c r="G112">
-        <f t="shared" si="3"/>
+      <c r="H112">
+        <f>H111-G112</f>
         <v>7.5</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>0.5</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
-      <c r="N112" s="4" t="s">
+      <c r="O112" s="4" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="19"/>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A113" s="29"/>
       <c r="B113" s="4" t="s">
         <v>269</v>
       </c>
@@ -18246,27 +18750,31 @@
       <c r="D113" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E113" s="18"/>
-      <c r="F113">
-        <v>1</v>
+      <c r="E113" s="21"/>
+      <c r="F113" s="12">
+        <f t="shared" si="3"/>
+        <v>7.9133000000001985</v>
       </c>
       <c r="G113">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <f>H112-G113</f>
         <v>6.5</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>0.5</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="N113" s="4" t="s">
+      <c r="O113" s="4" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="14"/>
+    <row r="114" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="19"/>
       <c r="B114" s="4" t="s">
         <v>270</v>
       </c>
@@ -18276,30 +18784,34 @@
       <c r="D114" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E114" s="17"/>
-      <c r="F114" s="6">
-        <v>1</v>
+      <c r="E114" s="22"/>
+      <c r="F114" s="12">
+        <f t="shared" si="3"/>
+        <v>6.5943300000001983</v>
       </c>
       <c r="G114" s="6">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H114" s="6">
+        <f>H113-G114</f>
         <v>5.5</v>
       </c>
-      <c r="H114" s="6">
-        <v>1</v>
-      </c>
-      <c r="I114">
+      <c r="I114" s="6">
+        <v>1</v>
+      </c>
+      <c r="J114">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="N114" s="4" t="s">
+      <c r="O114" s="4" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
+    <row r="115" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A115" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="B115" s="30" t="s">
+      <c r="B115" s="13" t="s">
         <v>271</v>
       </c>
       <c r="C115" s="9" t="s">
@@ -18308,29 +18820,33 @@
       <c r="D115" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E115" s="15" t="s">
+      <c r="E115" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F115">
-        <v>1</v>
+      <c r="F115" s="12">
+        <f t="shared" si="3"/>
+        <v>5.2753600000001981</v>
       </c>
       <c r="G115">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <f>H114-G115</f>
         <v>4.5</v>
       </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-      <c r="I115" s="31">
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115" s="14">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="N115" s="4" t="s">
+      <c r="O115" s="4" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" s="19"/>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A116" s="29"/>
       <c r="B116" s="4" t="s">
         <v>272</v>
       </c>
@@ -18340,27 +18856,31 @@
       <c r="D116" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E116" s="18"/>
-      <c r="F116">
-        <v>1</v>
+      <c r="E116" s="21"/>
+      <c r="F116" s="12">
+        <f t="shared" si="3"/>
+        <v>3.9563900000001979</v>
       </c>
       <c r="G116">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <f>H115-G116</f>
         <v>3.5</v>
       </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
       <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="N116" s="4" t="s">
+      <c r="O116" s="4" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117" s="19"/>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A117" s="29"/>
       <c r="B117" s="4" t="s">
         <v>284</v>
       </c>
@@ -18370,27 +18890,31 @@
       <c r="D117" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E117" s="18"/>
-      <c r="F117">
-        <v>1</v>
+      <c r="E117" s="21"/>
+      <c r="F117" s="12">
+        <f t="shared" si="3"/>
+        <v>2.6374200000001977</v>
       </c>
       <c r="G117">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <f>H116-G117</f>
         <v>2.5</v>
       </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
       <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="N117" s="4" t="s">
+      <c r="O117" s="4" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" s="19"/>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A118" s="29"/>
       <c r="B118" s="4" t="s">
         <v>285</v>
       </c>
@@ -18400,27 +18924,31 @@
       <c r="D118" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E118" s="18"/>
-      <c r="F118">
+      <c r="E118" s="21"/>
+      <c r="F118" s="12">
+        <f t="shared" si="3"/>
+        <v>1.3184500000001977</v>
+      </c>
+      <c r="G118">
         <v>2</v>
       </c>
-      <c r="G118">
-        <f t="shared" si="3"/>
+      <c r="H118">
+        <f>H117-G118</f>
         <v>0.5</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>1.5</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="N118" s="4" t="s">
+      <c r="O118" s="4" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="14"/>
+    <row r="119" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="19"/>
       <c r="B119" s="4" t="s">
         <v>286</v>
       </c>
@@ -18430,47 +18958,53 @@
       <c r="D119" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E119" s="17"/>
-      <c r="F119" s="6">
+      <c r="E119" s="22"/>
+      <c r="F119" s="12">
+        <v>0</v>
+      </c>
+      <c r="G119" s="6">
         <v>0.5</v>
       </c>
-      <c r="G119" s="6">
-        <f t="shared" si="3"/>
+      <c r="H119" s="6">
+        <f>H118-G119</f>
         <v>0</v>
       </c>
-      <c r="H119" s="6">
+      <c r="I119" s="6">
         <v>0.5</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N119" s="4" t="s">
+      <c r="O119" s="4" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B120" s="31"/>
-      <c r="I120" s="31"/>
-      <c r="N120" s="4"/>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B120" s="14"/>
+      <c r="J120" s="14"/>
+      <c r="O120" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E95:E98"/>
-    <mergeCell ref="E99:E103"/>
-    <mergeCell ref="E104:E110"/>
-    <mergeCell ref="E111:E114"/>
-    <mergeCell ref="E115:E119"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A104:A110"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="A115:A119"/>
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="E57:E62"/>
-    <mergeCell ref="E50:E56"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="E88:E94"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="E4:E12"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E35"/>
+    <mergeCell ref="E36:E41"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="E42:E49"/>
     <mergeCell ref="A68:A74"/>
     <mergeCell ref="E68:E74"/>
@@ -18478,24 +19012,21 @@
     <mergeCell ref="A50:A56"/>
     <mergeCell ref="A57:A62"/>
     <mergeCell ref="A63:A67"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E35"/>
-    <mergeCell ref="E36:E41"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="E4:E12"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="E18:E23"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="E88:E94"/>
-    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="E50:E56"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="E95:E98"/>
+    <mergeCell ref="E99:E103"/>
+    <mergeCell ref="E104:E110"/>
+    <mergeCell ref="E111:E114"/>
+    <mergeCell ref="E115:E119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
